--- a/output/Total_time_range_data/安徽省/阜阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/安徽省/阜阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4286 +436,4690 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>103</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>信息公开市菜篮子中心主任李标带队赴江苏宿迁考察现代农业发展</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-08-21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/5f3f3cd37f8b9a78188b4575.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['带领安徽瓦大现代农业科技有限公司、市菜篮子中心市场科以及安徽普渡智慧农业装备有限公司等', '在发展现代农业工作中的主要做法和取得的成效。每到一处，大家都仔细看、认真听，结合各自相关工作实际情况，对比总结，学习经验。', '在推进农业供给侧改革、现代农业产业发展及实施乡村振兴战略等方面都取得了非常显著的成绩，探索出了一批可圈可点的典型经验和做法。通过此次参观学习，进一步认识到了自身的差距和短板，回去之后要结合', '步伐，推进当地乡村振兴和现代农业发展工作向更深层次发展。同时，也希望两地以此次考察为契机，进一步深化交流与合作，相互学习，实现优势互补，共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>103</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>政务资讯颍上县委副书记县长程晓醒带队到江苏省江阴市考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-10-21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6170c732886688c4468b456d.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['10月18日，颍上县委副书记、县长程晓醒带队到江苏省江阴市考察学习经济建设发展工作，并就两地结对合作共建工作进行交流座谈。江阴市委副书记、市长包鸣，江阴市委常委、常务副市长赵强出席座谈会或陪同实地考察。颍上县政协主席胡伟以及县直有关单位主要负责同志参加考察。', '考察期间，程晓醒一行先后来到海澜集团、华西村等地，实地考察江阴市在产业转型升级、发展壮大集体经济的好经验好做法。', '座谈会上，双方就产业发展、企业培育、合作共建等工作进行深入交流。包鸣在讲话中首先代表江阴市委、市政府向程晓醒一行表示热烈欢迎，并简要介绍了近年来江阴市经济社会发展情况。包鸣指出，江阴——颍上两地结对合作共建是深入贯彻落实习近平总书记关于长三角一体化重要讲话指示精神的一项重要举措。下一步，江阴市将持续加强与颍上县的沟通对接，在人才培训、资源共享、产业发展等方面进行坦诚交流，着力构建优势互补、资源共享、互利共赢的合作体制机制，努力形成具有引领性、示范性的结对合作共建成果。', '程晓醒在讲话中首先代表县委、县政府简要介绍了颍上县情以及推进颍上——江阴两地结对合作共建的诚意。程晓醒指出，近年来，江阴市紧扣“强富美高”新江阴建设总目标，积极践行新发展理念，按照高质量发展要求，抢抓长三角一体化等重大历史机遇，坚持一张蓝图绘到底、一任接着一任干，发展势头十分强劲。下一步，颍上县将认真学习借鉴江阴市的新观念、新思路、新政策、新机制，特别是在园区建设、产业发展、科技创新、营商环境等方面的好经验、好做法，紧密结合颍上县情实际加以运用，更好推动颍上县经济社会高质量发展。程晓醒表示，希望颍上——江阴两地今后进一步凝聚合作共识，寻求合作路径，加强沟通交流，推动两地合作共建早日落地生根、开花结果。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>103</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>信息公开颍州区委常委常务副区长常利华赴苏州市金华市对接合作共建事宜和考察项</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-10-18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/6177591988668805568b456a.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['颍州区委常委、常务副区长常利华赴苏州市、金华市对接合作共建事宜和考察项目-阜阳市人民政府', '10月12日-14日，颍州区委常委、常务副区长常利华率队到苏州市吴中区和金华市婺城区对接合作共建事宜，共商合作愿景，共谋未来发展。吴中区、婺城区相关领导和相关部门负责人参加活动。', '10月12日，颍州代表团一行前往吴中区行政审批局政务服务大厅进行现场调研，学习吴中区大数据平台建设及行政审批相关经验。随后召开座谈交流会，进一步增进双方了解，谋划双方合作共建事宜。在苏期间，先后考察了苏州中资工程咨询有限公司、苏州产业园发展促进会和苏州亿通科技有限公司。', '10月14日，在婺期间，常利华一行先后来到飞扬智能制造小镇（小镇客厅）、今飞智造摩轮有限公司、跨境电商服务中心、浙江斯玛特信息科技有限公司、金华铁路文化公园等地，详细了解婺城的产业规划、历史人文、城市管理、文旅产业发展等情况，实地感受婺城当前的发展进程。', '在婺城区与颍州区合作交流座谈会上，与会人员观看了两地的城市宣传片，两地代表分别介绍了各区经济社会发展情况，并就技术创新、人才交流、招商引资等方面如何携手共同发展，进行了深入讨论。', '会上，陈夙代表婺城区委区政府对颍州区的来访表示欢迎。她说，婺城文化底蕴深厚，地理位置优越。近年来，婺城大力推进“都市经济创新城、美好生活幸福城”战略，城市有机更新不断推进，项目建设不断取得突破。此次合作共建的展开，标志着两地的发展迎来了新的机遇，前景可待、未来可期。婺城和颍州人文相亲、情缘相近，有广阔的合作发展空间。希望两地立足各自资源禀赋，积极拓展协作空间，进一步拓宽合作领域，在相互学习、相互促进中实现优势互补、合作共赢。', '常利华表示，婺城先进的发展理念、高效的管理机制以及推动落实的办法措施，为颍州社会发展、城市发展、经济发展等方面提供了有利参考，希望婺城利用多年积累的成功经验和丰富资源为颍州提供更多的指导和支持。同时，也希望此次考察学习，能够成为婺城、颍州两区互动互访、增进感情的新起点，搭建两地经贸合作、人才交流的新平台，书写出携手共建、共谋发展的新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>103</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>政务资讯平顶山高新区到界首市考察交流</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-05-28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60b03b9e88668871298b4568.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['5月26日，平顶山高新区党工委书记凌兵奎、党工委副书记刘亚等带领平顶山高新区考察团到界首市考察交流，界首市委书记何逢阳，界首市委常委、副市长屈凯等陪同考察。', '考察团先后参观了高新区规划馆、南都华拓、骆驼电池、三宝高科、市民中心等，并召开工作交流座谈会。', '座谈会上，凌兵奎介绍了此次考察学习的目的和感受。何逢阳对平顶山高新区的来访表示欢迎，并就界首市科技创新、产业发展、营商环境、招商引资、企业服务等工作做法作了简要介绍。', '何逢阳指出，界首工业经济取得的成绩，主要得益于十几年里发展工业思路的传承和延续，得益于科技创新工作理念的梳理创新、工作方法的持续改进和工作机制的不断完善。界首抓科技创新有界首即高新区、创新无处不在、创新人人可为、不给创新创业者设置障碍、创新愉快、愉快才能创新等四大理念。在工作方法上，主要是发挥企业在创新发展中的主体作用、搭建优质的创新平台、坚持以企业为中心的企业服务、抓好人才支撑和政策保障。工作机制上主要是建立完善的职责清晰的决策机制、快速高效的执行机制和具体明确的监督考核机制。', '考察团表示，通过实地考察看到了界首园区发展的巨大变化、产业气象、干部作风，特别是界首市创新发展理念、服务企业意识、抓工业经济方法，值得学习借鉴。下一步，将进一步加强交流，推动两地合作共赢，共同实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>103</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>政务资讯郸城县到太和学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020-05-25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5ecb6c307f8b9a42798b4567.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['5月22日上午，河南省周口市郸城县委常委、常务副县长王智华，农发行周口市分行副行长画聪一行到太和，考察学习太和县基础设施建设融资工作的先进经验和做法，并召开交流座谈会，太和县委常委、常务副县长刘健，农发行阜阳市分行副行长曹阳陪同座谈。', '座谈会上，太和县国有资产投资控股集团有限公司对太和县政策性银行融资业务、商业银行融资业务和金融市场融资业务的开展情况分别做详细介绍；农发行太和县支行对其信贷基本情况和特色中长期项目融资支持情况做详细介绍。与会人员就有关工作展开热烈交流和探讨。', '王智华一行对太和县基础设施建设融资工作给予了高度评价，对太和经济社会发展给予了高度认可。刘健表示，欢迎郸城县与太和县建立联系互动关系，希望加强两地的经贸合作及经验交流，共谋发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>103</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>信息公开四川广安市政协考察团一行来阜考察城市公共交通发展工作</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2018-05-14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/5b10aa807f8b9a712900fa45.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['5月11日，由广安市政协党组成员、副主席欧太元率领的市政协、市交通、市交投、市公交等单位组成的10人考察团，来我市考察交流城市公共交通发展工作。市政协副主席、市工商联主席聂磊出席考察活动。市政协副秘书长、办公室主任丁克俭，市交通运输局副局长王初领，市交通能源投资有限公司监事会主席江玉友，市公交总公司党委书记、总经理任鑫等单位负责人陪同考察并座谈。', '考察团一行先后来到阜阳公交七场项目建设现场、城南新区公交首末站、阜阳公交答朝荣服务热线等，通过现场察看、听取汇报等形式，详细了解我市近年来在城市公共交通事业发展方面取得的成果，并对我市大力实施公交优先发展战略，全力打造“高效便捷、安全舒适、经济可靠、绿色低碳”的城市公交服务体系所取得的显著成效给予充分肯定。', '政府支持情况和企业运营管理工作是考察团一行关注的重点之一。在随后召开的两地座谈交流会上，任鑫简要介绍了我市城市公共交通事业发展情况，特别与考察团就近年来企业在改革创新、安全管理、三产创收、优质服务、队伍建设方面的举措和成效进行了交流。考察团成员一致表示，阜阳公交事业发展在政府支持、机制建设、规划引导、企业管理、文明创建、运营服务、队伍稳定等方面进行了很多有效探索和尝试，取得了显著成绩，很多成功做法和先进经验都值得深入学习借鉴。希望以此次考察交流为契机，进一步加强两地之间的沟通交流，实现优势互补，推动城市公共交通事业发展迈上新的台阶，共同谱写友好交流、创新发展的崭新篇章。', '在座谈时，丁克俭代表阜阳市政协委员会对广安市政协考察团一行的到来表示诚挚欢迎，并转达了市政协主要领导的诚挚问候。他指出，阜阳、广安两地虽相隔千里，但在城市公共交通发展方面有许多共性，希望今后能不断加强交流沟通，彼此借鉴、互相学习、取长补短，促进两地公交事业共同发展。', '欧太元对阜阳市政协给予的热情接待和精心安排表示感谢，对阜阳公交事业发展取得的显著成绩给予了充分肯定。他表示，通过此次考察学习，开拓了眼界、增长了见识，深刻感受到了阜阳公交事业呈现出的良好发展势头和公交优先发展的浓厚氛围,同时也深受鼓舞和启迪，对助推广安公交事业今后的发展将产生积极和深远的影响。他指出，近年来，阜阳城市公共交通事业发展在市委、市政府的大力支持下，服务水平不断提升、基础设施不断完善、出行质量越来越好，城市公共交通事业发展站位高、亮点多、效果好、经验实，创造了很多值得学习借鉴的经验典型。我们将把此次考察当作一次学习之旅，把阜阳公交事业发展的好经验、好做法带回去，不断消化、吸收，形成高质量考察报告，供党委、政府决策参考，通过政协力量进一步推动广安城市公共交通事业蓬勃发展，切实增强人民群众的获得感、幸福感。', '据了解，阜阳是安徽省首批“优先发展公共交通示范城市”创建城市和“十三五”国家首批公交都市建设城市。近年来，阜阳市委、市政府高度重视城市公交事业发展，以“双创”发展机遇为引领，紧紧围绕构建“高效便捷、安全舒适、经济可靠、绿色低碳”的城市公交服务体系，大力实施公交优先发展战略，持续加大政府资金投入和政策保障，取得了显著成效。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>103</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>政务资讯市退役军人事务局局长李士坤考察调研上海及长三角地区企业复工复产用工情况</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5e66ef967f8b9a6c6e8b4567.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['市退役军人事务局局长李士坤考察调研上海及长三角地区企业复工复产用工情况-阜阳市人民政府', '3月8日下午，市退役军人事务局党组书记、局长李士坤到阜阳驻上海退役军人服务站、上海市青浦区阜阳企业家联合会考察，实地了解上海及长三角地区企业复工复产用工、服务站成立以来工作运行等情况。', '薛怀飞会长代表联合会汇报了所属企业发展运营情况、退役军人服务站成立过程和服务保障工作开展情况，企业家代表介绍了当前企业用工需求和存在的主要困难。上海申通快递五角场分公司总经理钱伟表示：疫情期间，公司招聘员工非常困难，“招工季”成了“发愁季”，希望服务站继续加大退役军人技能培训力度，积极协调退役军人参与就业创业，帮助公司摆脱招工困难的局面。', '李士坤对家乡企业取得的成绩和服务站成立以来所做的工作给予充分肯定，重点推介了阜阳市委市政府在企业复工复产方面的优惠政策，并强调：疫情防控的特殊时期，阜阳市委市政府高度重视长三角地区企业用工需求和劳务人员返岗复工情况，希望服务站积极响应市委市政府号召，主动摸清摸实企业用工需求及阜阳籍劳务人员特别是退役军人返岗复工情况，及时帮助解决实际困难，让他们尽早走出家门，投入生产，增加收入。要持续做好信息采集、就业指导、政策宣传、权益维护等日常工作，切实当好阜阳籍退役军人的“娘家人”。要敢于拓宽思路、大胆创新、探索亮点，借力上海各类资源优势，全力打造阜阳市驻长三角地区退役军人服务站的样板。', '据悉，在全国退役军人外出务工较集聚的地方设立驻外服务站，是阜阳市加强流动退役军人服务保障工作的有益尝试。2019年11月27日，安徽省首个驻外退役军人服务站率先在上海青浦区阜阳企业家联合会挂牌运行。组建以来，服务站通过电话、微信等方式，向在沪阜阳籍退役军人宣传家乡和当地政府的优惠政策，同时了解他们的需求和困难，及时帮助协调解决。发动协会内部律师事务所免费为阜阳籍退役军人提供法律援助，有力维护了正当合法权益。配合开展“接您回家”“送您上岗”等活动，为阜阳籍务工人员和退役军人免费提供大巴车，先后接送600余人次。组织家乡优秀师生到同济大学、华东政法等学校参观研学，让他们感受上海高校文化底蕴。鼓励联合会会员回乡考察学习，慰问家乡军属及烈士家庭，并向学校、敬老院等单位捐款捐物160余万元。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>103</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>专题专栏阜南县委副书记县长李云川带队到亳州市考察智慧城市建设工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2018-03-30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/5abda4137f8b9aad7b47fcdc.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['3月24日，阜南县委副书记、县长李云川带领县领导王震、杨汇汇、杨世强、刘晓云及县直有关部门负责人，到亳州市考察学习智慧城市建设、“互联网+政务服务”等信息化建设工作。亳州市政府副秘书长刘岩、亳州市信息局局长张解放等陪同考察并介绍信息化建设工作一些做法和实际运行成效。', '李云川一行先后到亳州市智慧城市展厅、亳州市城管指挥中心、亳州市公积金中心等地进行考察，了解当地在智慧城市建设、“互联网+政务服务”等方面运行情况。近年来，亳州市利用“互联网+”思维和大数据资源，打造了包括网上办事大厅、“我家亳州”等平台，建设了云计算数据中心；目前已汇集、整合56个部门的29.1亿多条数据资源，为亳州“智慧城市”建设打下了基础。亳州市以创新监管、便民利民为着力点，把政府的权力清单、责任清单、公共服务清单、行政收费清单、智慧城市创建等事项，通过信息化建设这个平台有效融合衔接起来，既做到了监管上高效率，也实现了群众办事的便利化，真正做到了让数据多跑腿、群众少跑腿。', '李云川在介绍阜南县信息化建设情况时说，2017年5月阜南县启动了“智慧阜南”建设，建设大数据基础平台和扶贫、医疗、水利、城管、政务、农业、园区和应急等八大类智慧应用，大数据平台整合34个部门，采集数据8000万条；同时在精准扶贫、企业用工服务、个人创业授信贷款等方面开展了一些实际应用；另外在政务服务方面，218个行政权力事项实现网上办理，“智慧阜南”APP上开通了32项便民服务。但跟亳州市相比，差距还很大，还需要大力推进。通过这次考察学习，感受到亳州市在信息化建设方面领导高度重视、操作路径思路清晰、部门配合推动有力，取得了实效，方便了群众，成熟的非常经验值得学习和借鉴。对此李云川要求阜南县相关单位要认真学习亳州的好经验、好做法，全力推进智慧阜南建设，做好顶层规划，推进便民应用，让大数据服务企业、服务人民群众，助推阜南经济快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>103</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>专题专栏河北省廊坊市工业和信息化局一行来阜考察政务信息资源共享交换平台建设工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2017-02-23</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/58ae87b77f8b9a6b62d46028.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['河北省廊坊市工业和信息化局一行来阜考察政务信息资源共享交换平台建设工作-阜阳市人民政府', '2月22日，河北省廊坊市工业和信息化局副局长王国兴一行，来我市考察学习政务信息资源共享交换平台建设工作，市政府办公室副主任、市电子政务办公室主任李永义，市经信委、市卫计委、市公安局、市民政局等市直单位负责同志出席座谈会。', '座谈会上,李永义向王国兴一行介绍了近几年阜阳市智慧城市和信息惠民双试点工作的开展情况，阐述了阜阳市信息化工作“统筹兼顾，重点突出”的具体做法，即围绕阜阳市智慧城市和信息惠民双试点工作为中心，统筹全局、统一领导，以云服务虚拟化、公共信息平台为主要支撑，大力建设信息惠民重点项目。随后，市公共信息平台项目工程师就平台设计及政务信息资源共享交换架构作了详细汇报。考察组一行认真听取并不时提出问题，在政务信息数据采集、数据安全、数据共享等细节问题上与市民政局、市公安局等单位负责同志进行了交流讨论。', '王国兴表示阜阳市在政务信息资源共享交换建设方面发展迅猛，成效显著，为廊坊市政务信息化工作提供了宝贵经验，此次座谈交流令人受益匪浅，回去之后将认真研究，同时希望两地保持后续交流学习，共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>103</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>专题专栏学习先进促崛起阜阳合肥结对合作交流城市建设研讨班侧记</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2010-05-05</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/5487b027a87a139d506b07d8.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['四月的合肥，春风拂面，生机盎然。 4月26日上午，在美丽大蜀山脚下的合肥市委党校，阜阳与合肥对接学习交流专题培训班的帷幕徐 徐拉开。市领导宋卫平、孙云飞、孙仁、王改林、陈继民等出席了第一期（城市建设）研讨班的开班典礼。 为期5天的城市建设研讨班上，市建委、国土资源局、城乡规划局等10个部门的206名单位“一把手”、领导班子成员及业务骨干，切身感受合肥速度、合肥精神和合肥大建设、大发展的浓厚氛围，亲眼目睹省城蒸蒸日上的火红景象，认真查找自身存在的差距，增添了学习先进经验、推进阜阳加速崛起的使命感和责任感。', '据市委组织部有关负责人介绍，今年是阜阳大发展大建设之年，大发展大建设迫切需要一支能干事、会干事、又能干好事的过硬队伍。这一大背景下，城市建设研讨班成为首期培训班。 第一期206名参训学员来到合肥市委党校后，立即投入紧张的学习中。学习期间，学员们听取了《以体制机制创新推动合肥跨越式发展》、《滨湖新区规划建设发展情况》、《合肥市大建设的实践与思考》、《合肥市重点工程项目建设及管理》、《科学管理土地，保护资源保障发展》等讲座。讲座内容丰富，既有合肥市以体制机制创新推动跨越式发展的辅导，又有合肥市大发展中的有关城市规划、滨湖新区规划建设的经验介绍；既有合肥市大建设宏观布局的思路，又有微观的重点工程建设与管理、土地利用与资源保护、招投标管理等经验的推介。 始终强调形象意识，注重个人约束，在培训过程中展示我市干部良好精神风貌，是全体学员的自觉行动。在上课时，所有的参训学员，无论职务高低，都能加强自律，做到纪律严明，表现出较强的自我约束和自我管理能力。每次上课前十几分钟，大多数学员都来到教室做好课前准备。上课时，大家认真听讲，仔细做笔记，勤学习，爱思考，肯动脑，对口座谈交流发言积极踊跃，时时处处显现出较高的学习热情。 合肥市规划局局长王爱华深为我市学员认真学习的精神所感动，感慨地说：“我作为安大、安农大等高校客座教授，多年来一直坚持给高校和一些单位部门授课，却很少见到这种积极向上、渴望学习的场景。” 合肥市委党校常务副校长张长淮对我市学员表现出的良好学风给予充分肯定。他说，这次研讨班虽然时间不长，但让我深深感到，阜阳的干部有雄心壮志，有把阜阳城市建设搞好的精气神。 一堂堂讲座，一次次座谈，一处处参观……广大学员看到了真正的合肥，感受到真正的合肥精神——', '一次开阔眼界解放思想之旅 学习不仅体现在课堂上，更体现在课堂外。此次合肥之行，是一次开阔眼界、解放思想之旅。 培训期间，我市广大学员实地考察了合肥市滨湖新区规划建设情况、巢湖沿岸综合治理工程、长江西路高架桥、轨道交通一号线试验段工程；参观了黄山路、五里墩立交桥、畅通一环、四里河立交桥、徽州大道、金寨路高架以及清溪路垃圾填埋场综合治理工程、四里河综合治理工程、匡河景观工程、天鹅湖等。合肥市近年来的飞速发展以及在城市建设方面取得的显著成效，令我市广大学员发出由衷赞叹。带队参加学习的副市长王改林深有感触地告诉记者，这次考察学习，大家在思想上受到深深触动。学习合肥先进经验，大家要坚持科学的态度、运用科学的知识和方法来分析问题，把自己所从事的工作和担负的责任放到大局中去把握、去衡量。通过思维方式的创新，寻求工作方法的创新，抓大事，抓关键，以点带面，全面推动。 参加学习的市政协副主席陈继民认为，合肥近几年城市建设速度快、成效好，特别是滨湖新区建设规划超前，最能代表合肥的速度和大建设的水平，为全省树立了榜样，是我们学习的楷模。 学员李运清表示，合肥市容和城管工作很有创新，整个城市道路整洁，无占道经营现象；绿化景观效果好，城市绿化覆盖率高，植物品种多样、数量多，搭配合理；城市规划科学合理，具有前瞻性，灯饰整齐、新颖、美观……凡此种种，都让大家深受触动、深受启发。合肥市凝心聚力谋发展、求实创新干事业的实干精神，立足市情大胆推进体制机制改革的创新精神，以大建设推进大发展、以大建设营造发展大环境的创新举措，为阜阳市的发展带来了深刻的启示。 学员史春认为，合肥市的做法和经验是干出来的。没有吃大苦、流大汗的实干精神，没有敢于拼搏、永不言败的思想观念，促进一个地方的奋力崛起是一句空话。 通过培训提升学习能力，不断完善自我，将所学逐步融会贯通于日常工作中——', '“抓住有限时间，认真学习合肥经验，本着‘干什么、学什么，缺什么、补什么’的原则，紧密结合自己的工作实际，使合肥经验真正转化为推进工作的支撑，力求学有所获、学有所成，真正把合肥经验学到手、用得上，变成阜阳跨越发展的动力，切实为我市大发展大建设准备条件。” 4月26日，市委书记、市人大常委会主任宋卫平在开班仪式上的讲话，成为我市广大学员奉行的学习准则。 切实取到真经、力促阜阳崛起，是广大学员思考最多的“中心思想”。陈继民表示，要认真学习思考合肥的建设经验，用心体验合肥在城市建设上体现生态和谐、科学规划、高效建设的好做法，在今后的工作中勇于实践创新，推动阜阳城市大建设。回去后，我们城乡建设系统广大干部职工将进一步消化合肥大建设的先进理念和管理经验，坚持部门联动，优化招投标管理，强化工程质量监管，科学合理组织施工，切实抓好精品工程的实施，努力为阜阳大建设作出应有的贡献。 李运清告诉记者，市容系统将认真借鉴合肥市城管局的经验，以“全面打基础，重点求突破”为工作主线，以打造素质城管、活力城管、法制城管、责任城管、和谐城管为目标，切实做好和改进阜阳市容管理工作。 大家纷纷表示，将把与合肥比较产生的压力转化为做好本职工作的巨大动力，把学到的好经验好做法真正运用于工作实践之中，转化为谋划工作的思路、促进工作的措施、领导工作的本领。在市委、市政府的正确领导下，珍惜时代赋予的发展机遇，在本职岗位上努力学习、勤奋工作、负起重任，为推进阜阳加快发展加速崛起作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>103</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>专题专栏市委常委会扩大会议召开传达学习习近平总书记重要讲话重要指示精神及全</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/66821535886688d72f8b4567.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['市委常委会（扩大）会议召开 传达学习习近平总书记重要讲话重要指示精神及全省领导干部会议精神-阜阳市人民政府', '市委常委会（扩大）会议召开 传达学习习近平总书记重要讲话重要指示精神及全省领导干部会议精神', '6月29日，市委书记刘玉杰主持召开市委常委会（扩大）会议，传达学习习近平总书记重要讲话重要指示精神及全省领导干部会议精神，研究“万企兴万村”行动、区域性生态强市建设、工会工作等事项。市委副书记、市长胡明文，市领导胡明莹、李志伟、李军、章绍伟、王波、白晓云、吕国平、张俊杰、邵兵、张永平参加。', '会议学习了习近平总书记在青海考察时、在宁夏考察时、在全国科技大会国家科学技术奖励大会两院院士大会上的重要讲话精神和给浙江省丽水市景宁畲族自治县各族干部群众的重要回信精神，强调要坚持把发展特色优势产业作为主攻方向，改造提升传统产业、培育壮大新兴产业、前瞻布局未来产业，以产业链思维推动八大先进制造业集聚集群集成发展，因地制宜发展新质生产力；持续深化重点领域和关键环节改革，抢抓长三角一体化等重大战略机遇，加快构建“支撑阜阳、带动皖北、呼应合肥”的铁公机水“四位一体”现代综合交通物流体系和对外开放平台；健全“横到边、纵到底”风险防范体系，一体推进“1+1+N”突出生态环境问题整改，系统构建具有阜阳特色的“民声呼应”高效工作体系，更好统筹发展和安全、发展和环保、发展和民生。要加快科技创新和产业创新深度融合，持续强化企业创新主体地位，高标准建设安徽（阜阳）高等研究院等高能级平台，常态化开展“招才引智高校行”“阜阳学子家乡行”等活动，努力打造全省具有重要影响力的科技成果转化聚集地。要铸牢中华民族共同体意识，全面贯彻新时代党的宗教工作理论和方针政策，依法加强宗教事务管理。要抓紧抓实党纪学习教育，以学纪知纪明纪促进遵纪守纪执纪，教育引导广大党员干部想干事、能干事、干成事、不出事。', '会议传达学习了全省领导干部会议精神，强调全市上下要把思想认识统一到会议要求上来，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，坚持对党忠诚，坚定拥护“两个确立”、坚决做到“两个维护”；坚持守正创新，坚定不移推动高质量发展；坚持民生为大，努力创造高品质生活；坚持从严治党，全面推进党的建设，不折不扣推动党中央决策部署及省委工作要求在阜阳落地见效，充分发挥皖北龙头城市作用，加快建设“三地一区”“十个区域性强市”，引领阜阳城市圈奋力走出新时代高质量发展新路，既为阜阳一域争光，又为安徽全局添彩。', '会议审议通过了我市《关于深入推进“万企兴万村”行动助力乡村振兴工作的实施意见》，强调要聚焦产业、人才、文化、生态、组织“五大振兴”，引导广大民营企业积极参与乡村产业发展、精品示范村建设、农村人居环境整治等，为加快建设宜居宜业和美乡村贡献力量。要把“万企兴万村”行动摆在突出位置，压实工作责任、完善制度机制、细化落实措施，为广大民营企业投身乡村振兴创造良好环境。', '会议审议通过了《阜阳市建设天蓝地绿水清的区域性生态强市五年行动计划（2023—2027年）》，要求牢固树立和践行“绿水青山就是金山银山”理念，持续深入打好蓝天、碧水、净土保卫战，积极推动发展方式绿色低碳转型，大力推行绿色生产、绿色生活、绿色交通、绿色建筑，加快建设天蓝地绿水清的区域性生态强市，更好满足人民群众美好生活新期待。', '会议研究了我市推动工运事业和工会工作高质量发展的重点任务清单，强调要常态长效推动习近平新时代中国特色社会主义思想进企业、进车间、进班组，持续加强对职工的思想政治引领。要大力弘扬劳模精神、劳动精神、工匠精神，深化工人队伍改革，加强职工技能培训，为加快建设“三地一区”“十个区域性强市”培养更多高素质人才。要不断擦亮“四送”等工作品牌，扎实做好职工维权服务工作，用心用情用力为广大职工送温暖、办实事、解难题。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>103</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>专题专栏刘玉杰率队赴长春考察推动两地合作走深走实</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/667b645a8866880f7f8b4567.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为深入贯彻落实省党政代表团赴吉林学习考察座谈会精神，6月22日至24日，市委书记刘玉杰率队赴长春考察，与吉林省委常委、长春市委书记张恩惠围绕深化两地务实合作举行工作会谈，马不停蹄对接知名高校、科研院所、头部企业并举行专家教授、企业家午餐会，与吉林大学党委书记姜治莹会谈并开展“招才引智高校行”宣讲推介系列活动，出席见证阜阳之友联谊会长春理事会成立，在产学研合作、人才招引、产业对接、扩大交流等方面取得系列成果，持续推动阜阳长春两市合作走深走实，为皖吉两省深化合作贡献力量。市领导李志伟、王波、吕国平、郑久坤、陈东、杨善竑，阜阳师范大学、阜阳理工学院、阜阳职业技术学院主要负责同志等分别参加。', '吉林大学学术成就卓著、人才集聚荟萃，刘玉杰一行考察了学校无机合成与制备化学国家重点实验室、综合极端条件高压科学中心，与学校党委书记姜治莹等负责人和专家教授围绕深化市校合作、校校合作、校企合作开展座谈交流，见证阜阳师范大学、阜阳理工学院、市科技局、市卫生健康委、市人力资源社会保障局、团市委与吉林大学签订系列合作协议，我市相关企业与吉林大学教授团队达成产学研合作。24日晚，刘玉杰还率队在吉林大学开展了“招才引智高校行”宣讲推介系列活动，他从历史底蕴、战略定位、产业基础、人才政策、人文环境等五个维度，结合PPT生动介绍了阜阳厚重的历史文脉、突出的综合优势、良好的发展态势，并向广大学子发出盛情邀约：拥有千载名城、千古名相、千万人民的阜阳，将全力帮助广大学子实现创新创意创造的梦想！活动当天，阜阳134家企事业单位集中发布了609个就业岗位、2158个用人需求，现场达成就业意向50多人，签约了一批博士拔尖人才，另有一批高年级学生表达了来阜就业意愿。', '在吉林农业大学，刘玉杰考察了食药用菌教育部工程研究中心并与吉林省农业农村厅、吉林农大等单位负责同志会谈，在食药用菌产业发展、科技成果转化应用等方面达成多项合作共识。6月23日上午，刘玉杰一行还考察了中国科学院长春应用化学研究所，推动安徽昊源化工、安徽晋煤中能等企业与长春应化所在尼龙11、二氧化碳基可降解塑料PPC、聚乙醇酸可降解塑料、锂电池综合一体化回收等方面达成合作意向。', '中国第一汽车集团有限公司被誉为“新中国汽车工业摇篮”，邦迪汽车系统有限公司是全球性汽车零部件制造型企业。两家企业实力雄厚，技术研发持续领先、产业规模行业领先，与阜阳新能源汽车产业发展互补性强、契合度高。刘玉杰一行深入企业实地考察，与企业高管团队座谈交流，就发挥各自优势、深化务实合作达成重要共识。考察期间，刘玉杰还见证了吉林省爱未来文创集团与我市颍州区文旅文创合作项目签约，与长春新牧、中农吉牧、长春城开农投、吉林得利斯食品、辽宁海大生物科技等企业主要负责人和专家教授举行午餐会，围绕高端绿色食品和肉牛产业合作深入交流、达成共识。', '在长春期间，刘玉杰还出席了阜阳之友联谊会长春理事会成立大会。他表示，长期以来，阜阳长春两地人员交往、产业合作保持良好势头，特别是去年底直飞航班恢复以来，往来旅客已达1.6万人次。阜阳之友联谊会长春理事会的成立，对推动阜阳与长春深化区域合作具有重要意义，希望充分发挥桥梁纽带作用和团结联谊职能，在积极融入支持吉林经济社会高质量发展的同时，广聚“阜阳关注和关心阜阳”的阜阳之友，一如既往为阜阳发展牵线搭桥、添砖加瓦，为深化阜阳长春两地合作贡献更多力量。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>103</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>政务资讯习近平在青海考察时强调持续推进青藏高原生态保护和高质量发展奋力谱写中</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6673fa748866886c4d8b456d.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章-阜阳市人民政府', '习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '新华社西宁6月20日电 中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。', '6月18日至19日，习近平在青海省委书记陈刚和省长吴晓军陪同下，深入西宁市的学校、宗教场所等进行调研。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学食堂察看学生就餐条件。新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学宿舍楼察看学生住宿条件。新华社记者 岳月伟 摄', '18日下午，习近平首先来到果洛西宁民族中学考察。这是一所隶属于果洛藏族自治州的寄宿制中学，由上海市投资援建。习近平听取上海等东部地区援助青海教育工作和学校建设情况介绍，详细询问学生构成、课程设置、体育锻炼、普通话水平等情况，走进食堂、宿舍楼察看学生就餐和住宿条件，嘱咐食堂工作人员一定要确保学生饮食安全、营养可口。之后，他来到高一（1）班教室，观摩“新时代、新家乡”主题思政课。了解到学校将思政课内容融入日常教学，听了孩子们讲述新时代家乡的可喜变化，看了孩子们的画作，习近平十分高兴。他说，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势，充分体现了中华民族大家庭的温暖。要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课时，同学生亲切交流。新华社记者 鞠鹏 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课。新华社记者 鞠鹏 摄', '教学楼前广场上，师生们纷纷围拢过来，高声向总书记问好。习近平亲切地对大家说，我到西宁第一站就来看望老师和同学们。上海援建的这所中学，培养来自果洛牧区的各民族孩子，成效明显，意义深远。希望孩子们倍加珍惜这里的良好条件，心怀感恩、好好学习，德智体美劳全面发展，立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。他祝孩子们学有所成、健康成长。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 燕雁 摄', '随后，习近平来到位于西宁市城中区的宏觉寺。在寺前院落，宏觉寺民主管理委员会负责人向总书记敬献哈达，僧人提香炉、持宝伞迎接总书记。习近平参观青海省民族团结进步教育基地展陈等，了解寺庙历史沿革、老一辈革命家关心推动民族工作和宗教工作的情况。他走进大殿，听取寺庙加强日常管理、促进民族团结进步等情况介绍。习近平指出，宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用。要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。要向老一辈革命家学习，把新时代党的统战工作、民族工作、宗教工作做得更好。习近平强调，以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。新华社记者 翟健岚 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。新华社记者 谢环驰 摄', '19日上午，习近平听取青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定。', '习近平指出，青海承担着维护生态安全的重大使命，产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系。要有效集聚资源要素，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。坚持科技研发和成果转化两手抓，广泛应用新技术，因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力。进一步全面深化改革、扩大开放，优化营商环境，主动对接长江经济带发展等重大战略，推动绿色丝绸之路建设。统筹省内区域协调发展，发挥好西宁、海东、海西支撑作用，因地制宜发展县域经济、特色产业。', '习近平强调，青藏高原生态系统丰富多样、也十分脆弱，加强生态环境保护，实现生态功能最大化，是这一区域的主要任务。要始终坚持生态优先、绿色发展，认真实施青藏高原生态保护法，全面落实主体功能区规划要求，把青藏高原建设成为生态文明高地。坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效。重中之重是把三江源这个“中华水塔”守护好，保护生物多样性，提升水源涵养能力。加强以国家公园为主体的自然保护地体系建设，打造具有国家代表性和世界影响力的自然保护地典范。有序推进重点领域节能降碳，发展生态友好型产业，加快构建新型能源体系。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，向师生们挥手致意。新华社记者 鞠鹏 摄', '习近平指出，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。统筹谋划基本公共服务设施布局，着力增强基本公共服务的均衡性可及性。乡村振兴要突出农牧民增收这个重点，加快推进高原特色种业振兴行动，发展绿色有机农牧业，打响高原土特产品牌。推进高原美丽乡村建设，推动移风易俗。落实防止返贫监测帮扶机制，确保不发生规模性返贫。继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 岳月伟 摄', '习近平强调，青海是我国少数民族分布集中的省份，要继续做好民族工作和宗教工作。全面贯彻新时代党的民族工作大政方针，坚持以铸牢中华民族共同体意识为主线，广泛开展民族团结进步创建工作，促进各民族全方位嵌入、广泛交往交流交融。全面贯彻新时代党的宗教工作理论和方针政策，坚持我国宗教中国化方向，依法加强宗教事务管理特别是宗教活动场所管理。', '习近平指出，目前正在开展党纪学习教育，要真抓实学、善始善终，以学纪知纪明纪促进遵纪守纪执纪。大力弘扬以改革创新为核心的时代精神和青藏高原精神，激励党员、干部进一步解放思想、转变观念，锐意进取、担当作为。坚持党性党风党纪一起抓、正风肃纪反腐相贯通，推进作风建设常态化长效化，持续深化整治形式主义为基层减负。完善一体推进不敢腐、不能腐、不想腐工作机制，以风清气正的政治生态引领形成正气充盈的社会生态。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>103</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>专题专栏刘玉杰主持召开六届市委常委会第次会议暨市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/665ebd7a88668866108b4567.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['刘玉杰主持召开六届市委常委会第140次会议暨市委理论学习中心组学习会议-阜阳市人民政府', '5月30日下午，市委书记刘玉杰主持召开六届市委常委会第140次会议暨市委理论学习中心组学习会议，传达学习习近平总书记重要讲话重要指示精神，研究党纪学习教育、高考综合改革、干部教育培训、关心下一代及老干部等工作。市领导胡明莹、李军、章绍伟、王波、白晓云、吕国平、张俊杰、邵兵等参加。', '会议传达学习了5月27日中共中央政治局会议精神和习近平总书记在中共中央政治局第十四次集体学习时、在山东考察时、在主持召开企业和专家座谈会时的重要讲话精神，强调要抢抓推动中部地区加快崛起等重大战略机遇，充分发挥长三角和中原城市群“双桥头堡”优势，统筹抓好科技创新、新质生产力培育、基础设施建设、绿色低碳发展、乡村全面振兴、粮食生产等工作，大力推进阜阳城市圈基础设施互联互通，努力在中部崛起中多作阜阳贡献。要抓好《防范化解金融风险问责规定(试行)》的贯彻执行，落实好全面加强金融监管、防范化解金融风险、促进金融高质量发展各项任务，坚决守住不发生系统性金融风险底线。要把高质量充分就业作为经济社会发展的优先目标，坚持创新导向、规模导向、就业导向，大力发展十大特色产业，扎实推进“创业阜阳”行动，努力创造更多高质量就业岗位;常态化开展“接您回家”“招才引智高校行”“阜阳学子家乡行”等活动，推动更多人才留阜来阜就业创业，统筹做好高校毕业生、退役军人、农民工、脱贫人口等重点群体就业和零就业家庭动态清零工作。要进一步全面深化改革，围绕推动高质量发展、保障和改善民生、防范化解风险隐患等方面，持续深化国资国企、开发园区、招投标、投融资、营商环境、科技人才、教育、就业、养老、医疗等重点领域改革，不断增强高质量发展活力，增强群众获得感、幸福感、安全感。', '会议传达了省委党建工作领导小组有关文件精神，围绕党纪学习教育开展研讨交流，强调要深入学习领会习近平总书记关于全面加强党的纪律建设的重要论述，通过理论学习中心组专题学习、“三会一课”等形式，组织党员干部深刻领会其科学内涵和实践要求，更加全面理解把握新修订的《中国共产党纪律处分条例》，持续在学纪、知纪、明纪、守纪上下功夫，推动全市党纪学习教育走深走实。要坚持学做结合，树立和践行正确政绩观，大力弘扬“马上就办、真抓实干”优良作风，把党纪学习教育焕发出的热情转化为强大工作动力，引导党员干部敢闯新路、敢破难题、敢挑重担、敢当先锋。', '会议听取了全市高考综合改革情况汇报，视频连线调度各县市区及市直有关部门高考服务保障工作，强调高考综合改革涉及千家万户、连着社会民心、关系稳定大局，今年是新高考首考之年，要提高政治站位、强化责任担当，市县两级成立应急指挥机构，主要负责同志亲自过问、靠前指挥，细化完善高考服务保障方案，全力保障高考各项工作平稳有序、万无一失。要强化安全管控，加强试卷运送、保管、发放、回收等全流程管理，严密防范考试舞弊，切实维护高考公平公正。要严格考务管理，加强考务人员培训管理和警示教育，扎实做好考前准备、考场管理、考点监管、技术保障，让考生舒心、家长安心、社会放心。要细化服务保障，坚持以考生为本，用心做好校园安全、交通组织、噪音管控、电力保障、卫生防疫、食宿安全、心理辅导等工作，用安全周到服务为考生提供良好考试环境。', '会议审议通过了我市干部教育培训规划，要求深入实施“铸魂赋能强基”工程，强化政治忠诚教育，加强党的创新理论武装，引导广大党员干部筑牢信仰之基、补足精神之钙。要积极推进各级党校(行政学院)建设，围绕打造“三地一区”、建设“十个区域性强市”，加强与岗位职责相匹配的教育培训，紧贴业务实操、突出案例教学，不断提高干部推动高质量发展本领、服务群众本领、防范化解风险本领，努力打造“忠专实”“勤正廉”干部队伍。', '会议研究了市关工委及老干部工作，对去年以来取得的工作成效给予充分肯定，强调要充分发挥各级关工组织和老干部优势，努力做好关心下一代、矛盾纠纷排查调处、基层重大风险隐患排查、树立文明新风等四项工作。要带着敬重、带着感情、带着责任做好老干部工作，落实落细各项政策待遇，用心用情用力解决实际问题，在政治上尊重、生活上照顾、精神上关怀，让老干部们老有所养、老有所依、老有所乐、老有所为。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>103</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>政务资讯刘玉杰率队赴北京开展招商考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/66417cea886688a0158b456e.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['5月9日至11日，市委书记刘玉杰率队赴北京开展招商考察活动，马不停蹄走访企业、考察项目、洽谈合作，达成多项重要共识。市领导王波、白晓云、邵兵、陈东分别参加。', '悦康药业集团是一家集新药研发、药品生产、流通销售等于一体的高科技医药企业。刘玉杰一行实地考察了集团药物研究院、质检中心、临床研究中心、智能化生产车间等，与集团董事长于伟仕围绕加快在阜项目建设、扩大在阜投资布局进行深入交流。他说，悦康药业是“阜商”回归的杰出代表，长期以来关心支持家乡发展，充分彰显了阜阳籍企业家的家国情怀。希望悦康药业继续把家乡作为投资兴业的首选地，在做大做强现有在阜医药产业基础上，加快布局高能级医药研发平台和创新药生产基地，推动生物药、化学药、中成药一体化发展，家乡将会用一流的营商环境保驾护航。于伟仕表示，阜阳近年来发展势头好、后劲足，作为家乡人感到非常自豪，将筹划一系列创新型大项目回家乡发展、实现双赢。', '在国家电力投资集团中央研究院，刘玉杰与研究院党委书记、董事长何勇健等高管座谈交流。他表示，近年来，阜阳市坚持把光储产业作为优化提升传统产业、做大做强战略性新兴产业的突破口，以产业链思维大力推动先进光伏和新型储能产业集聚集群集成发展。国家电投中央研究院与阜阳合作基础良好，产业协同性高、互补性强，希望双方立足阜阳新能源产业良好生态、广阔市场空间、综合交通物流、丰富技能人才等独特优势，在铜栅线异质结太阳能电池及组件、铁-铬液流电池等方面深化合作，加快推动项目落地实施，携手打造央企与地方合作新标杆。', '在北京12345市民服务热线，刘玉杰一行考察了“接诉即办”工作机制、大数据平台运用等经验做法。他指出，“接诉即办”是践行以人民为中心发展思想的生动实践，是党建引领基层治理、服务群众的创新举措。阜阳市要认真学习借鉴，大力推进组织机构、运行流程、考核评价机制等方面改革创新，系统构建具有阜阳特色的“民声呼应”高效工作体系，不断提高群众诉求的响应率、解决率、满意率，打造为民解难解烦解惑的主渠道、问需问计问政于民的大平台。', '11日下午，刘玉杰一行实地考察了盈科环球控股集团总部、鼎盛文化公司文旅项目。他说，阜阳有千载名城、千古名相、千万人民，历史文脉厚重、河湖风光独特，发展文化旅游产业潜力巨大、前景广阔。希望盈科环球控股集团、鼎盛文化公司充分发挥文旅投资、运营、旅行社资源等优势，与阜阳携手打造颍州西湖、泉河、双清湾等文旅项目，为阜阳加快建设区域性文化强市、高品质区域性文旅中心添砖加瓦。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>103</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>专题专栏刘玉杰主持召开六届市委常委会第次会议暨市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-05-28</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/66554799886688383a8b456e.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['刘玉杰主持召开六届市委常委会第138次会议暨市委理论学习中心组学习会议-阜阳市人民政府', '5月24日上午，市委书记刘玉杰主持召开六届市委常委会第138次会议暨市委理论学习中心组学习会议，传达学习习近平总书记重要讲话重要指示精神，贯彻落实省党政代表团赴吉林、湖南学习考察及总结交流会精神，研究省委巡视反馈问题整改、国家常规统计督察整改方案等工作。市领导李志伟、李军、章绍伟、王波、白晓云、吕国平、张俊杰、邵兵等参加。', '会议传达学习了习近平总书记对学校思政课建设和旅游工作作出的重要指示精神，强调要坚持用习近平新时代中国特色社会主义思想铸魂育人，把思政课作为落实立德树人根本任务的关键课程，深入推进大中小学思想政治教育一体化建设，统筹推进思政课程与课程思政，不断深化思政课改革创新，配齐建强思政课教师队伍，以“大思政课”拓展全面育人新格局。要深刻领会“五个统筹”精髓要义，坚持守正创新、提质增效、融合发展，大力推进“文化+科技+旅游”深度融合，加快建设淮河文化研究与发展中心，持续擦亮斑马音乐节、阜阳马拉松等文旅品牌，多措并举推动旅游产品提档升级、“吃住行游购娱”全方位提升，以优质文旅服务打造高品质区域性文旅中心。', '会议听取了省委巡视反馈问题整改情况汇报，对需要整改的问题逐条研究，要求站在坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，全面提高整改质量、攻坚堵点难点，做到真改实改彻底改。要有针对性地堵塞制度漏洞、完善制度体系，落实落细防范化解重大风险工作机制，从源头上持续巩固巡视整改成果。', '会议审议通过了我市《贯彻落实国家常规统计督察整改工作方案》，强调要提高政治站位，从严从实推进国家常规统计督察反馈问题整改工作，细化整改措施、严格整改标准，坚决把问题改彻底、改到位。要坚持标本兼治，健全防范惩治统计造假、弄虚作假的制度机制，一体推进“不敢、不能、不想”统计造假。要把问题整改与“五经普”工作结合起来，以高质量统计服务高质量发展。', '会议传达学习了省党政代表团赴吉林、湖南学习考察及总结交流会精神特别是省委、省政府主要领导讲话要求，强调要深入学习领会、抓好贯彻落实，在对标先进中找准差距、加压奋进，奋力走好新时代高质量发展新路。要在科技创新上再加力，以创建国家创新型城市为旗帜性抓手，高水平建设安徽（阜阳）高等研究院和钙钛矿新材料、钠离子电池、纳米金属材料、医药科技等高能级研发平台，加快建设区域性科技强市。要在发展新质生产力上再加力，聚焦新能源产业，打造钙钛矿光伏、晶硅光伏、石墨烯铅酸（铅炭）、钠离子电池、锂离子电池5条产业链，推动风光氢储产业集群向2000亿元迈进；聚焦新能源汽车产业，做大做强江汽中重卡、祺力高端礼仪车等整车制造，加快建设比亚迪、立讯精密等重点项目，挖掘后市场潜力，推动“三位一体”发展，加速向500亿元产业迈进；聚焦新材料产业，围绕煤基、高性能纤维、生物基、硅基、铝基、磁性新材料、纳米新材料、电子新材料、医药新材料等九大细分产业，同步谋划上下游配套项目，加速向千亿产业冲刺。要在推进乡村全面振兴上再加力，按照“一链十群一基地、十大行动强支撑”思路，大力实施绿色食品产业“双千亿”计划暨肉牛振兴计划，扎实做好“三头三尾”增值大文章，推动“百亿粮仓”向“千亿厨房”转变，统筹推进“千万工程”、抓好精品示范村建设。要在发展文旅产业上再加力，大力发掘历史文化、塑造河湖风光，谋划实施一批“文化+科技+旅游”项目，聚力打造高品质区域性文旅中心、消费中心。要在深化改革开放上再加力，持续深化重点领域改革，加快推进安徽（阜阳）铁路国际物流港、铁空枢纽服务业集群、“双核四极”港口群等大通道大平台大通关建设，推动与吉湘等地合作结出更多硕果，用好用足阜洽会、RECP企业家合作会议成果。要打造“忠专实”“勤正廉”干部队伍，组建市县两级“民声呼应”工作中心，健全“横到边、纵到底”风险防范体系，不断提升社会治理能力，维护社会和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>103</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>信息公开刘玉杰率队赴北京开展招商考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/66417d47886688a0158b4577.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['5月9日至11日，市委书记刘玉杰率队赴北京开展招商考察活动，马不停蹄走访企业、考察项目、洽谈合作，达成多项重要共识。市领导王波、白晓云、陈东分别参加。', '悦康药业集团是一家集新药研发、药品生产、流通销售等于一体的高科技医药企业。刘玉杰一行实地考察了集团药物研究院、质检中心、临床研究中心、智能化生产车间等，与集团董事长于伟仕围绕加快在阜项目建设、扩大在阜投资布局进行深入交流。他说，悦康药业是“阜商”回归的杰出代表，长期以来关心支持家乡发展，充分彰显了阜阳籍企业家的家国情怀。希望悦康药业继续把家乡作为投资兴业的首选地，在做大做强现有在阜医药产业基础上，加快布局高能级医药研发平台和创新药生产基地，推动生物药、化学药、中成药一体化发展，家乡将会用一流的营商环境保驾护航。于伟仕表示，阜阳近年来发展势头好、后劲足，作为家乡人感到非常自豪，将筹划一系列创新型大项目回家乡发展、实现双赢。', '在国家电力投资集团中央研究院，刘玉杰与研究院党委书记、董事长何勇健等高管座谈交流。他表示，近年来，阜阳市坚持把光储产业作为优化提升传统产业、做大做强战略性新兴产业的突破口，以产业链思维大力推动先进光伏和新型储能产业集聚集群集成发展。国家电投中央研究院与阜阳合作基础良好，产业协同性高、互补性强，希望双方立足阜阳新能源产业良好生态、广阔市场空间、综合交通物流、丰富技能人才等独特优势，在铜栅线异质结太阳能电池及组件、铁-铬液流电池等方面深化合作，加快推动项目落地实施，携手打造央企与地方合作新标杆。', '在北京12345市民服务热线，刘玉杰一行考察了“接诉即办”工作机制、大数据平台运用等经验做法。他指出，“接诉即办”是践行以人民为中心发展思想的生动实践，是党建引领基层治理、服务群众的创新举措。阜阳市要认真学习借鉴，大力推进组织机构、运行流程、考核评价机制等方面改革创新，系统构建具有阜阳特色的“民声呼应”高效工作体系，不断提高群众诉求的响应率、解决率、满意率，打造为民解难解烦解惑的主渠道、问需问计问政于民的大平台。', '11日下午，刘玉杰一行实地考察了盈科环球控股集团总部、鼎盛文化公司文旅项目。他说，阜阳有千载名城、千古名相、千万人民，历史文脉厚重、河湖风光独特，发展文化旅游产业潜力巨大、前景广阔。希望盈科环球控股集团、鼎盛文化公司充分发挥文旅投资、运营、旅行社资源等优势，与阜阳携手打造颍州西湖、泉河、双清湾等文旅项目，为阜阳加快建设区域性文化强市、高品质区域性文旅中心添砖加瓦。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>103</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>专题专栏党纪学习教育丨加强党的纪律建设推动全面从严治党向纵深发展各地区各</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/6630498188668854168b4568.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['党纪学习教育丨加强党的纪律建设、推动全面从严治党向纵深发展——各地区各部门各单位全面启动党纪学习教育-阜阳市人民政府', '党纪学习教育丨加强党的纪律建设、推动全面从严治党向纵深发展——各地区各部门各单位全面启动党纪学习教育', '新华社北京4月26日电 题：加强党的纪律建设、推动全面从严治党向纵深发展——各地区各部门各单位全面启动党纪学习教育', '连日来，党纪学习教育在全党上下全面启动、有序开展。广大党员干部不断增强纪律意识、提高党性修养，用党规党纪校正思想和行动，砥砺本色、固培正气，以严明的纪律推动全面从严治党向纵深发展，不断提升党的创造力凝聚力战斗力。', '党的十八大以来，以习近平同志为核心的党中央把纪律建设作为全面从严治党的治本之策，将其纳入新时代党的建设总体布局，教育引导党员干部树立党章党规党纪意识，为党和国家事业发展提供坚强纪律保障。', '今年1月8日，在二十届中央纪委三次全会上，提出“深入开展党性党风党纪教育，传承党的光荣传统和优良作风，激发共产党员崇高理想追求”；', '1月31日，在主持中央政治局会议审议主题教育总结报告和关于巩固拓展主题教育成果的意见时，要求“发扬自我革命精神，在全党组织开展好集中性纪律教育”；', '3月1日，2024年春季学期中央党校（国家行政学院）中青年干部培训班开班式上，强调“要严守纪律规矩，永葆清廉本色，时刻绷紧纪法规矩这根弦”；', '3月21日，在湖南考察时对党纪学习教育提出明确要求：“引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。”', '习近平总书记一系列重要论述指引全党以严的基调正风肃纪，为开展党纪学习教育提供了根本遵循。', '近日，中共中央办公厅印发《关于在全党开展党纪学习教育的通知》。各地区各部门各单位闻令而动，党纪学习教育在全党上下迅速展开。', '中央纪委常委会就新修订的《中国共产党纪律处分条例》举行集体学习，强调纪检监察机关是党的“纪律部队”，肩负维护党的纪律的重要职责，要以党纪学习教育为契机，认真抓好条例的学习贯彻，进一步增强纪律意识、提高党性修养、提升执纪能力，不断夯实坚定拥护“两个确立”、坚决做到“两个维护”的思想根基，努力做自我革命的表率、遵规守纪的标杆。', '中央组织部、中央宣传部第一时间召开部务会会议，传达学习习近平总书记关于党纪学习教育的重要指示精神和中央党的建设工作领导小组会议精神，强调把开展党纪学习教育作为重要政治任务，深化思想认识，加强组织领导。', '“要把学习教育作为传承红色基因、赓续红色血脉的实际行动，作为忠诚拥护‘两个确立’、坚决做到‘两个维护’的现实检验，作为奋进新征程、建功新时代的强大动力”。上海市委要求深刻认识开展党纪学习教育的重大意义，努力营造学纪知纪明纪守纪的浓厚氛围，确保党纪学习教育高质量开局、高标准推进。', '共青团中央召开会议，研究部署党纪学习教育工作，要求进一步深化对加强党的纪律建设重要性的认识和对忽视党纪、违反党纪问题危害性的认识，着力锻造让党中央放心、让人民群众满意的模范机关。', '各地区各部门各单位明确提出，要通过党纪学习教育，进一步严明政治纪律和政治规矩，坚定拥护“两个确立”、坚决做到“两个维护”，自觉同以习近平同志为核心的党中央保持高度一致，统一思想、统一行动，知行知止、令行禁止，形成推进中国式现代化的强大动力和合力。', '各级党组织准确把握目标要求，抓住学习重点，以习近平新时代中国特色社会主义思想为指导，认真学习习近平总书记关于加强党的纪律建设的重要论述和修订后的条例，教育引导党员干部搞清楚党的纪律规矩是什么，弄明白能干什么、不能干什么，始终做到忠诚干净担当。', '“党纪学习教育启动后，我们立即聚焦党纪教育进课堂、进教材、进头脑，优化课程设置，加强教材建设，进一步完善党校特色党纪学习教育体系。”河南省委党校科学社会主义教研部副教授李涛说。', '河南省委党校安排教师开展专题解读，通过现场教学、案例分析、专题研讨等方式，帮助学员全面系统准确掌握条例的主旨要义和规定要求，做到既知其言又知其义、知其然又知其所以然。', '黑龙江省级领导干部党纪学习教育专题读书班上，学员们对照条例划重点、作笔记，紧扣党的政治纪律、组织纪律、廉洁纪律、群众纪律、工作纪律、生活纪律深钻细研，做到心有所畏、言有所戒、行有所止。', '建立纪法教育流动站是山东省济宁市纪委监委学习贯彻条例的重要举措。流动站以图文并茂的形式，将条例学习宣讲送到基层，着力解决一些党员干部对党规党纪不上心、不了解、不掌握等问题，助力党员在深学细悟中自警自省、慎独慎微。', '4月9日下午，海南省林业局原副局长、定安县原县长李某某涉嫌职务犯罪案在海南省第一中级人民法院公开庭审。省纪委监委组织省林业局和定安县40多名党员干部到场旁听，接受警示教育。', '庭审结束后，省纪委监委有关负责同志现场进行纪法知识专题授课，结合案情对相关纪法条款进行深入解读。', '退役军人事务部坚持正面引导与反面警示相结合，通过“三会一课”、主题党日、党小组学习、青年理论学习小组学习等多种形式，明方向、立规矩、正风气，确保党纪学习教育取得扎实成效。', '逐章逐条学、联系实际学，以案促学、以训助学，广大党员干部通过党纪学习教育，不断强化纪律观念、加强自我约束、提高免疫能力，增强政治定力、纪律定力、道德定力、抵腐定力，努力做党纪法规的自觉尊崇者、坚定执行者、忠实捍卫者，确保党的先进性纯洁性。', '各地区各部门各单位在“真”上下功夫，在“严”上做文章，在“实”上用力气，教育引导党员干部把党纪铭刻于心、见诸于行。', '北京市委指导各级党组织制定工作计划，梳理任务清单，形成开展党纪学习教育的“操作图”。市委党校（行政学院）形成校级、校委班子、党支部、主体班学员四个层面27项任务清单，明确要求、强化监督。', '国务院国资委党委召开专题会议部署开展党纪学习教育工作，要求国资央企各级党组织既抓好党员领导干部这个“关键少数”，又突出对新提拔干部、年轻干部、关键岗位干部等重点对象的纪律培训。', '北京师范大学力求学习教育全覆盖，针对领导干部、普通党员、入党积极分子等不同群体特点，开展靶向教育培训，使党员干部知敬畏、存戒惧、守底线。', '全国人大常委会机关结合学习条例，督促机关党员干部认真学习应知应会党内法规和国家法律清单，延伸学习机关各项制度规定，做到融会贯通、一体把握。全国政协机关强调用严明的纪律保障履职尽责，切实将党纪学习教育的成效体现到精心服务保障全国政协和政协委员履职的各方面和全过程。', '最高人民法院提出开展党纪学习教育要紧密结合审判机关特点，把严明纪法管住“案”作为管住“人”、治好“院”的落点，以严明的党纪做实审判管理、队伍管理。最高人民检察院坚持把党中央要求的规定动作与检察工作实际、检察队伍建设实际、最高检机关干部队伍实际紧密结合起来，真正让党员干部全员受教育、全面受教育。', '新疆维吾尔自治区党委提出在党纪学习教育中，不对写读书笔记、心得体会等作硬性要求，不搞不必要的形式创新，不随意增加“自选动作”，不准层层加码增加基层负担。', '中央网信办把党纪学习教育作为内部巡视巡察和领导干部年度考核、党组织书记抓党建述职评议考核的重要内容，把增强学习的自觉性和抓落实的坚定性统一起来，以良好作风保证党纪学习教育走深走实。', '以党纪学习教育为契机，全党上下坚持以铁的纪律凝聚意志、锤炼作风、锻造队伍，把全面从严治党不断引向深入，向着强国建设、民族复兴的宏伟目标勇毅前行。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>103</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>政务资讯胡明莹主持召开市六届人大常委会党组理论学习中心组学习扩大会议党组</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/661c9450886688e81b8b4567.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['胡明莹主持召开市六届人大常委会党组理论学习中心组学习（扩大）会议、党组（扩大）会议-阜阳市人民政府', '胡明莹主持召开市六届人大常委会党组理论学习中心组学习（扩大）会议、党组（扩大）会议', '4月12日，市人大常委会党组书记、主任胡明莹主持召开市六届人大常委会党组理论学习中心组学习（扩大）会议、党组（扩大）会议，市人大常委会副主任金杰，党组成员黄琦，副主任陶颖、梁永勤参加。', '会议重温了习近平总书记在中央经济工作会议、中央金融工作会议上的重要讲话，传达学习了习近平总书记在新时代推动中部地区崛起座谈会上、在湖南考察时的重要讲话精神；传达学习了中共中央办公厅、国务院办公厅有关文件通知。', '会议指出，要切实把思想和行动统一到中央决策部署上来，紧紧围绕中心工作履行人大职责，助力培育发展新质生产力，巩固和增强经济回升向好态势。要进一步认识新时代推动中部地区崛起的重大意义和关键任务，监督支持政府利用好政策机遇，增强内生动力，推动高质量发展，在推动中部崛起中展现新作为。要不折不扣贯彻执行《党政机关国内公务接待管理规定》，把过紧日子的要求落到实处，树牢推动发展责任，提升考察调研质效。', '会议研究了关于我市乡镇民生实事项目人大代表票决制试点情况的报告和推进民生实事项目人大代表票决制的指导意见（代拟稿）。会议强调，要提高政治站位，进一步修改完善报告，实事求是总结我市在推进乡镇民生实事项目人大代表票决制试点工作中的创新探索、经验效果和存在问题，不断推动政府“办的事”精准对接群众“盼的事”，真正把民生实事办到群众心坎上。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>103</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/661c93dd886688d01b8b4572.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['4月12日，市政协党组书记、主席李志伟主持召开市政协党组理论学习中心组学习扩大会议。市政协副主席顾恒中、吴开义、王家仁、朱洪亮、张华久、于伟，秘书长房继红出席会议。', '会前，与会同志自学了《习近平著作选读》《习近平谈治国理政》。会议传达学习了习近平总书记在新时代推动中部地区崛起座谈会上、在湖南考察时的重要讲话精神和3月29日中共中央政治局会议精神，学习了习近平总书记关于总体国家安全观的重要论述和习近平总书记重要文章《必须坚持人民至上》。部分同志结合学习内容作了交流研讨。', '李志伟要求，要始终坚持读原著、学原文、悟原理，把身子“钉”在座位上，让脑子“走”进原著里，刻苦钻研、学思践悟，做到虔诚而执着、至信而深厚，切实以理论上的清醒确保政治上的坚定，不断筑牢信仰之基、补足精神之钙、把稳思想之舵。', '李志伟强调，要突出从严从实，在强化政治建设、责任落实、监督管理上持续发扬自我革命精神，以更高站位扛牢全面从严治党责任。要突出抓深抓细，努力在坚定发展方向、坚守协商主业、坚持广聚共识上展现“政协之能”，以更强担当彰显服务发展之效。要突出用心用情，把履职为民贯穿政协工作始终，不断拉近履职为民距离，拓展履职为民途径，提升履职为民质效，以更实举措展现助力民生改善之为，为现代化美好阜阳建设作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>103</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>政务资讯刘玉杰主持召开六届市委常委会第次会议暨市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/660619da8866881e7d8b4569.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['刘玉杰主持召开六届市委常委会第129次会议暨市委理论学习中心组学习会议-阜阳市人民政府', '3月28日下午，市委书记刘玉杰主持召开六届市委常委会第129次会议暨市委理论学习中心组学习会议，传达学习习近平总书记重要讲话重要指示精神，研究民生、审计、交通、资源节约等工作。市委副书记、市长胡明文，市领导胡明莹、李军、章绍伟、王波、白晓云、吕国平、张俊杰、邵兵、张永平等参加。', '会议传达学习了习近平总书记在湖南考察时、在新时代推动中部地区崛起座谈会上的重要讲话精神，强调要坚持以习近平新时代中国特色社会主义思想为指导，锚定省委“三地一区”“七个强省”战略部署，充分发挥皖北龙头城市作用，加快建设“三地一区”“十个区域性强市”，在推动中部崛起中多作阜阳贡献。要坚持以科技创新为引领，以高端化、智能化、绿色化为方向，以工业投资千亿计划和“三个百亿”行动为支撑，以产业链思维推动八大先进制造业集聚集群集成发展，加快培育新质生产力。要统筹推进深层次改革和高水平开放，不断深化国资国企、招投标、投融资、开发园区、农业农村等重点领域改革，持续加强与合肥、苏州和上海市徐汇区、松江区、临港集团等长三角中心城市、优势平台链接合作，高质量办好2024阜阳投资贸易洽谈会暨首届RCEP企业家合作会议，加快安徽自贸试验区阜阳联动创新区和阜阳保税物流中心（B型）建设，推进铁路口岸和航空口岸开放，不断增添发展动能。要以走好“六个之路”、实施“五大振兴”为统揽，有力有效推进乡村全面振兴，加快建设区域性农业强市。要推动文化繁荣发展，围绕文旅融合谋划一批重点项目、打造一批精品线路，精心做好2024年斑马音乐节服务保障工作，聚力打造高品质区域性文旅中心。', '会议传达学习了习近平总书记关于力戒形式主义、官僚主义的重要论述及《中国共产党巡视工作条例》《党政机关国内公务接待管理规定》，强调要严明政治纪律和政治规矩，严格执行重大决策“一对标三审查”工作机制，认真落实市委推进党员干部作风大转变“1+4”实施意见，以力戒形式主义、官僚主义的实际行动坚定拥护“两个确立”、坚决做到“两个维护”。要把学习贯彻《中国共产党巡视工作条例》作为重要政治任务，抓好宣传解读和督促检查，做好省委巡视整改和市委巡察工作，推进政治监督具体化、精准化、常态化。要严格遵守公务接待各项规定，从严控制公务接待支出，把过紧日子要求不折不扣落到实处。', '会议传达了全省民生工作大会精神，听取了我市“民声呼应”工作和2023年省10项暖民心行动、省市“50+10”项民生实事完成情况汇报，强调要深入学习贯彻习近平总书记关于保障和改善民生的重要论述，坚持把为民造福作为最大政绩，按照省委省政府部署，坚持民有所呼、我必呼应，健全完善“民声呼应”工作体系和闭环管理机制，进一步规范运作、提升质效、打造特色，既全力解决群众急难愁盼问题，又常态化问政、问需、问计于民，依靠群众智慧提升社会治理能力。要抓实抓细省市暖民心行动和民生实事，压紧压实工作责任，加强项目调度、规范项目建设，真正把好事办好、实事办实。', '会议听取了我市2023年度审计工作情况汇报，审议通过了《中共阜阳市委审计委员会2024年度工作要点》《阜阳市审计机关2024年度审计项目计划》，要求围绕贯彻落实习近平总书记关于阜阳工作六项重要指示等政治要件及省委“九个扎实”部署要求，围绕加快建设“三地一区”“十个区域性强市”，聚焦高质量发展首要任务、稳增长稳就业稳物价、实体经济发展、兜牢民生底线、统筹发展和安全、权力规范运行，充分发挥审计的监督保障、规范促进和决策参谋作用，全面提升全市审计工作质效，以高质量审计服务保障高质量发展。', '会议审议通过了《阜阳市建设综合立体的区域性交通强市五年行动计划（2023—2027年）》，强调要大力实施大通道大平台大通关建设，全面推进全国性综合交通枢纽城市、国家物流枢纽城市、江淮干线航运枢纽建设，加快构建“支撑阜阳、带动皖北、呼应合肥”的铁公机水“四位一体”现代综合交通物流体系和对外开放平台。', '会议审议通过了《阜阳市全面加强资源节约工作实施方案》，要求深入学习贯彻习近平总书记关于资源节约工作的重要论述，坚持把节约资源贯穿于经济社会发展全过程、各领域，突出抓好能源、工业、建筑、交通等重点领域资源节约，不断增强全民节约意识，推动形成全社会崇尚节约的浓厚氛围。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>103</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>政务资讯习近平在湖南考察时强调坚持改革创新求真务实奋力谱写中国式现代化湖南</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/65fbe720886688303b8b456b.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['习近平在湖南考察时强调：坚持改革创新求真务实 奋力&lt;/br&gt;谱写中国式现代化湖南篇章-阜阳市人民政府', '新华社长沙3月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。', '3月18日至21日，习近平在湖南省委书记沈晓明和省长毛伟明陪同下，先后来到长沙、常德等地，深入学校、企业、历史文化街区、乡村等进行调研。', '18日下午，习近平来到湖南第一师范学院（城南书院校区）考察。该校前身是创办于宋代的城南书院，近代以来培养了一批老一辈无产阶级革命家和名师大家。习近平参观青年毛泽东主题展览，了解学院发展沿革和用好红色资源等情况。在学院大厅，习近平同师生代表亲切交流。他说，国家要强大，必须办好教育。一师是开展爱国主义教育、传承红色基因的好地方，要把这一红色资源保护运用好。学校要立德树人，教师要当好大先生，不仅要注重提高学生知识文化素养，更要上好思政课，教育引导学生明德知耻，树牢社会主义核心价值观，立报国强国大志向，努力成为堪当强国建设、民族复兴大任的栋梁之材。', '随后，习近平来到巴斯夫杉杉电池材料有限公司考察。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资企业。习近平听取当地加快发展新质生产力、扩大高水平对外开放等情况介绍，察看企业产品展示，了解材料性能测试情况和电池生产流程。他强调，科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。', '19日，习近平到常德市考察调研。位于沅江江畔的常德河街历史悠久，曾毁于1943年的常德战役。近年来，常德市复原老河街风貌，将此地打造成为历史文化街区。当天上午，习近平来到常德河街，察看各种特色小吃、特产、特色工艺品，同店主和游客亲切交流，并欣赏非物质文化遗产技艺展示，详细了解常德老城街道修复利用、城市规划、水环境综合治理等情况。习近平指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '湖南是全国13个粮食主产省之一，水稻播种面积、总产量均居全国第一。当天下午，习近平来到常德市鼎城区谢家铺镇港中坪村，走进当地粮食生产万亩综合示范片区，察看秧苗培育和春耕备耕进展，听取高质量推进农业现代化情况介绍，并同种粮大户、农技人员、基层干部一笔一笔算投入产出账。习近平强调，我国有14亿多人口，粮食安全必须靠我们自己保证，中国人的饭碗应该主要装中国粮。要建设好高标准农田，推行适度规模经营，加强政策支持和示范引领，加大良种、良机、良法推广力度，在精耕细作上下功夫，进一步把粮食单产和品质提上去，让种粮也能够致富，进而吸引更多农户参与发展现代化大农业，真正把中国特色农业现代化之路走稳走扎实。', '习近平随后来到种粮大户戴宏家中，察看农机具和春耕物资准备，并前往村党群服务中心了解当地为基层减负、提升基层治理效能等情况。他指出，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒抓好这项工作。他勉励基层干部在产业发展和乡村治理上群策群力，不断干出让农民群众认可的实绩。', '离开时，村民们纷纷围拢过来欢送总书记。习近平满怀深情地对大家说，党中央高度重视“三农”工作，一定会采取切实有力的政策举措，回应老百姓的关切和需求，把乡村振兴的美好蓝图变为现实。掌声在村庄久久回荡。', '21日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定。', '习近平指出，科技创新是发展新质生产力的核心要素。要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。', '习近平强调，进一步全面深化改革要突出问题导向，着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题，有效防范化解重大风险，不断为经济社会发展增动力、添活力。湖南要加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。', '习近平指出，推进乡村全面振兴是新时代新征程“三农”工作的总抓手。湖南要扛起维护国家粮食安全的重任，抓住种子和耕地两个要害，加快种业、农机关键核心技术攻关。坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。深入推进城乡融合发展，壮大县域经济，畅通城乡要素双向流动，科学统筹乡村基础设施和公共服务布局。切实加强乡村精神文明建设，大力推动移风易俗。健全党组织领导的自治、法治、德治相结合的基层治理体系，坚持和发展新时代“枫桥经验”。落实防止返贫监测帮扶机制，坚决守住不发生规模性返贫的底线。', '习近平强调，湖南要更好担负起新的文化使命，在建设中华民族现代文明中展现新作为。保护好、运用好红色资源，加强革命传统和爱国主义教育，引导广大干部群众发扬优良传统、赓续红色血脉，践行社会主义核心价值观，培育时代新风新貌。探索文化和科技融合的有效机制，加快发展新型文化业态，形成更多新的文化产业增长点。推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '习近平指出，推动高质量发展、推进中国式现代化，必须加强和改进党的建设。要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负。组织开展好党纪学习教育，引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。', '3月20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>103</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>政务资讯习近平在重庆考察时强调进一步全面深化改革开放不断谱写中国式现代化重庆</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6628d35b886688d6578b456b.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['习近平在重庆考察时强调：进一步全面深化改革开放 不断谱写中国式现代化重庆篇章-阜阳市人民政府', '新华社重庆4月24日电 中共中央总书记、国家主席、中央军委主席习近平近日在重庆考察时强调，重庆要对标新时代新征程党的中心任务和党中央赋予的使命，充分发挥比较优势、后发优势，进一步全面深化改革开放，主动服务和融入新发展格局，着力推动高质量发展，奋力打造新时代西部大开发重要战略支点、内陆开放综合枢纽，在发挥“三个作用”上展现更大作为，不断谱写中国式现代化重庆篇章。', '4月22日至24日，习近平在中共中央政治局委员、重庆市委书记袁家军和市长胡衡华陪同下，深入物流园区、城市社区、数字化城市运行和治理中心等进行考察调研。', '22日下午，习近平首先考察了重庆国际物流枢纽园区。他来到西部陆海新通道重庆无水港运营调度中心，听取新通道建设情况汇报。习近平强调，物流是实体经济的“筋络”。建设西部陆海新通道，对于推动形成“陆海内外联动、东西双向互济”的对外开放格局具有重要意义。各有关方面要齐心协力，把这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放。物流园区要积极运用先进技术，不断创新联运模式，提高科学管理水平，在建设现代物流体系中发挥更大作用。', '随后，习近平来到重庆铁路集装箱中心站，听取货物集散、运输路径、运营成本和效益等介绍，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流，询问他们的工作强度、劳动保护、节假日休息和收入情况。习近平说，大家在物流一线，也是在对外开放一线，通过你们的辛勤劳动，很多商品跨越山海、走向世界，你们的工作很有意义。推动西部大开放、促进西部大开发，物流很重要，大家要继续努力，不断创造新的业绩，作出新的贡献。', '习近平还听取了重庆推动成渝地区双城经济圈建设情况汇报，参观了重庆科技创新和产业发展成果展示。习近平表示，建设成渝地区双城经济圈是党中央作出的重大战略决策。重庆、四川两地要紧密合作，不断提升发展能级，共同唱好新时代西部“双城记”。支柱产业是发展新质生产力的主阵地。重庆的制造业有自身的结构特点、有相应的优势，希望重庆牢牢抓住科技创新这个“牛鼻子”，扬优势、补短板，抓当前、谋未来，坚定不移、久久为功，奋力推动制造业高质量发展。', '九龙坡区谢家湾街道民主村社区是一个老小区，2022年初启动更新改造项目并纳入全国有关试点。习近平来到这里，察看小区改造和便民服务情况，听取提升基层治理效能、为基层减负情况介绍。他还走进社区食堂，同正在就餐的群众亲切交流，鼓励社区食堂实现可持续发展。习近平指出，老旧小区改造是城市更新的一个重点，也是一项民生工程，既要保留历史记忆和特色风貌，又要解决居民关切的实际问题。要总结推广这方面的成功经验，更好惠及广大社区居民。城市治理的很多工作要靠基层党组织这个战斗堡垒和社区这个平台去落实，要厘清城市社区职责事项，继续推动资源下沉、完善服务设施，强化网格化管理、信息化支撑，提高社区精细化治理、精准化服务水平。', '离开时，社区居民纷纷围拢过来欢送总书记。习近平对大家说，中国式现代化，民生为大。党和政府的一切工作，都是为了老百姓过上更加幸福的生活。希望各级党委和政府都能为解决民生问题投入更多的财力物力，每年办一些民生实事，不断增强人民群众的获得感幸福感安全感。', '23日上午，习近平考察了重庆市数字化城市运行和治理中心，听取当地加快城市数字化转型、探索超大城市治理新路等情况汇报，观看系统应用演示。习近平指出，治理体系和治理能力现代化是中国式现代化的应有之义。强化数字赋能、推进城市治理现代化，要科学规划建设大数据平台和网络系统，强化联合指挥和各方协同，切实提高执行力。城市治理涉及方方面面，首要的是以“时时放心不下”的责任感，做好预案、精准管控、快速反应，有效处置各类事态，确保城市安全有序运行。希望你们不断探索，积累新的经验。', '24日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定。', '习近平指出，重庆制造业基础较好，科教人才资源丰富，要着力构建以先进制造业为骨干的现代化产业体系。深入实施制造业重大技术改造升级和大规模设备更新工程，加快传统产业转型升级，积极培育具有国际先进水平和竞争力的战略性新兴产业。加强重大科技攻关，强化科技创新和产业创新深度融合，积极培育新业态新模式新动能，因地制宜发展新质生产力。积极推进成渝地区双城经济圈建设，更好发挥全国高质量发展的重要增长极和新的动力源作用。大力推动绿色发展，建设美丽重庆，筑牢长江上游重要生态屏障。', '习近平强调，重庆要以敢为人先的勇气，全面深化改革，扩大高水平对外开放。坚持和落实“两个毫不动摇”，一手抓深化国企改革、培育一批核心竞争力强的国有企业，一手抓促进民营经济发展壮大、激发各类经营主体活力。积极融入全国统一大市场建设，主动融入和服务国家重大战略，在推动共建“一带一路”、长江经济带、西部陆海新通道联动发展中发挥更大作用。主动对接高标准国际经贸规则，营造市场化法治化国际化一流营商环境。', '习近平指出，重庆是我国辖区面积和人口规模最大的城市，要深入践行人民城市理念，积极探索超大城市现代化治理新路子。加快智慧城市建设步伐，构建城市运行和治理智能中枢，建立健全“大综合一体化”城市综合治理体制机制，让城市治理更智能、更高效、更精准。扎实推进党建引领基层治理，坚持和发展新时代“枫桥经验”，深化城乡精神文明建设，推进移风易俗，提高全社会文明程度。全面推进韧性城市建设，有效提升防灾减灾救灾能力。', '习近平强调，重庆集大城市、大农村、大山区、大库区于一体，要大力推进城乡融合发展。积极推进以县（区）城为重要载体的新型城镇化建设，有序引导、依法规范城市工商资本和科技、人才下乡，助力乡村全面振兴。抓牢抓实粮食生产，依山就势发展生态特色农业。学好用好“千万工程”经验，因地制宜开展乡村建设，聚焦现阶段农民群众需求强烈、能抓得住、抓几年就能见到成效的重点实事，抓一件成一件，让农民群众可感可及、得到实惠。巩固拓展脱贫攻坚成果，确保不发生规模性返贫。', '习近平指出，要毫不放松坚持党的领导、加强党的建设。巩固拓展主题教育成果，建立健全长效机制，推动党员、干部特别是领导干部增强政治能力、提高工作水平，真抓实干、积极进取、担当作为。持续深化整治形式主义为基层减负，为基层干部干事创业创造良好条件。扎实开展党纪学习教育，引导党员、干部真正把纪律规矩转化为政治自觉、思想自觉、行动自觉。一以贯之反对和惩治腐败，不断铲除腐败滋生的土壤和条件，营造风清气正的政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>103</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组集中学习</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-12-25</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6588d433886688af798b4576.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['12月22日，市人大常委会党组书记、主任胡明莹主持召开党组理论学习中心组学习（扩大）会议，副主任王玉峰、金杰，党组成员黄琦，副主任陶颖、梁永勤，秘书长朱新参加。', '会议集中学习了10月27日中共中央政治局会议精神，习近平总书记在中共中央政治局第十次集体学习时的重要讲话精神、在广西考察时的重要讲话精神，习近平总书记对低温雨雪冰冻灾害防范应对工作、对甘肃临夏州积石山县6.2级地震作出的重要指示精神，传达学习了《求是》杂志发表的习近平总书记重要文章《在二十届中央机构编制委员会第一次会议上的讲话》、省委巡视阜阳市反馈意见整改工作动员部署会议精神。', '会议强调，要充分发挥人大职能优势，持续在助力长三角一体化发展上谋划新举措，加强与长江经济带和长三角地区人大的联系交流，提升区域人大工作整体效能，助推阜阳加速融入长江经济带和长三角一体化发展战略。要聚焦经济建设这一中心工作和高质量发展这一首要任务，打好立法、监督、代表工作组合拳，持续强化监督，为加快打造“三地一区”、建设“十个区域性强市”作出更大贡献。要充分认识低温雨雪冰冻灾害风险和防灾救灾严峻形势，克服麻痹思想和侥幸心理，做好各类灾害事故防范应对工作，确保人民群众生命财产安全。要深入学习贯彻习近平总书记关于机构编制工作的重要指示精神，认真落实涉及到人大编制和机构的各项改革措施，确保顺利完成人大机构编制改革任务。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>103</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/657ba91a8866888a1f8b456a.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['12月14日，市政协党组书记、主席李志伟主持召开党组理论学习中心组学习（扩大）会议。市政协副主席顾恒中、张华久、于伟，秘书长房继红出席会议。', '会前，大家自学了《中华人民共和国宪法》和习近平总书记关于全面推进依法治国的重要论述、在第十个国家宪法日之际作出的重要指示精神，以及《信访工作条例》《宗教事务条例》等。会议传达学习了11月27日中共中央政治局会议精神和习近平总书记在中共中央政治局第十次集体学习时、在上海及江苏盐城考察时、在深入推进长三角一体化发展座谈会上的重要讲话精神，学习了习近平总书记关于协商民主的重要论述，传达了市纪委有关通报。部分同志作了交流发言。', '李志伟强调，要在全面系统学中强定力，深入学习习近平总书记关于全面推进依法治国的重要论述，注重运用法治理念、法治思维推进人民政协工作，积极引导广大政协委员带头尊法学法守法用法，不断提高机关干部依法办事能力，进一步坚定走中国特色社会主义法治道路的信心决心；要在持续深入学中明方向，深刻领会习近平总书记关于协商民主的重要论述的精神实质、核心要义、实践要求，充分发挥人民政协专门协商机构作用，努力在找准履职着力点、擦亮“协商阜务”品牌、推动政协协商向基层延伸等方面下功夫，为推动全过程人民民主彰显更强大生机活力作出应有贡献；要在及时跟进学中提素养，坚持常学常新促深化、真学真信促消化、对标对表促转化，进一步提高理论素养、政治站位、履职本领，自觉做习近平新时代中国特色社会主义思想的坚定信仰者、忠诚实践者，为现代化美好阜阳建设贡献更多智慧和力量。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>103</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>政务资讯刘玉杰主持召开六届市委常委会第次会议暨市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-12-25</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6588d589886688dc798b4570.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['刘玉杰主持召开六届市委常委会第113次会议暨市委理论学习中心组学习会议-阜阳市人民政府', '12月22日，市委书记刘玉杰主持召开六届市委常委会第113次会议暨市委理论学习中心组学习会议，传达学习习近平总书记重要讲话重要指示精神，研究思想政治、统一战线、网络安全和信息化等工作。市委副书记、市长胡明文，市领导胡明莹、李志伟、李军、章绍伟、王波、白晓云、张俊杰等参加。', '会议传达学习了习近平总书记关于科技创新重要论述、关于做好新时代人才工作重要思想、在广西考察时的重要讲话、对低温雨雪冰冻灾害防范应对工作作出的重要指示、对甘肃临夏州积石山县6.2级地震作出的重要指示，并开展研讨交流，省委讲师团团长张彪到会指导。会议强调，要牢固树立产业链思维，围绕新能源和节能环保、绿色食品、新能源汽车和装备制造、新材料、电子信息、生命健康等八大先进制造业，以工业投资千亿计划和“三个百亿”行动为支撑，推动制造业高端化、智能化、绿色化，加快形成新质生产力。要统筹推进科技教育人才融合发展，以创建国家创新型城市为旗帜性抓手，按照“市场主导、政府主推、院校主研、企业主用、金融支持、各方共赢”思路，持续深化政产学研用金合作，高质量建设阜阳高等研究院；大力发展各级各类教育事业，加快发展职业教育，推深做实“三转四像”办学模式，让老百姓享受更多优质教育资源；持续擦亮“颍淮英才计划”品牌，常态化开展“接您回家”“招才引智高校行”“阜阳学子家乡行”等活动，努力营造一流人才生态。要持续扩大对内对外开放，深化与长三角中心城市、优势平台合作，加快建设全国性综合交通枢纽城市、国家物流枢纽城市、江淮干线航运枢纽，加快打造铁公机水“四位一体”现代综合交通物流体系和对外开放平台。要全面推进乡村振兴，实施新一轮粮食产能提升行动，大力推进绿色食品“双千亿”计划暨肉牛振兴计划，高质高效推进“千村引领、万村升级”工程，巩固拓展脱贫攻坚成果，进一步强化党建引领、深化农村综合改革，加快建设宜居宜业和美乡村。要巩固发展团结奋斗良好局面，深入开展民族团结进步教育和创建，持续提升民族事务治理法治化水平。要扎实做好低温雨雪冰冻灾害防范应对等岁末年初民生保障，用心用情用力解决好群众急难愁盼问题。要全面加强党的建设，高质量开展好主题教育，努力在以学铸魂、以学增智、以学正风、以学促干上取得实实在在成效。', '会议听取了我市2023年思想政治工作情况汇报，强调要聚焦“举旗帜、聚民心、育新人、兴文化、展形象”的使命任务，坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，持续推动党的创新理论进企业、进农村、进机关、进校园、进社区、进网络等，坚持和加强党对思想政治工作的全面领导，推动形成“大思政”工作格局。', '会议研究了我市党外干部、党外知识分子和新的社会阶层人士统战工作，强调要寻求最大公约数、画出最大同心圆，充分发挥知联会、新联会等平台载体作用，团结好广大党外知识分子和新的社会阶层人士，引导大家积极投身全市经济社会高质量发展大局。要关心爱护党外干部，加强党外干部培养使用。要压紧压实各级各部门统战工作责任，努力形成齐抓共管的大统战格局。', '会议听取了我市2023年网络安全和信息化工作情况汇报，审议通过了市委网络安全和信息化委员会工作规则等，强调要持续擦亮“网聚美好阜阳”品牌，扎实开展“清朗”“江淮净网”等专项行动，壮大主流思想舆论，打造网信高素质干部队伍，讲好阜阳故事、传播阜阳声音、维护阜阳形象，不断提升阜阳知名度、美誉度、影响力。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>103</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>政务资讯刘玉杰主持召开六届市委常委会第次会议暨市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/65727aba886688103a8b456d.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['刘玉杰主持召开六届市委常委会第111次会议暨市委理论学习中心组学习会议-阜阳市人民政府', '12月7日，市委书记刘玉杰主持召开六届市委常委会第111次会议暨市委理论学习中心组学习会议，传达学习习近平总书记重要讲话重要指示精神，研究长三角一体化发展、法治阜阳建设、深化改革等工作。市委副书记、市长胡明文，市领导胡明莹、李志伟、章绍伟、王波、白晓云、吕国平、张俊杰、邵兵等参加。', '会议传达学习了11月27日中央政治局会议精神和习近平总书记在上海及江苏盐城考察时、在深入推进长三角一体化发展座谈会上、在中央金融工作会议上的重要讲话精神，强调要牢牢把握“四个统筹”要求，主动靠上去、精准接上去、全力融进去，深化与合肥、苏州、上海市徐汇区和松江区、临港集团等长三角中心城市、优势平台合作，高水平建设皖北承接产业转移集聚区、阜阳高等研究院，大力推进全国性综合交通枢纽城市、国家物流枢纽城市、江淮干线航运枢纽、安徽自贸区阜阳联动创新区、保税物流中心（B型）等大通道大平台大通关建设，加快打造铁公机水“四位一体”现代综合交通物流体系和对外开放平台，大力推动基础设施互联互通、公共服务便利共享互享，努力在深度融入长三角一体化发展上取得更大进展。要深化生态环境共保联治，持续提升金融、科技、产业等领域安全发展水平，努力形成更多高质量发展成果。', '会议传达学习了习近平总书记在中央政治局第十次集体学习时的重要讲话精神、在第十个国家宪法日之际作出的重要指示精神，要求从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，把学习掌握习近平法治思想作为重要必修课，持续在深化内化转化上下功夫。要维护宪法权威和尊严，提升地方立法质效，加强法治政府建设，推进严格公正司法，深化法治社会建设，更好发挥法治固根本、稳预期、利长远的保障作用。要把党的领导贯彻到法治阜阳建设全过程、各方面，推动领导干部带头尊法学法守法用法，不断提升运用法治思维和法治方式履职尽责能力。', '会议审议通过了市委全面深化改革委员会工作规则、专项小组工作规则、办公室工作细则，强调要坚定不移吃“改革饭”，深入开展“学先进、补短板、树品牌”活动，持续深化国资国企、招投标、投融资、开发园区、农业农村、职业教育等重点领域改革，努力推出更多叫得响、立得住、推得开的改革品牌，不断增添发展活力。', '会议传达学习了全省党委和政府秘书长会议精神，研究贯彻落实工作，强调要进一步提高政治站位、强化政治担当、提升政治能力、落实政治责任，把“快、稳、严、准、细、实”贯彻到统筹协调、参谋助手、督促检查、服务保障等各项工作中，不断提高“三服务”水平。要坚持“忠专实”“勤正廉”，严实工作作风，提升工作质效，努力建设让党放心、让人民满意的模范机关。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>103</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>政务资讯习近平在广西考察时强调解放思想创新求变向海图强开放发展奋力谱写中国式现</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-12-16</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/657fa595886688f5368b4569.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['习近平在广西考察时强调 解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章-阜阳市人民政府', '习近平在广西考察时强调 解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，广西要完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，发挥自身优势，以铸牢中华民族共同体意识为主线，解放思想、创新求变，向海图强、开放发展，努力在推动边疆民族地区高质量发展上展现更大作为，在建设新时代中国特色社会主义壮美广西上不断取得新进展，奋力谱写中国式现代化广西篇章。', '12月13日，习近平结束对越南的国事访问回到国内。14日至15日，在广西壮族自治区党委书记刘宁和自治区政府主席蓝天立陪同下，先后到南宁、来宾等地，深入对外开放项目、社区、农村、企业等进行调研。', '14日上午，习近平首先考察了位于南宁市的中国－东盟信息港股份有限公司。习近平详细了解中国－东盟信息港建设运营、中国－东盟经贸合作等情况，结合平陆运河沙盘听取西部陆海新通道骨干工程建设汇报。习近平指出，建设中国－东盟信息港，是推动共建“一带一路”、加强我国与东盟国家互联互通的一项重要举措。广西要主动作为、发挥支点作用，加强信息化建设和应用，为推进高水平对外开放、促进同东盟合作不断注入新动力。', '南宁市良庆区蟠龙社区是一个多民族聚居社区。习近平来到社区党群服务中心，听取现场工作人员关于开展主题教育、促进便民惠企、举办民族特色活动等情况介绍，对他们坚持党建引领聚合力、服务为本促发展的做法表示肯定。在文体活动室，他饶有兴致地观看社区居民习练书法、合唱民歌，同大家亲切交流，鼓励社区充分利用人才、场地等资源，开展更多健康有益、启智润心的文化活动，以此激发更大的正能量。习近平指出，社区是基层自治的基本单元，是国家治理体系的基层基础。通过社区这个平台，办好“一老一小”等民生实事和公共事务，积极回应群众关切，是中国特色基层治理的显著优势，要把这一优势发挥好。建设多民族群众互嵌式社区，是促进各族群众交往交流交融的重要途径。广西建设铸牢中华民族共同体意识示范区，要从基层社区抓起，通过扎实的社区建设、有效的社区服务、丰富的社区活动，营造各族人民一家亲的浓厚氛围，把民族团结搞得更好。', '离开社区时，各族群众热情欢送总书记。习近平亲切地对大家说，我昨天结束对越南的国事访问，直接来广西考察调研。构建具有战略意义的中越命运共同体，将更有利于广西的开放发展，壮美广西前景光明。广西作为我国少数民族人口最多的自治区，各族人民同顶一片天、同耕一垌田、同饮一江水、同建一家园。全面建设社会主义现代化国家，一个民族都不能少。希望社区各族群众多来往，大家互帮互助，交知心朋友，做和睦邻居，共同建设幸福家园。', '14日下午，习近平到来宾市考察调研。在国家现代农业产业园黄安优质“双高”糖料蔗基地，习近平察看万亩甘蔗林和机械化作业收割场景，听取基地情况介绍。他走进甘蔗林，详细了解甘蔗良种繁育技术要领，同蔗农、农机手和农技人员亲切交流。习近平指出，广西是我国蔗糖主产区，要把这一特色优势产业做强做大，为保障国家糖业安全、促进蔗农增收致富发挥更大作用。要积极培育和推广良种、提高机械化作业水平，建设好现代农业产业园。要探索建立更加稳定的利益联结机制，让广大农民共享农村改革和发展成果。他祝愿乡亲们的生活像甘蔗一样甜蜜。', '随后，习近平到来宾东糖凤凰有限公司考察。他进入生产车间察看制糖工艺和作业流程，在公司展厅了解糖业产品种类及市场份额和发展趋势。他强调，我国糖业面临激烈的国际竞争，要按照高端化、智能化、绿色化要求，加大科技创新力度，延伸产业链、提高附加值，不断提质、降本、增效，推动高质量发展。离开企业时，习近平热情地对前来欢送的员工们说，食糖是重要的副食品，大家为此辛勤劳动，为千家万户送去了“甜蜜”。希望大家不断学习新技术、采用新工艺，为糖业发展作出新贡献。', '15日上午，习近平听取广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定。', '习近平指出，推动广西高质量发展，必须做好强产业的文章，加快构建现代化产业体系。要立足资源禀赋和产业基础，聚焦优势产业，集中优势资源，打造若干体现广西特色和优势、具有较大规模和较强带动力的支柱产业。把科技创新摆到更加突出的位置，深化教育科技人才综合改革，加强科教创新和产业创新融合，加强关键核心技术攻关，加大技术改造和产品升级力度。充分利用沿海沿江的优势，大力发展海洋经济、临港产业。加快产业结构优化调整，推动产业体系绿色转型，发展壮大林业产业、文旅产业、养老产业、大健康产业，让生态优势不断转化为发展优势。', '习近平强调，广西要持续扩大对内对外开放。要增强内外联动，构建更有活力的开放型经济体系。主动服务国家重大战略，对接沿海发达地区产业新布局，有序承接产业梯度转移，加快北部湾经济区和珠江－西江经济带开发开放，把广西打造成为粤港澳大湾区的重要战略腹地。要共建西部陆海新通道，实施一批重大交通基础设施项目，高标准、高质量建设平陆运河，高水平打造北部湾国际门户港，提高江铁海多式联运能力和自动化水平。积极服务建设中国－东盟命运共同体，深化拓展与东盟国家在商贸、劳务、产业、科技、教育等领域合作，打造国内国际双循环市场经营便利地，深度融入共建“一带一路”。', '习近平指出，乡村振兴是建设农业强国的基础性工程，要落实规划、扎实推进。要全面落实粮食安全党政同责，坚持稳面积、增单产两手发力，实现粮食均衡增产。发挥广西林果蔬畜糖等特色资源丰富的优势，大力发展现代特色农业产业，让更多“桂字号”农业品牌叫响大江南北。既要鼓励工商资本下乡，又要把住底线，防止占用耕地搞非农化、非粮化经营。加快完善乡村治理体系，改善农村基础设施、公共服务、人居环境，提升村庄整体风貌和农民生活品质。巩固拓展脱贫攻坚成果，建立农村低收入人口常态化帮扶机制，防止出现规模性返贫。', '习近平强调，广西要把铸牢中华民族共同体意识作为自治区各项工作的主线，作为推进民族团结进步创建工作的根本方向，巩固发展各族人民团结奋斗的良好局面。要把持续扎根铸牢共同体意识落实到经济、教育、就业、社区建设、文化建设和干部队伍建设等各项工作中，继续在民族团结进步上走在全国前列。要尽力而为、量力而行、久久为功，着力解决好就业、教育、医疗、住房、养老、托幼等民生问题，逐步缩小城乡差距、区域差距、民族差距，扎实推进共同富裕。持续推进新时代兴边富民行动。', '习近平指出，坚持和加强党的全面领导，是做好各项工作的根本保证。要坚决贯彻落实党中央决策部署，加强领导班子建设，不断提高干部队伍素质和能力，激励党员干部廉洁从政、干净干事。第二批主题教育处于尾声，要善始善终，建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制。', '习近平强调，岁末年初，各级党委和政府要切实做好市场供应、民生保障，精细化抓好安全生产，注意解决农民工欠薪问题，确保人民群众节日欢乐祥和。近几天，我国华北、黄淮等地区普遍出现中到大雪，对人民群众生产生活秩序造成一定影响，各地、各有关部门要密切关注，采取有力措施，努力把灾害带来的影响降到最低。', '王毅、李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十一巡回指导组负责同志参加汇报会。', '12月15日上午，习近平在南宁亲切接见驻南宁部队上校以上领导干部，代表党中央和中央军委向驻南宁部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>103</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>政务资讯市经济和信息化局赴江苏省考察学习并开展招商引资活动</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2020-11-10</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5fa9f3537f8b9aac4f8b4567.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为贯彻落实习近平总书记在合肥主持召开扎实推进长三角一体化发展座谈会上的重要讲话精神，在长三角区域一体化发展中加强交流合作，实现更大作为，11月5日-7日，由市政府副秘书长周拥军带队，市经济和信息化局党组书记、局长韩烁等一行6人赴苏州市、无锡市、南京市考察学习并开展招商引资活动。', '考察组赴当地工业和信息化主管部门开展学习交流，重点学习当地发展产业、服务企业、推动长三角一体化发展等方面的先进经验，洽谈十四五时期皖北承接产业转移合作意向。', '考察组先后赴苏州市高新区、朗新科技、雄宇集团等园区和企业参观考察，学习园区建设先进经验，考察企业发展状况，洽谈投资意向。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>103</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>信息公开工作推进市城管执法局赴六安市考察学习污水处理提质增效工作</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022-03-23</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/6242c9d08866883a278b456a.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['为精准推进我市污水处理提质增效工作，3月22日，市城管执法局党组书记、局长常利华带队赴六安市考察学习经验做法，市城管执法局党组成员、市市政处主任王松林及有关科室负责人共同考察学习。', '常利华一行首先与六安市城管局进行座谈交流，六安市城管执法局党组书记、局长赖红梅详细介绍了六安市水环境治理项目进展及经验做法，针对我市提质增效工作重点、难点问题双方进行了充分交流讨论。随后，考察组一行实地参观考察了六安市凤凰桥污水处理厂、凤凰桥中水处理厂等已建成及在建项目。', '会上，常利华对六安市城管局表示诚挚感谢。他表示，去年以来，阜阳市在借鉴“六安、芜湖”水环境治理模式的基础上，启动了阜阳城区污水处理提质增效工作，按照“厂网河站一体、建设运维管理一体、城乡一体”的工作理念，统筹开展水污染治理、水生态修复等工作。通过现状摸底、系统治理、标本兼治、示范推广，促进城镇污水全收集、收集全处理、处理全达标以及综合利用，实现阜城污水治理取得明显成效。目前六安市已经探索出一套成熟的项目经验，打造了“六安样板”。阜阳将继续学习六安市先进经验，加快推进阜阳城区污水处理提质增效工程建设，巩固黑臭水体治理成果，提升污水收集处理效能，切实改善人居环境，打造“阜阳模式”，为全市人民交上一份满意的答卷。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>103</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>政务资讯滁州市市场监管局来阜考察学习建设及放心消费创建工作</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-05-11</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/609a477d886688ab798b456d.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['5月10日，滁州市市场监管局四级调研员唐凤阳率县（市）区12315中心及消保委一行23人到阜阳市市场监管局考察学习12315效能评价及放心消费创建等工作。市市场监管局党组成员、副局长张文生，12315投诉举报中心负责人及阜阳市消保委副秘书长等陪同考察。', '学习考察主要以交流座谈和实地参观的方式进行。座谈会上，张文生就机构改革以来阜阳12315中心建设的背景及工作开展情况进行了介绍，并表示阜阳市局领导班子对投诉举报工作高度重视，强调要抓住长三角一体化机遇，切实做好放心满意消费创建工作，进一步优化营商环境。随后，双方就12315平台建设、消费投诉处理工作机制，投诉举报热点难点问题等工作进行了深入交流。并表示，下一步将加强交流互动，促进经验分享，取长补短，为营造满意的消费环境提供有力保障。', '会后，考察组参观了省级放心消费示范单位阜阳市百货大楼、阜阳市生态园，对我市的12315建设及放心消费创建工作给予了高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>103</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>政务资讯市交投公司赴上海松江交投考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5fa39ac77f8b9ab07e8b4586.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平总书记考察安徽重要讲话指示精神，落实市委市政府加强阜阳与长三角中心区开展深层次合作、加快阜阳融入长三角步伐的部署安排，深化公司与发达地区先进企业的友好交流，11月3日，市交投公司总经理王磊一行赴上海松江交通投资运营集团有限公司考察学习。松江交投党委书记、董事长徐军以及其他班子成员出席座谈。', '座谈会上，与会双方分别介绍了松江、阜阳两地经济社会发展情况及两家公司的基本情况，并就如何深化企业管理体制及运行机制，如何实现企业可持续发展，未来双方合作交流的空间、方向等问题进行了深入交流与探讨。', '王磊对此次松江交投热情接待表示感谢，他指出，上海松江、阜阳两地政府继结成战略合作关系后，建立了人才交流培训制度，打通了增强松江和阜阳两地友谊、加深两家国企间的互学互鉴新渠道。松江交投在坚持党建引领、推动项目建设、抓实运营管理等方面值得学习借鉴，希望双方借助长三角一体化发展的契机，建立长期沟通联系机制，在推动两企同进步共发展的同时为促进地方经济社会发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>103</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>政务资讯六安市交通运输局到王家坝闸考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2020-10-30</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5f9b753e7f8b9a014a8b457f.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['10月28日，六安市交通运输局纪检监察组组长姚群一行15人到王家坝闸实地考察学习。阜阳市交通运输局副局长王初领、阜南县交通运输局局长李桂周参加考察。', '考察学习团一行首先追寻习近平总书记考察阜南足迹，参观了曹集镇西田坡庄台，并在李桂周的介绍下，详细了解了阜南县蒙洼蓄洪区交通基础设施“十三五”发展历程、取得的成效和“十四五”结合乡村振兴发展规划及庄台群众灾后恢复重建的具体情况。姚群对阜南县交通基础设施建设取得的成绩给予了赞扬，并对阜南县交通灾后应急抢修保通、蓄洪区群众灾后自力更生、不畏艰难的奋斗精神表示景仰。', '离开西田坡庄台，考察团一行驱车来到素有“千里淮河第一闸”之称王家坝闸现场感受王家坝精神。在王家坝抗洪纪念馆，通过对王家坝闸所处地理位置、发挥的重要作用、历代领导人对淮河治理的高度重视和王家坝十六次开闸蓄洪、蓄洪区人民传承“王家坝精神”详细了解后，考察人员纷纷感慨：王家坝闸承担的使命责任，给我们如何发挥关键作用带来很大启发，蓄洪区群众舍小家为大家、灾难面前不屈不挠的精神，不仅是我们学习的榜样，更是我们为群众做好服务的努力方向和为之奋斗的目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>103</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>政务资讯河南省南阳市考察团来阜考察学习人工智能医疗工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5f519e517f8b9a2a378b4567.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['9月3日，河南省南阳市卫生健康委副主任陈少禹带领邓州市、卧龙区、方城县等下辖县区卫生健康委主任、相关科室负责人等20余人到阜阳市考察学习“人工智能+医疗”工作。阜阳市卫生健康委副主任孙芳、基层卫生科科长见海晖、阜南县卫生健康副主任沙松凌等陪同。', '陈少禹一行先后来到阜南县田集镇卫生院、杨寨村卫生室等地与工作人员进行面对面交流，通过现场观摩、演示操作等方式，详细了解智医助理AI辅诊、慢病管理智能外呼等系统功能和使用流程。', '2018年，安徽省推行实施33项民生工程，阜南县被确立为“智医助理”项目五个试点县之一。2019年我市颍州区、颍泉区、颍东区、太和县、颍上县、临泉县、界首市列为全省新增50个“智医助理”民生工程试点县之一。阜阳市整市推进智医助理试点项目建设，在市、区县两级政府推动支持下，全局谋划、整体推进、分县部署，已在8个县市区完成了“智医助理”系统部署，实现所有基层医疗机构“智医助理”全覆盖，成为首批以市为单位整体推进的试点市。', '陈少禹一行对阜南县“人工智能+医疗”工作开展情况给予了充分肯定和高度评价，阜南县把“人工智能+医疗”工作和医共体建设成果紧密结合，县、乡、村三级医疗机构定位明确、协同联动，形成了相互支撑、共同发展的良好局面。他表示希望今后进一步加强交流合作，互相学习，共同推动“人工智能+医疗”等工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>103</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>信息公开阜阳公交到亳州公交考察学习</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2018-09-04</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/5bbf01577f8b9a0c5643101a.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['为深入推进公交供给侧结构性改革，借鉴学习兄弟公交优秀工作经验。8月31日上午，阜阳公交一行由副总经理刘雪峰带队赴亳州公交进行考察学习，亳州公交副总经理李健全程陪同考察，详细介绍亳州公交的运营管理、智能调度、信息化等方面建设工作。考察团一行实地参观智能调度中心，观摩智能调度演示，并对实时调度、车辆运营管理等方面做细致交流。', '座谈中，亳州公交副总经理李健介绍了亳州公交的发展概况。目前，亳州公交已建有六大信息化平台，分别为GPS智能调度系统平台、视频监控系统平台、公交微信平台、掌上公交查询系统和公交IC卡管理系统平台，ERP办公管理平台，洪培恒主任针对六大信息化平台的功能及使用情况进行了全面讲解。', '考察中，刘雪峰对亳州公交在信息化建设方面取得的成果表示肯定，愿学习兄弟公交的优秀工作经验，加强技术交流与合作，共同探索城市公交智能化、信息化的新模式，促进公交行业更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>103</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>政务资讯市自然资源和规划局赴厦门考察学习工程规划许可及批后监管工作经验</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2020-06-10</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5ee058067f8b9abf5b8b4576.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['厦门市是全国工程建设项目行政审批制度改革的先进典型，为加快阜阳市工程建设项目规划审批步伐，进一步做好批后监管工作，6月8日，市自然资源和规划局党组成员、副局长王华奇带领三分局负责同志，赴厦门考察学习工程建设项目规划审批及批后监管的先进经验。', '座谈会上，厦门市自然资源和规划局调研员易志忠详细介绍了机构改革后各业务处室及下属事业单位职责、行政审批事项下放、清单制+告知承诺制、工程建设许可阶段协同管理办法等；数字中心负责人举例说明了方案审查深度、指标复核范围、内外控机制实施效果、厦门市景观艺术委员会议事程序等；监管处负责人介绍了批后监管抽查、工程竣工规划核实的具体做法，以及项目存在商改住等情况的监管处理机制。', '王华奇简单介绍了阜阳市工程建设项目规划审批和批后监管的做法，详细了解厦门市自然资源和规划局在工程规划方案审查深度、容积率计算口径、指标复核等方面的工作举措。考察组其他成员也结合工作实际，就批后监管、违法建设处理、信用体系建设、历史遗留问题解决、乡村规划许可等业务问题进行交流探讨。', '王华奇表示，厦门市工程建设项目规划审批和批后监管工作走在全国前面，相关做法值得学习借鉴。下一步，市自然资源和规划局将认真分析研究，结合阜阳市实际，拿出过硬措施，力促阜阳市工程建设项目审批制度改革迈上新台阶，为各类项目顺利建成提供强有力的自然资源和规划保障。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>103</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>政务资讯我市赴定远宁国考察学习基层政务公开标准化规范化试点工作经验</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2017-09-21</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/5a4c65ec7f8b9aaa4e986e6b.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['为认真贯彻落实《安徽省人民政府办公厅关于印发开展基层政务公开标准化规范化试点工作实施方案的通知》（皖政办秘〔2017〕188号）精神，进一步做好我市基层政务公开标准化规范化试点工作，9月14日至15日，由市政务服务中心副调研员李彪带队，颍东区、界首市政务服务中心负责同志等一行，前往滁州市定远县和宣城市宁国市考察学习基层政务公开标准化规范化试点工作及其他方面的先进经验。', '李彪一行实地参观了定远县和宁国市政务服务中心大厅，认真了解了大厅功能布局和运行情况等，并就基层政务公开标准化规范化试点工作进行座谈交流。交流中，李彪一行听取了定远县和宁国市政务服务中心关于基层政务公开标准化规范化试点工作阶段性进展情况的介绍，双方围绕义务教育、农村危房改造等基层政务公开事项目录、事项标准和政策解读、新闻发布、舆情回应等方面进行了深入交流。', '李彪表示，定远县和宁国市作为国家级基层政务公开标准化规范化试点，前期积累了许多经验，值得认真学习和借鉴。他指出，颍东区、界首市政务服务中心要以此次学习为契机，按照省、市工作部署，紧密围绕与群众关系密切的行政行为和服务事项，认真开展基层政务公开标准化规范化试点工作，并形成可复制、可推广、可考核的基层政务公开标准和规范，为全省和我市继续推进基层政务公开工作发挥示范效应，提供参考经验。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>103</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>信息公开市林业局副局长于强带队到蚌埠市考察学习林长制工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2018-05-09</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/60613e828866888c648b4570.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['5月7-8日，市林业局副局长于强带领市局林长办、营林科、森林公安局等部门负责人到蚌埠市考察学习林长制工作。蚌埠市农林委总工程师李德林等陪同。', '于强一行先后实地考察了涂山风景区区级林长示范点、307省道森林长廊绿化、淮河绿化市级林长示范点、省道101森林长廊绿化和三汊河国家湿地公园，听取了蚌埠市关于林长公示牌内容和竖立位置的情况介绍。', '座谈会上，于强介绍了我市林长制工作开展情况，听取了蚌埠市林长制“一林一案”规划、落实林长制责任提示单做法和联络员会议制度的经验介绍。于强表示，将认真学习和借鉴先进经验，积极探索建立具有阜阳特色、符合阜阳实际的林长制体系。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>103</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>信息公开阜阳广播电视台组织党员到凤阳县小岗村考察学习</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2015-05-18</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/5559a8587f8b9a703226eb2f.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['全体党员首先到沈浩同志的墓地进行了祭奠，举行了简单而庄重的凭吊仪式，深切缅怀了这位优秀的共产党员、农村基层好干部。', '在小岗村大包干纪念馆，大家认真听取讲解员的介绍，参观了一组组文物、文字、图片、雕塑，体会着当年大包干从酝酿到发生以及发展的全过程，深刻领会“大包干精神”的深刻内涵。', '在沈浩同志先进事迹陈列馆，大家身临其境地感受了沈浩在小岗村的奋斗历程，再次为沈浩同志扎根基层、服务群众、开拓进取、百折不挠的精神所感动。大家纷纷表示，要在以后的工作中，以“沈浩精神”为指引，爱岗敬业、勇于开拓，进一步增强凝聚力和战斗力，促进宣传工作开展和服务社会的水平再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>103</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>信息公开市公安局颍泉分局考察组赴合肥芜湖两地公安机关考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2011-09-15</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/543cce6b9d6bbc060270fb30.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['为学习借鉴外地先进经验，认真谋划2010年“三项建设”工作的措施，颍泉分局党委成员、副局长徐峰带领治安大队、纪检监察室、政办室、法制科等部门的同志及各派出所所长组成考察组，于2010年2月2日至2月4日前往合肥、芜湖两地公安机关考察学习。 考察学习期间，颍泉分局考察组一行先后前往合肥市公安局包河分局长青派出所、骆岗派出所，芜湖市公安局弋江分局、弋江分局澛港派出所，认真听取了两地公安机关关于 “三项建设”方面的经验介绍，实地参观了两地公安机关信息化建设和应用的实战演示。考察中，两地公安机关坚持科学的工作理念，深入开展的社会治安“一票否决”机制，市、分局机关服务保障基层所、队机制、警务机制创新、基础信息采集、维护、更新、各信息子系统互联互通使用、社区民警管理考核制度、民警网上绩效评估、辅警及户口协管员队伍建设、警察文化建设等工作给考察组的同志留下了深刻印象，使考察组的同志深受启发，获益匪浅。 通过与合肥、芜湖两地公安机关多方面的工作交流，对颍泉分局进一步研究解决如何利用现有资源，全面完善各项工作机制，更好的开展“三项建设”提供了有力的帮助。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>103</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>政务资讯市司法局赴淮南市考察学习公证工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-06-23</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60d2f83f8866886a2c8b4568.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['6月22日，市司法局党组成员、副局长牛满荣带队赴淮南市考察公证工作。淮南市司法局副局长胡传军、淮南市公证协会会长刘军等人陪同考察。', '考察组一行参观了淮南市正诚公证处，公证处主任尹斌就机构的业务发展、收入分配、内部管理等方面进行了介绍，双方围绕淮南市公证行业的发展、协会工作的运转情况召开了座谈会。', '座谈会上，淮南市司法局介绍了淮南市公证行业发展面临的主要问题，刘军详细汇报了公证协会的成立和工作运转情况。参加座谈的同志还就如何解决存在的问题、如何拓展业务等方面展开了热烈的讨论交流。', '考察活动中，牛满荣代表阜阳考察组向陪同考察的淮南市有关领导同志表示衷心感谢，同时指出淮南市公证管理及公证协会的经验做法值得学习和借鉴。回去后，阜阳将进一步对标对表、取长补短，不断提升公证服务能力和水平，实现阜阳市公证工作新发展。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>103</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>专题专栏颍上县古城镇镇村两级考察团赴江浙地区考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017-03-17</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/58cb8c5b7f8b9a3e1210c0ae.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['3月9日至12日，颍上县古城镇镇村两级考察团赴江浙地区开展为期4天的考察活动。本次活动旨在通过实地走访，现场学习，政商交流的方式，考察古城镇光伏、珍珠养殖两大重点项目投资企业的实力；了解项目规划、运作程序，为企业更好的服务；开阔眼界、转变理念，开拓古城镇发展新思路。', '考察团一行先参观了天和能源集团常州总部和国家光伏实验室，并与光伏项目负责团队座谈交流。交流会上，张雁华书记介绍了我镇的基本情况和发展理念，提出了通过建设水面光伏、陆基光伏、屋顶光伏“海陆空”立体光伏模式，打造光伏大镇的新思路。天和集团对于我镇的思路给予高度肯定和赞扬，并表态将尽全力完成项目建设和配合我镇实现光伏大镇的目标。', '考察团一行又来到了诸暨市山下湖镇，参观了浙江唐萃珠宝有限公司总部。了解淡水珍珠种植、加工、销售的全部流程，并举行项目交流会。会上张雁华书记先介绍了此行的目的、塌陷区治理思路、经济发展目标，希望在光伏大镇的基础上，再打造一颗闪亮的珍珠名片。公司负责人詹国庆介绍了公司的发展过程和项目实施计划，在万亩珍珠养殖基地的基础上，将加工工厂搬到我镇，打造一条全新的产业链，助力我镇经济发展。', '最后，考察团参观学习了诸暨市现代农业、科技农业示范单位----米果果小镇。企业通过现代农业与科教基地、休闲旅游、互联网相结合的模式，解决土地利用、农民就业、农业升级、三产联合发展的问题，打造宜业宜居宜游的现代农村。', '通过本次考察，深刻的体会到与东南经济发达地区的乡镇相比，我们无论是经济发展、生态环境还是文明程度上都存在巨大的差距，更加坚定了我们转变发展方式的思路。古城未来的发展要将打造一个环境优美、文明和谐、设施齐全的发展环境，作为一切发展的前提；将特色产业作为发展的主力军；将美丽乡村、美丽集镇的建设作为发展的契机，依托大面积水面，结合安置区建设和塌陷区综合整治，将古城打造成为光伏大镇、珍珠大镇、旅游大镇。为此我们一定要坚定信心，瞄准目标，全力以赴，撸起袖子加油干，打拼出古城发展新天地。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>103</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>政务资讯市委督查考核办公室赴黄山市考察学习督查考核管理平台运行管理工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60471f477f8b9a09748b4569.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['为深入推进全市督查系统平台建设与市新OA系统高度融合，全面提升督查考核信息化水平，在前期充分调研的基础上，3月4日至5日，市委督查考核办公室督查考核平台建设专项考察组赴率先在全省提出市县（区）政务督办一体化平台建设的黄山市进行学习考察。', '考察组一行对黄山市政务督查考核平台建设及运行情况进行了深入全面的学习考察，认为该市政务督查平台建设结合督查考核部门的职责紧密，设计理念符合市县（区）两级督查考核部门工作实际，能够支撑督查考核部门开展督查考核工作需要。下一步，市委督查考核办公室将认真梳理学习考察成果，抓好工作结合，积极对接有关单位，力争将全市督查考核平台设计理念与我市新建OA系统有机融合，为全市督查考核工作插上智慧的翅膀。', '黄山市督查考核管理平台2019年12月正式上线运行。主要包含督查推进、督查检查考核计划管理、目标绩效管理考核等三大系统。通过该平台对每个督查事项的发布、受理、流转、办理、反馈、审核、评价实现全流程闭环管理。同时，在现有电子政务外网的基础上，支持县区拓展应用，允许县区在该平台面向区县直单位和乡镇开展督办工作。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>103</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>政务资讯淮南市政协来阜考察四事四权工作法</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2022-08-18</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62fdc26388668838658b457c.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['8月16日，淮南市政协副主席李大松、周方勤一行来阜，专题考察学习颍州区白行社区“四事四权”工作法。市政协副主席顾恒中陪同考察。', '考察组一行来到颍州区西湖镇白行社区实地考察，并召开座谈会，详细了解“四事四权”工作法的起源、工作步骤及取得的成效。', '考察组对白行社区探索形成的“四事四权”工作法高度评价，并表示，将以此次考察学习为契机，对标先进经验，积极助推淮南市探索基层社会治理现代化的路径。', '顾恒中对考察组一行来阜考察表示欢迎，并希望两地政协进一步加深交流互动，共同探讨推进基层治理现代化的好方法、好经验，发挥专门协商机构作用，共促两地发展。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>103</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>政务资讯刘玉杰主持召开六届市委常委会第一百零九次会议暨市委理论学习中心组学习会</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/656d3b67886688347f8b4567.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['刘玉杰主持召开六届市委常委会第一百零九次会议暨市委理论学习中心组学习会议-阜阳市人民政府', '12月1日下午，市委书记刘玉杰主持召开六届市委常委会第109次会议暨市委理论学习中心组学习会议，传达学习习近平总书记重要讲话重要指示精神，研究安全生产、妇联、工会、归侨侨眷、巡视整改等工作。市委副书记、市长胡明文，市领导胡明莹、李志伟、李军、章绍伟、王波、吕国平、张俊杰、邵兵、张永平等参加。', '会议传达学习了习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话、对山西吕梁市永聚煤矿一办公楼火灾事故作出的重要指示精神，听取我市安全生产工作情况汇报，强调要坚持人民至上、生命至上，始终保持“时时放心不下”的责任感，守土有责、守土负责、守土尽责，“一线+闭环”抓好防灾减灾和安全生产各项工作。要持续提升防灾减灾能力，扎实推进淮干王临段、洪汝河、重要行蓄洪区等重大水利工程建设，加强防灾减灾物资储备，落实落细防灾救灾演练机制；扎实做好冬季火灾防控，聚焦人员密集场所、劳动密集型企业以及高层建筑、大型商场、宾馆饭店、学校医院、仓储物流、养老院等重点场所，深入开展消防安全风险隐患排查整治，全力维护人民群众生命财产安全；突出抓好岁末年初安全生产，推深做实重大事故隐患专项排查整治2023行动，系统性抓好道路交通、危化品、建筑施工、煤矿、校园、旅游景区等行业领域安全治理，坚决防范和遏制各类安全事故发生。', '会议传达学习了习近平总书记在同全国妇联、中华全国总工会新一届领导班子成员集体谈话时的重要讲话精神及中国妇女第十三次全国代表大会、中国工会第十八次全国代表大会、第十一次全国归侨侨眷代表大会精神，要求坚持以习近平新时代中国特色社会主义思想为指引，突出“把牢底色、打造特色”，不断强化政治建设、深化群团组织改革，持续在提站位、接地气、重实效、可持续、树品牌上下功夫，常态化开展困难救助、沟通联络、维护权益等工作，不断擦亮产业工人队伍建设、工会驿站、“村嫂理事会”等品牌，引导广大妇女、职工和归侨侨眷更好发挥桥梁纽带作用，以实干实绩为加快建设“三地一区”“十个区域性强市”贡献更多力量。', '会议学习了习近平总书记关于巡视工作的重要论述，传达了省委有关会议精神，通报了省委巡视阜阳市反馈意见，并结合实际开展学习研讨，强调要切实提高政治站位，坚决把巡视整改作为重要政治任务，成立高规格整改工作领导小组，精心制定整改方案，建立问题、任务、责任、时限清单，实行清单化、闭环式管理，坚持工作上查问题、政治上找原因、党建上补短板、制度上堵漏洞，严格整改要求、强化跟踪问效，坚定坚决、不折不扣抓好整改落实，真正把整改成果转化为推动高质量发展的实际成效。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>103</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组学习扩大会议召开</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6563e27d886688413b8b456a.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['11月24日，市人大常委会党组书记、主任胡明莹主持召开市人大常委会党组理论学习中心组学习（扩大）会议，副主任王玉峰、金杰，党组成员黄琦，副主任陶颖，秘书长朱新参加。', '会议传达学习了习近平总书记在北京河北考察灾后恢复重建工作时、主持召开中央全面深化改革委员会第三次会议时的重要讲话精神，学习了《求是》杂志发表的习近平总书记重要文章《推进生态文明建设需要处理的几个重大关系》和《习近平新时代中国特色社会主义思想专题摘编》《习近平新时代中国特色社会主义思想的世界观和方法论专题摘编》部分内容，并进行了交流研讨。', '会议指出，要深入学习贯彻习近平生态文明思想，牢固树立和践行“绿水青山就是金山银山”理念，持续加强对生态环境保护工作的监督，切实扛起生态文明建设的人大责任。牢固树立和践行以人民为中心的发展思想，进一步强化相关领域的立法和执法检查工作，不断提升阜阳防灾减灾救灾的法治化规范化水平，更好护航全市经济社会发展和人民幸福生活。', '会议强调，要进一步提高政治站位，学深悟透习近平总书记关于坚持和完善人民代表大会制度的重要思想，深入践行全过程人民民主重大理念，持续在强化理论武装、服务中心大局、办好民生实事、保障代表履职、加强自身建设等方面下功夫，不断开创新时代地方人大工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>103</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>政务资讯刘玉杰率队赴合肥学院考察</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/65483962886688906c8b4572.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['为认真贯彻落实省委常委会在阜现场办公会和省委主要负责同志讲话精神，11月3日下午，市委书记刘玉杰率领阜阳师范大学、阜阳理工学院、阜阳职业技术学院、阜阳幼儿师范高等专科学校、阜阳技师学院等高等、高中职院校及市直有关部门负责同志，赴合肥学院考察并举行工作座谈，学习借鉴应用型高等院校办学经验，洽谈深化合作事宜。合肥学院党委书记王其东、院长吴春梅，党委副书记刘建中，党委委员、大众学院院长王晓峰，市领导王波、金杰、陈东、杨善竑等参加。', '合肥学院是一所应用型高等院校，办学模式、教育教学等特色鲜明，尤其是与德国合作成立大众学院联合培养汽车产业高技能人才成效明显。刘玉杰一行先后参观了大众学院智能制造产教融合实践中心、多模态工业设备状态监测实验室、中德合作成果展厅等，详细了解学科建设、人才培养、学生就业等情况。刘玉杰指出，合肥学院坚持“地方性、应用型、国际化”办学定位，创新探索“双元制”办学模式，成立“产业对口”学院、定制化培养“种子工程师”，打造了应用型高校办学“安徽特色”，为我们提供了可学习借鉴、可复制推广的“合肥模式”。', '在随后举行的座谈会上，刘玉杰介绍了阜阳经济社会发展情况。他说，当前阜阳正处于厚积薄发、动能强劲、大有可为的上升期、关键期，按照省委常委会在阜现场办公会和省委主要负责同志讲话要求，勇担“建设长三角区域重点城市和带动皖北、支撑中原城市群发展的重要增长极”使命任务，充分发挥皖北龙头城市作用，勇当皖北全面振兴排头兵，加快建设“三地一区”“十个区域性强市”，未来发展潜力巨大。希望双方在合肥阜阳结对合作基础上，共同推动产学研项目优先在阜合园区落地转化，在制造业发展、文旅融合、淮河文化研究、高等研究院共建、合作办学、国际交流等方面深化务实合作，探索双向挂职、联合培养复合型人才，努力探索校地、校校融合发展新路径。', '王其东、吴春梅表示，阜阳发展基础良好、势头强劲，下一步，合肥学院将建立常态化对接合作机制，列出合作清单，务实推动产学研、联合办学、人才培养等多领域合作，助力阜阳更好发挥皖北龙头城市作用。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>103</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>政务资讯六届市委常委会第次会议暨市委理论学习中心组学习会议召开</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6541b2d2886688f7448b458a.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['10月31日，市委书记刘玉杰主持召开六届市委常委会第106次会议暨市委理论学习中心组学习会议，传达学习习近平总书记重要讲话重要指示精神，研究主题教育、新型工业化、新能源汽车产业发展、住宅小区物业管理立法等工作。市委副书记、市长胡明文，市领导胡明莹、李志伟、李军、章绍伟、王波、白晓云、吕国平、张俊杰、邵兵等参加。', '会议传达学习了习近平总书记在江西考察并主持召开进一步推动长江经济带高质量发展座谈会时的重要讲话精神，强调要坚持生态优先、绿色发展，突出抓好生态环境问题整改，大力推行绿色生产、绿色生活、绿色交通、绿色建筑，加快发展方式绿色转型。要以创建国家创新型城市为旗帜性抓手，系统性抓好招才引智工作，常态化开展“招才引智高校行”“阜阳学子家乡行”活动，深化政产学研用金合作，不断提升科技成果转化和产业化水平。要大力实施大通道大平台大通关建设，深化与合肥、苏州、上海临港等结对合作，扎实推进国资国企、招投标、投融资、农业农村等领域改革，推动改革开放实现更大突破。要统筹抓好乡村振兴、文化传承、民生保障、基层治理、作风建设等工作，不断增强群众获得感、幸福感、安全感。', '会议传达学习了习近平总书记在中共中央政治局第九次集体学习时的重要讲话精神和10月27日中共中央政治局会议精神，强调要坚持以主题教育为引领，认真落实省委“九个扎实”部署要求，勇担“建设长三角区域重点城市和带动皖北、支撑中原城市群发展的重要增长极”使命任务，充分发挥皖北龙头城市作用，勇当皖北全面振兴排头兵，加快建设“三地一区”“十个区域性强市”，推动新型工业化、信息化、新型城镇化、农业现代化走在皖北前列，奋力走出新时代阜阳高质量发展新路，为全省发展大局多作贡献。要铸牢中华民族共同体意识，加快民族聚居地区经济发展，提升民族事务治理体系和治理能力，打造“颍淮石榴籽家园”。', '会议传达了中央主题教育第六巡回指导组在阜调研情况，指出中央第六巡回指导组在阜调研期间对我市主题教育做法及工作成效给予充分肯定，并有针对性地提出工作要求，全市上下要以此为动力，把学习推广“四下基层”作为重要抓手，加强与理论学习、调查研究、推动发展、检视整改、建章立制的衔接联动，进一步抓实组织调度、分类指导，力戒形式主义官僚主义，确保主题教育取得实效。', '会议传达学习了习近平总书记就推进新型工业化作出的重要指示及全国新型工业化推进大会精神，强调要坚持以工业投资千亿计划和“三个百亿”行动支撑制造业“倍增”和二产提质扩量增效，深入实施优势产业壮大、优质企业引育、开发园区效益提升、数字赋能行动，推动制造业高端化、智能化、绿色化，加快建设区域性制造强市。', '会议审议了我市《关于强化创新引领推动新能源汽车产业集群建设的实施方案》及配套文件，强调要进一步巩固我市新能源汽车产业加快发展的好势头，聚焦整车、零部件、后市场“三位一体”，大力推动新能源汽车产业全链条发展，推动产业规模不断提升、产业生态不断优化，加速成为全省万亿级汽车产业集群中的重要节点和关键一环。', '会议审议了《阜阳市住宅小区物业管理条例（草案修改稿）》，同意由市人大常委会按程序做好立法工作。会议强调，物业管理是事关基层治理和群众福祉的“大民生”，将其纳入立法范畴充分体现了政治站位、人民情怀、法治精神和依法履职的有机统一，要紧紧围绕老百姓日常物业服务需求，进一步规范物业管理活动，不断完善物业管理体制机制，通过良法善治让群众生活更舒心。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>103</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6514dfeb886688ce1e8b4575.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['9月27日，市政协党组书记、主席李志伟主持召开党组理论学习中心组学习（扩大）会议。市政协副主席顾恒中、吴开义、王家仁、张华久、于伟，秘书长房继红出席会议。', '会前，大家自学了《习近平著作选读》（第一卷）及《中国共产党章程》《党委（党组）落实全面从严治党主体责任规定》；会上，与会同志观看了习近平总书记考察安徽视频，集中学习了习近平总书记关于以学铸魂、以学增智、以学正风、以学促干的重要论述和关于发扬斗争精神、应对风险挑战的重要论述，学习了习近平总书记在黑龙江考察时、在新时代推动东北全面振兴座谈会上、在浙江考察时的重要讲话精神和对新时代办公厅工作作出的重要指示，学习了市纪委相关通知、通报精神；部分同志结合学习内容和工作实际，作了交流发言。', '李志伟强调，市政协全体党员干部要以学习贯彻习近平新时代中国特色社会主义思想主题教育为契机，提振学习之效，紧跟核心强党性，不断提升政治站位，牢固树立政治理想，坚定站稳政治立场，严格遵守政治纪律，真正从思想上正本清源、固本培元，筑牢信仰之基、补足精神之钙、把稳思想之舵。要砥砺担当之为，围绕中心促发展，紧密结合新时期阜阳打造“三地一区”、建设“十个区域性强市”目标，按照“党政所需、发展所向、群众所盼、政协所能”原则，选准突破口、找准切入点，同心共向、同步共进、同力共为。要夯实履职之基，保持恒心正风纪，努力打造忠诚政协机关、有为政协机关、清廉政协机关，用实际行动推动政协工作提质增效，为谱写新时代阜阳高质量发展新篇章作出更多政协贡献。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>103</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>信息公开阜阳市气象局召开月份中心组扩大暨主题教育学习研讨会</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/651bd71b88668861408b457d.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['学习贯彻习近平总书记重要讲话精神，深刻领悟以学增智重要要求推动主题教育走深走实相关文件精神、', '韩俊在贯彻习近平总书记考察安徽重要讲话重要指示精神座谈会上的讲话精神、中共阜阳市委《关于进一步强化政治引领 深入推进党员干部作风大转变的实施意见》、', '习近平总书记在主题教育动员会上的讲话、阜阳市委关于第二批主题教育有关工作提示等内容。', '、办公室、气象台、观测站负责人分别作了研讨交流发言。大家一致认为，在今后的工作中，将进一步贯彻落实习近平总书记关于气象工作的重要指示精神和考察安徽及阜阳重要讲话精神，积极参与学习贯彻习近平新时代中国特色社会主义思想主题教育，坚定理想信念，加强党性修养，切实转变作风，坚持用党的创新理论武装头脑，指导实践，推动工作。', '习近平新时代中国特色社会主义思想主题教育，贯彻落实党中央、省委、市委，中国气象局、省局党组关于主题教育的系列要求，']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>103</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>政务资讯习近平在浙江考察时强调始终干在实处走在前列勇立潮头奋力谱写中国式现代化</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/65123122886688f2068b4570.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察-阜阳市人民政府', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 谢环驰 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 李学仁 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察时，同群众亲切交流。新华社记者 李学仁 摄', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户亲切交流。新华社记者 李学仁 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户、小企业主代表亲切交流。新华社记者 李学仁 摄', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在诸暨市枫桥镇枫桥经验陈列馆，同当地群众亲切交流。新华社记者 燕雁 摄', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 谢环驰 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 李学仁 摄', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园了解石榴产业发展情况。新华社记者 燕雁 摄', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 燕雁 摄', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 谢环驰 摄', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>103</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/653869d1886688a0078b456d.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['10月24日，市政协党组书记、主席李志伟主持召开党组理论学习中心组学习（扩大）会议。市政协副主席顾恒中、吴开义、王家仁、张华久、于伟，秘书长房继红出席会议。', '会前，大家自学了《习近平著作选读》（第二卷）、《习近平新时代中国特色社会主义思想专题摘编》。会上，传达学习了习近平总书记在进一步推动长江经济带高质量发展座谈会上、在江西考察时的重要讲话精神和对宣传思想文化工作作出的重要指示精神，学习了习近平总书记重要文章《开辟马克思主义中国化时代化新境界》，传达学习了全市组织工作暨人才工作会议精神及市委网信办有关通报；4名同志进行了交流发言。', '李志伟强调，要在拥戴核心上展现更高站位，切实高举思想旗帜、强化政治意识、严守宣传阵地，坚持以理论的清醒确保政治的坚定，真正把“两个维护”内化于心外化于行；要在紧随核心上彰显更强定力，以“跟进学”强化“跟着走”，以“学得透”确保“跟得紧”，切实坚定信心不动摇、勤勉履职不懈怠、锐意进取不守旧，发挥好人民政协专门协商机构独特优势，持续为我市打造“三地一区”、建设“十个区域性强市”聚众智、齐众心、汇众力；要在捍卫核心上扛起更大担当，坚持把站位全局和立足实际统一起来、把发挥优势和为民履职结合起来、把统筹兼顾与提高效能衔接起来，以一流标准、一流作风、一流业绩为奋力谱写新时代阜阳高质量发展新篇章作出政协应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>103</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/653869fe886688a4078b4569.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['10月24日，市人大常委会党组书记、主任胡明莹主持召开党组理论学习中心组学习（扩大）会议，副主任金杰，党组成员、一级巡视员黄琦，副主任陶颖、梁永勤，秘书长朱新参加。', '会议传达学习了习近平总书记在浙江考察时、在江西考察时、在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，中共中央政治局会议精神和习近平总书记近期重要讲话重要指示精神。', '会议强调，要自觉向中心聚焦、为大局出力，紧密结合阜阳实际，找准人大工作的切入点和着力点，依法保障习近平总书记重要讲话精神在阜阳全面落实到位。要深入学习贯彻习近平总书记关于巡视工作的重要论述，以抓好省委巡视整改为契机，进一步加强党的领导，推动全面从严治党向纵深发展，提升各项工作整体效能。要切实把思想和行动统一到习近平总书记重要指示精神上来，综合运用多种方式，强化对长三角一体化高质量发展、优化营商环境、安徽自贸试验区阜阳联动创新区建设等工作的监督，全力服务和保障我市改革开放不断向纵深推进。要切实坚定制度自信，完整、准确、全面贯彻新发展理念，不折不扣贯彻落实党中央各项决策部署和省委、市委工作要求，助力打造“三地一区”、建设“十个区域性强市”。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>103</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>专题专栏市政府办公室召开党组理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/6509051988668812438b456c.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['9月15日，市政府办公室召开党组理论学习中心组学习（扩大）会议。会议由市政府秘书长、机关党组书记孙存坤主持，市政府机关党组成员，市纪委监委驻市政府办公室纪检监察组组长，市政府办公室、政研室县处级领导干部和各科室主要负责人参加会议。', '会议学习了习近平总书记对新时代办公厅工作作出的重要指示精神以及关于办公厅（室）工作的重要讲话重要指示精神，传达学习习近平总书记近期重要讲话精神，专题学习《中国共产党章程》。围绕贯彻落实中共阜阳市委六届五次全会精神和《中共阜阳市委关于坚定不移沿着习近平总书记指引的方向前进奋力走出新时代阜阳高质量发展新路的决定》《中共阜阳市委关于进一步强化政治引领深入推进党员干部作风大转变的实施意见》开展研讨发言。', '会议指出，习近平总书记对新时代办公厅工作作出的重要指示精神以及关于办公厅（室）工作的重要讲话重要指示精神，是对办公厅工作作出的重要指示，也是对办公室系统的指示要求，是新形势下做好办公室工作的根本遵循，市政府办公室要认真学习、深刻领会、坚决贯彻。', '会议强调，市委六届五次全会在习近平总书记考察安徽及阜阳三周年之际，在全省上下认真学习贯彻省委十一届五次全会精神的重要时刻召开，对奋力走出新时代阜阳高质量发展新路作出全面系统部署，意义十分重大。市政府办公室作为政府系统的枢纽机关，必须发挥好“排头兵”作用，在学习市委全会精神和贯彻市委、市政府决策部署上作表率、走在前。', '会议要求，市政府办公室全体干部职工要深刻领会市委六届五次全会精神实质、吃透精髓要义，尤其是班子成员和各科室、二级机构负责人要带头深学细悟，切实把思想和行动统一到市委决策部署上来，不断增强思想自觉和行动自觉。要紧盯“打造‘三地一区’、建设‘十个区域性强市’”总体目标，聚焦《决定》明确的“十一个方面重点任务”和刘玉杰书记提出的“八个聚力”要求，找准工作定位，对标对表市委全会部署要求，逐条梳理研究，逐项分解落实，确保全会各项目标任务落地见效。要围绕思想大解放、环境大优化、能力大提升、作风大转变、任务大落实和“六破六立”，深入开展解放思想大讨论，全面落实市委关于加强作风建设“1+4”系列文件要求，进一步提升“三服务”工作质效。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>103</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6508fc9f886688a4428b457a.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['9月18日，市人大常委会党组书记、主任胡明莹主持召开党组理论学习中心组学习（扩大）会议，副主任王玉峰、金杰、黄琦、梁永勤，秘书长朱新参加。', '会议集中学习了习近平总书记在黑龙江考察时、在新时代推动东北全面振兴座谈会上的重要讲话精神，全国、全省生态环境保护大会精神，《中共阜阳市委关于进一步强化政治引领推进党员干部作风大转变的实施意见》，以及全市学习贯彻习近平新时代中国特色社会主义思想主题教育动员会议精神和相关文件等。', '会议强调，要牢牢把握高质量发展这个首要任务，持续强化对统筹发展和安全、长三角一体化高质量发展、优化营商环境、推进科技和产业创新等工作的监督，为加快打造“三地一区”、建设“十个区域性强市”作出新的更大贡献。要把学习贯彻习近平总书记在全国生态环境保护大会上的重要讲话精神与学习贯彻习近平生态文明思想结合起来，切实扛起生态文明建设的人大责任，以实际行动助推阜阳生态环境质量持续改善。要认真贯彻落实《实施意见》，按照“六破六立”要求，认真落实“一对标三审查”和“一线+闭环”工作机制，扎实开展“学先进、补短板、树品牌”活动和六个专项整治，共同守护好人大机关风清气正的政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>103</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>政务资讯习近平在黑龙江考察时强调牢牢把握在国家发展大局中的战略定位奋力开创黑龙</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/64fe5fd5886688816c8b4575.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面-阜阳市人民政府', '习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面', '新华社哈尔滨9月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 谢环驰 摄', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 谢环驰 摄', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村村民史瑞娟家的民宿小院考察。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。新华社记者 鞠鹏 摄', '离开小院时，当地群众在道路两旁热情欢送习近平总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。新华社记者 殷博古 摄', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。新华社记者 谢环驰 摄', '看到习近平总书记来了，当地村民和施工人员纷纷围拢过来，向习近平总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰 摄', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>103</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组学习扩大会议召开</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/64f685d5886688863b8b456e.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['9月4日，市人大常委会党组书记、主任胡明莹主持召开市人大常委会党组理论学习中心组学习（扩大）会议，副主任王玉峰、金杰、黄琦、陶颖，秘书长朱新参加。', '会议集中学习了习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时，在文化传承发展座谈会上的重要讲话精神；传达学习了省委书记韩俊在全省扎实推进长三角更高质量一体化发展大会上的讲话精神，市委理论学习中心组到阜南重走总书记在阜考察之路、重温总书记考察安徽及阜阳重要讲话指示精神和给种粮大户徐淙祥重要回信精神，以及市委六届五次全会精神等。', '会议强调，要深入学习贯彻习近平总书记系列重要讲话精神，认真抓好相关会议精神贯彻落实，切实将学习成果转化为做好人大工作实效。要进一步增强发展信心，从衷心拥护“两个确立”、忠诚践行“两个维护”的政治高度，自觉从习近平新时代中国特色社会主义思想中找方法、找路径、找指引，积极破解经济发展难题，迅速扭转经济运行不利局面，着力推动经济企稳回升。要牢固树立全面融入长三角一体化发展大局的首位战略意识，按照“主动靠上去、精准接上去、全力融进去”的要求，坚决扛起人大使命，用好长三角一体化发展的机遇，积极学习借鉴长三角中心区城市人大工作经验做法，充分发挥人民代表大会制度优势，推动市政府及有关方面借好长三角“东风”、搭上一体化“快车”，奋力跑出长三角一体化发展的“加速度”。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>103</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>政务资讯习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2023-07-30</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/64c6fd6688668832638b4574.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察-阜阳市人民政府', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>103</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/64c1cff28866880a468b4567.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['7月26日，市政协党组书记、主席李志伟主持召开党组理论学习中心组学习（扩大）会议。市政协副主席顾恒中、王家仁、朱洪亮、张华久、于伟，秘书长房继红出席会议。', '会前，与会同志自学了习近平生态文明思想和习近平总书记在全国生态环境保护大会上的重要讲话精神。会议传达学习了习近平总书记在江苏考察时的重要讲话精神、关于学习浙江“千万工程”经验的重要批示精神、对党的建设和组织工作作出的重要指示精神、关于作风建设的重要论述；传达学习了7月20日全国政协机关工作座谈会精神和安徽省党政代表团赴沪苏浙学习考察及学习考察总结交流会精神。', '李志伟强调，要站位新高度，坚定不移贯彻好、落实好习近平总书记关于党的建设的重要思想，严格落实党建工作责任制，推进党建工作各项任务落到实处；要把握新要求，充分发挥专门协商机构作用，围绕我市实施产业强市战略、优化营商环境等中心工作，找准履职结合点、着力点，努力做到精准协商、有效建言；要展现新气象，始终把学习作为筑牢信仰之源、夯实能力之基、坚定奋进之志的重要途径，保持昂扬奋发的精神风貌，不断提升服务保障水平，增强履职工作实效。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>103</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>政务资讯市政协召开党组理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/64e6fb5388668856508b4575.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['8月23日，市政协党组书记、主席李志伟主持召开党组理论学习中心组学习（扩大）会议。市政协副主席顾恒中、王家仁、朱洪亮、张华久、于伟，秘书长房继红出席会议。', '会前，大家自学了《习近平新时代中国特色社会主义思想专题摘编》；会上，重温了习近平总书记考察安徽及阜阳重要讲话重要指示精神和习近平总书记重要回信精神，集中学习了习近平总书记关于网络强国的重要思想，传达学习了省委学习贯彻习近平总书记考察安徽重要讲话重要指示精神座谈会和全省扎实推进长三角更高质量一体化发展大会精神，4位同志结合学习和工作实际进行了交流发言。', '李志伟要求，要坚定不移维护核心，深刻感悟党的创新理论的丰富内涵和实践伟力，推动学习与履职深度融合、相互赋能，坚决扛起“落实下去、凝聚起来”的政治责任，推动政协事业焕发新的生机、迸发新的活力、开创新的局面；要持之以恒服务中心，精准把握阜阳发展的全局之重和阶段之要，以深层次的调查研究，实效化的资政建言，宽领域、全周期的协商式监督，助力服务高能极开放、高质量发展；要永不懈怠践行初心，紧扣民心这个最大的政治，搭建并运用好委员工作室、政协工作联络组等与群众联系沟通、互动交流的平台，畅通群众表达诉求、参政议政的渠道，增强政协工作的亲和力、感染力和带动力，努力交出不负时代、不负人民、不负年华的“赶考答卷”。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>103</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/64dd7861886688050d8b456f.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['8月16日，市人大常委会党组书记、主任胡明莹主持召开党组理论学习中心组学习（扩大）会议，副主任金杰、黄琦、陶颖、梁永勤，秘书长朱新参加。', '会议集中学习了习近平总书记7月24日主持召开中共中央政治局会议时、在中共中央政治局第七次集体学习时、在江苏和四川考察时的重要讲话精神，重温了习近平总书记考察安徽及阜阳重要讲话精神。', '会议强调，要切实把思想和行动统一到党中央关于经济形势的判断和经济工作的决策部署上来，围绕中心大局深入开展调查研究，加强人大对经济工作的监督，推动阜阳经济实现质的有效提升和量的合理增长。要胸怀“国之大者”，发挥人大职能优势，高质量开展退役军人保障法实施情况调研，用心用情用力做好双拥工作，巩固军政军民团结良好局面。要牢牢把握高质量发展这个首要任务，找准人大依法履职的切入点和结合点，在服务构建新发展格局中更好发挥人大作用、展现人大作为。要在重温习近平总书记考察安徽及阜阳重要讲话精神中，不断增强政治判断力、政治领悟力、政治执行力，深入践行全过程人民民主，扎实推进“四个机关”建设，聚焦中心大局，按照“六破六立”“六抓六统筹”要求，创造性做好立法、监督、代表等工作，切实把国家根本政治制度的独特优势转化为助推改革发展的实际效能。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>103</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6498ec518866887d088b456d.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['6月25日，市人大常委会党组书记、主任胡明莹主持召开党组理论学习中心组学习（扩大）会议，副主任王玉峰、黄琦、陶颖、梁永勤，秘书长朱新参加。', '会议传达学习了习近平总书记在中央政治局第五次集体学习时、在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上、在广东考察时的重要讲话精神，学习了习近平总书记关于巡视工作、关于树立和践行正确政绩观的重要论述等内容，并围绕树立和践行正确政绩观进行了交流研讨。', '会议指出，要牢牢把握建设教育强国的重要意义，切实履行人大职责，深入推进科教兴市战略与人才强市战略，不断满足人民群众对优质教育的需求。要坚决扛起生态文明建设的政治责任，以实际行动助推阜阳生态环境质量持续改善。要紧紧围绕人大各项工作，大兴调查研究之风，切实把调研成果转化为推动阜阳经济社会高质量发展的务实举措。要准确把握巡视巡察工作的总目标、总方向、总要求，以省委巡视为契机，推动人大工作高质量发展。要增强牢固树立和践行正确政绩观的思想自觉、政治自觉和行动自觉，把满足人民群众对美好生活的向往作为一切工作的出发点和落脚点，持续提高立法质量、增强监督实效、发挥代表作用，不断厚植人大工作的民意基础、得到人民群众的真心支持。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>103</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>信息公开阜阳市菜篮子中心阜南县现代高效循环农业产业园建设运营中心赴蓬溪开展招</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/64a4db8c886688a5578b4571.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['阜阳市菜篮子中心、阜南县现代高效循环农业产业园建设运营中心赴蓬溪开展招商考察活动-阜阳市人民政府', '6月26日—28日，阜阳市菜篮子中心主任乔印升、阜南县现代高效循环农业产业园建设运营中心主任苗海丰一行赴蓬溪参加“第二十二届全国食用菌新产品新技术博览会”，并开展招商引资活动。', '6月26日下午，乔印升主任和苗海丰主任一行与蓬溪县食用菌现代农业园区管委会办公室主任唐小英举行座谈，学习有关食用菌产业园区建设和发展的相关经验。座谈会上，唐小英深入系统地介绍了食用菌现代农业园区发展情况。此次座谈，通过介绍做法、分享经验，引起了思维碰撞。', '6月27日上午，乔印升主任和苗海丰主任一行首先参加了“中国·蓬溪第二十二届全国食用菌新产品新技术博览会”开幕式。随后聆听了国家食用菌产业技术体系首席科学家、上海市农业科学院副院长谭琦关于《中国珍稀食用菌产业现状与发展趋势》的报告、上海市农科院食用菌研究所研究员刘艳芳关于《食药用菌加工关键技术创新研究及应用》的报告等。这些报告围绕我国珍稀食用菌发展现状、信息技术在食用菌生产中应用、食药用菌加工关键技术和未来食用菌产业发展机遇与挑战展开，进一步拓展了推动我市食用菌产业的发展思路。下午，乔印升主任和苗海丰主任一行共同参观了四川省鑫中宇农业有限公司、蓬溪骆峰菌业有限公司、四川琪英菌业股份有限公司、鑫月食用菌种植专业合作社等食用菌生产企业。随后乔印升主任和苗海丰主任一同拜见了四川琪英菌业有限公司董事长宋强、四川如珍食用菌公司总经理王德勇、成都汇菇源食用菌公司董事长李宗堂，与企业负责人交流，了解企业生产情况、发展规划等，并向企业介绍我市食用菌产业发展现状，诚挚邀请其来我市实地考察、对接洽谈。四川琪英菌业有限公司董事长宋强表示近期来阜实地考察。', '日上午乔印升主任和苗海丰主任一行拜见了中国乡镇企业协会食用菌产业分会会长李昊，就我市举办食用菌产业发展高端论坛和在我市召开食用菌产业年会等事宜征求意见，并向李昊会长发出诚挚邀请，希望其最近来我市实地考察食用菌产业发展情况，并参加在我市举办的食用菌产业发展高端论坛。李昊会长表示将大力支持我市举办食用菌产业发展高端论坛。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>103</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>信息公开阜阳市菜篮子中心阜南县现代高效循环农业产业园建设运营中心阜南县循环</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/64a281588866889e428b456e.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['阜阳市菜篮子中心、阜南县现代高效循环农业产业园建设运营中心、阜南县循环经济发展促进中心赴淄博参观学习-阜阳市人民政府', '阜阳市菜篮子中心、阜南县现代高效循环农业产业园建设运营中心、阜南县循环经济发展促进中心赴淄博参观学习', '6月10日上午，市菜篮子中心主任乔印升、阜南县现代高效循环农业产业园建设运营中心主任苗海丰和阜南县循环经济发展促进中心负责人一行参加“首届国际香菇产业创新博览会”，聆听谭琦研究员关于“香菇产业发展历史现状与趋势”的报告。会议结束后，乔印升主任和苗海丰主任一行拜访谭琦研究员、众兴菌业总经理陶军和山东七河生物科技有限公司总经理苏建昌。七河生物和众兴菌业等食用菌知名企业表达了到阜阳发展的意愿，并约定近期组团到阜阳参观考察。', '下午，乔印升主任、苗海丰主任和阜南县循环经济发展促进中心负责人一行首先聆听了“下沉市场——香菇在零售行业的新选择”和“香菇液体菌种在工厂化制棒中的应用”等报告。随后，与中国食品土畜进出口商会食用菌及制品分会秘书长刘自强举行座谈，就我市食用菌产业发展中的关键问题和具体对策进行了交流和探讨，并提出合理化建议，表示愿意为阜阳食用菌产业发展与招商提供帮助。同时，乔印升主任和苗海丰主任一行拜访了商务部国际商报要闻部主任白舒婕，四川琪英菌业股份有限公司宋强，浙江省食用菌装备协会会长、弗德里希新能源科技（杭州）有限公司董事长聂仕飞，厦门祺安达自动化设备有限公司总经理庄宗钦，兴宝机械市场部经理王雪贞。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>103</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/647d3cc18866886e468b4573.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['6月2日，市人大常委会党组书记、主任胡明莹主持召开党组理论学习中心组学习（扩大）会议，副主任金杰、黄琦、梁永勤，秘书长朱新参加。', '会议集中学习了习近平总书记在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会、在河北考察并主持召开深入推进京津冀协同发展座谈会、在听取陕西省委和省政府工作汇报时的重要讲话精神，传达学习了《关于认真学习贯彻习近平总书记有关主题教育系列重要讲话的通知》、习近平总书记关于科技创新的重要论述，以及省委有关会议精神。', '会议要求，要全面对标落实习近平总书记重要讲话精神的战略要求和实践要求，结合阜阳实际，找准服务全市高质量发展大局的切入点、着力点，为奋力谱写中国式现代化建设阜阳篇章贡献人大力量。积极学习借鉴雄安新区的先进经验、做法和模式，顺应发展趋势和群众期待，用好政策机遇，把准功能定位，不断提升我市城市规划建设管理水平和基本公共服务均等化水平。准确把握主题教育总体要求和目标任务，坚持原原本本学习、认认真真领会，推动主题教育取得实实在在成效。进一步提高政治站位，坚持以创新型省份建设为旗帜性抓手，大力实施创新驱动发展战略，督促有关部门做好科技和产业创新各项工作，在推动创新型省份建设中走在前列。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>103</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>政务资讯习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/645c8ee18866884b518b4573.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会-阜阳市人民政府', '原标题：习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时强调', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 殷博古 摄', '新华社河北雄安新区5月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在河北省雄安新区考察，主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。他强调，雄安新区已进入大规模建设与承接北京非首都功能疏解并重阶段，工作重心已转向高质量建设、高水平管理、高质量疏解发展并举。要坚定信心，保持定力，稳扎稳打，善作善成，推动各项工作不断取得新进展。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 燕雁 摄', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察并出席座谈会。', '5月10日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，深入雄安新区的高铁站、社区、建设工地等，就高标准高质量推进雄安新区建设进行调研。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站考察。新华社记者 李学仁 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站候车大厅同旅客亲切交流。新华社记者 申宏 摄', '当天上午，习近平乘高铁前往雄安新区，抵达后首先考察了雄安站的建设运行情况。雄安站是雄安新区开工建设的第一个重大基础设施项目，具有标志性意义。习近平先后察看站台、候车大厅、站外广场，了解雄安站建设运营和所在的昝岗片区规划建设情况。习近平指出，雄安站是雄安新区的交汇车站，要进一步完善联通雄安站和雄安新区的交通“微细血管”，提升人流物流聚集和疏散的效率。要把昝岗片区建设成为高端高新产业集聚区，让各方来客一到雄安，就能感受到雄安新区扑面而来的现代化新气象。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区党群服务中心考察。新华社记者 李学仁 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区食堂同就餐的社区老人亲切交流。新华社记者 李学仁 摄', '习近平随后乘车来到容东片区南文营社区。该社区安置了安新、容城两县回迁群众5000多人。习近平先后来到党群服务中心和社区食堂，同社区工作人员、现场办事群众、就餐的社区老人等亲切交流，仔细查看民情台账，对社区开展的便民养老服务等表示肯定。习近平强调，我一直牵挂着回迁群众，看到大家生活好，我很欣慰。建设好雄安新区，重要的是衔接好安居和乐业，让群众住得稳、过得安、有奔头。要同步推进城市治理现代化，从一开始就下好“绣花”功夫，积极推进基本公共服务均等化，构筑新时代宜业宜居的“人民之城”。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区回迁居民李敬和家中看望。新华社记者 李学仁 摄', '习近平走进回迁居民李敬和家中看望。李敬和告诉总书记，2021年11月迁入新居，房子宽敞明亮，住得十分舒心，日子越过越红火。习近平强调，建设雄安新区是党中央作出的重大战略决策，大家响应国家号召，积极配合，为国家战略实施作出了贡献。他勉励年轻一代在强国建设、民族复兴的进程中，坚定信心，学好本领，造福桑梓，做社会主义事业的建设者和接班人。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区考察时向社区居民挥手致意。新华社记者 殷博古 摄', '临别时，居民们高声欢呼“总书记好”，习近平向大家挥手致意。他深情地对大家说，河北是我工作过的地方，我对这里充满感情，把这里建设好是我的心愿。建设雄安新区是千年大计、国家大事，既不能心浮气躁，也不能等靠要，要踏实努力，久久为功。', '雄安城际站枢纽位于雄安新区启动区的核心位置。习近平来到雄安城际站及国贸中心项目建设现场，看沙盘、登平台，远眺建设工地，了解启动区重大基础设施项目及重点疏解项目规划建设进展情况。习近平指出，交通是现代城市的血脉。血脉畅通，城市才能健康发展。要在建设立体化综合交通网络上下功夫，在充分利用地下空间上下功夫，着力打造一个没有“城市病”的未来之城，真正把高标准的城市规划蓝图变为高质量的城市发展现实画卷。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安城际站及国贸中心项目建设现场考察。新华社记者 燕雁 摄', '下午，习近平来到雄安会展中心雄安厅，结合沙盘、视频短片，听取雄安新区整体规划建设进展介绍，了解白洋淀生态环境治理和保护及清淤疏浚、百淀连通等工作进展情况。习近平强调，白洋淀生态环境治理和保护，功在当代、利在千秋，必须统筹谋划，扎实推进。', '随后，习近平在会展中心三层多功能厅主持召开高标准高质量推进雄安新区建设座谈会。国家发展改革委主任郑栅洁、河北省委书记倪岳峰、雄安新区党工委书记张国华先后发言。中国卫星网络集团有限公司、中国建筑集团有限公司主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，在党中央坚强领导下，在中央有关部门和北京、天津等地大力支持下，河北省积极履行主体责任，雄安新区党工委和管委会认真履行属地责任，扎实推动各项工作，雄安新区建设取得重大阶段性成果，新区建设和发展顶层设计基本完成，基础设施建设取得重大进展，疏解北京非首都功能初见成效，白洋淀生态环境治理成效明显，深化改革开放取得积极进展，产业和创新要素聚集的条件逐步完善，回迁安置工作有序推进。短短6年里，雄安新区从无到有、从蓝图到实景，一座高水平现代化城市正在拔地而起，堪称奇迹。这些成绩是在世界百年未有之大变局、3年新冠疫情的严峻形势下取得的，殊为不易。实践证明，党中央关于建设雄安新区的重大决策是完全正确的，各方面工作是扎实有效的。', '习近平强调，要完整、准确、全面贯彻落实党中央关于建设雄安新区的战略部署，深刻领悟党中央决策的重大现实意义和深远历史意义，牢牢把握党中央关于雄安新区的功能定位、使命任务和原则要求，提高政治站位，保持历史耐心，处理好近期目标和中远期目标、城市建设速度和人口聚集规模、产业转移和产业升级、政府和市场、承接北京非首都功能疏解和城市自身发展、城市建设和周边乡村振兴等重大关系，确保雄安新区建设和发展的正确方向。', '习近平指出，要扎实推动疏解北京非首都功能各项任务落实，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等，着手谋划金融机构、科研院所、事业单位的疏解转移。要继续完善疏解激励约束政策体系。对有关疏解人员的子女教育、医疗、住房、薪酬、社保、医保、公积金等政策，要按照老人老办法、新人新办法的原则要求，进一步细化实化政策措施，确保疏解单位和人员享受到实实在在的好处。要坚持市场机制和政府引导相结合，项目和政策两手抓，通过市场化、法治化手段，增强非首都功能向外疏解的内生动力。', '习近平强调，要全面落实创新驱动发展战略，推动各领域改革开放前沿政策措施和具有前瞻性的创新试点示范项目在雄安落地，努力建设新功能、形成新形象、发展新产业、聚集新人才、构建新机制，使雄安新区成为新时代的创新高地和创业热土。要打造市场化、法治化、国际化一流营商环境，研究出台一揽子特殊支持政策，广泛吸引、聚集国内外力量和资本参与雄安新区建设和发展，形成人心向往、要素汇聚、合力共建、共同发展的生动局面。要广泛运用先进科学技术，着力加强科技创新能力建设，加大科技成果转化力度，积极发展新业态、新模式，培育新增长点、形成新动能，把智能、绿色、创新打造成为雄安新区的亮丽名片。要贯彻绿水青山就是金山银山的理念，坚持绿色化、低碳化发展，把雄安新区建设成为绿色发展城市典范。', '习近平指出，要优化健全雄安新区领导体制和管理机制，分阶段、分步骤、稳妥有序推动新区向城市管理体制转变。要加强新区各级领导班子和干部队伍建设，提高干部人才队伍整体素质和专业化水平。要完善新区干部考核评价机制，激励广大党员干部敢担当、勇创新、善作为。', '习近平强调，要坚持人民城市人民建、人民城市为人民，解决好雄安新区干部群众关心的切身利益问题，让人民群众从新区建设发展中感受到实实在在的获得感、幸福感。要坚持就业优先，完善就业创业引导政策，加强对新区劳动力的再就业培训。要推进城乡统筹发展，在缩小城乡差距、推动城乡融合发展、促进全体人民共同富裕上闯出一条新路来。', '习近平指出，雄安新区党工委及各级党组织要认真开展主题教育，并以此为契机，加强调查研究，推动思想大解放、能力大提升、作风大转变、工作大落实，进一步提升政治功能和组织功能。要持续纠治“四风”，一体推进不敢腐、不能腐、不想腐，以“廉洁雄安”保障“雄安质量”。', '李强在讲话中表示，高标准高质量推进雄安新区建设，最根本最关键的是要把习近平总书记重要指示和党中央决策部署学习领会好、贯彻落实好。要有“千年大计”的定力，牢牢把握雄安新区的功能定位和使命任务，稳扎稳打、久久为功。要有“只争朝夕”的干劲，把已明确的、必须做的事紧紧抓在手上，不等不拖、紧张快干，加快承接北京非首都功能疏解，扎实推进基础设施建设，着力构建现代化产业体系，充分发挥各方面积极性，推动各项工作不断取得新进展。', '丁薛祥表示，要深入学习贯彻习近平总书记重要讲话精神，把科技创新作为雄安新区高质量建设和发展的根本，着力打造自主创新和原始创新重要策源地，搭建一流创新平台，开展高水平科技创新；着力推动创新链产业链深度融合，围绕产业链部署创新链，加大科技成果转化力度，促进高新技术产业发展；着力建设京津冀协同创新共同体，创新利益分享模式，吸纳和集聚更多创新要素资源参与推动雄安新区高质量发展。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹、姜信治及中央和国家机关有关部门、军队有关单位、河北省、雄安新区、有关企业负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>103</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>政务资讯甘肃省政协来阜考察调研</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6449d89a8866884a608b4587.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['4月25日至26日，甘肃省政协文化文史资料和学习委员会主任张效林率队，来阜考察调研“地方政协工作高质量发展机制建设”，市政协副主席顾恒中陪同。', '调研组一行通过实地走访，对我市发挥人民政协专门协商机构作用，加强制度化、规范化、程序化等功能建设给予充分肯定，认为我市准确把握地方政协在地方治理中的重要作用，积极探索完善地方政协工作高质量发展的新途径、新方法，并把基层协商监督作为市政协工作的重点，推动协商工作向县、乡镇延伸。希望今后阜阳市政协与甘肃省各市政协加强沟通联系，相互借鉴提升，共同推动两地地方政协工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>103</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>政务资讯宿州市党政代表团来阜考察</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/64014f17886688e6648b4567.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['3月2日，宿州市委书记杨军率宿州市党政代表团来阜阳考察。市委书记孙正东陪同考察并主持召开两市交流座谈会。市领导王波、胡明文、张晓东、郑久坤、虞建斌陪同考察或出席座谈会。宿州市领导李红、任东、时志远、李晓宁、刘博夫、杨泽胜参加考察和座谈会。', '交流座谈会上，孙正东代表阜阳市委、市政府，对宿州市党政代表团的到来表示热烈欢迎。他说，近年来，宿州市精耕细作数字、绿色能源等九大产业，加快建设“一城两区三基地”，奋力冲刺全国百强市，创造了许多好经验好做法，特别是敢为人先的闯劲、坚持不懈的韧劲、真抓实干的拼劲，值得阜阳学习借鉴。近年来，阜阳解放思想谋思路、扬长补短定战略、改革创新强支撑、项目为王抓落实，大力推进“两化一推”，推动全市发展保持良好态势。当前，正聚焦省委对阜阳提出的“两个明显提升”、皖北“三个排头兵”目标要求，坚定实施高质量、可持续支撑的追赶型发展战略，加快建设现代化美好阜阳。阜阳与宿州在皖北乃至全省发展格局中具有举足轻重的地位，希望两地进一步加强沟通交流，坚持扬长补短，在推动皖北“两个加快”、实现高质量发展中，携手谱写更多亲密合作、互利共赢的故事，共同为现代化美好安徽建设作出更大贡献。', '杨军说，作为皖北六市之一，阜阳全市上下聚焦“三个排头兵”目标，加快建设“三地一区一城”，各项工作呈现强势上扬的良好态势。通过现场观摩，我们强烈感受到阜阳高质量推动发展的气势、高效能拼抢项目的速度、高水平开放创新的活力、高标准改善民生的“颜值”以及干部群众拼搏进取的精气神，真切感到不虚此行。与阜阳一样，宿州近年来经济社会发展也呈现出健康发展的良好态势，当前正朝着“打造一城两区三基地、奋力冲刺百强市、全面建设现代化新宿州”三大目标稳步前行。随着长三角一体化发展和推动皖北“两个加快”部署的全面实施，阜阳和宿州都迎来了新机遇。希望两地在现有合作的基础上，健全完善常态化、全方位联系对接机制，带动人才、市场、资本等领域的交流融通，携手推动新型工业化城镇化加快突破，引领经济社会全面加快发展。', '在阜期间，宿州市党政代表团参观考察了阜南林海生态、阜阳弗迪科技、阜兴新能源科技、阜阳海钠科技以及瓦大番茄谷基地和阜阳技师学院，深入了解阜阳在招大引强、科技成果转化、高技能人才培养、发展县域特色产业集群等方面的成功经验和做法。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>103</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>政务资讯苏州代表团来阜考察</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-03-05</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6403fb708866884e6d8b4598.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['深化交流合作，加强结对共建。3月3日下午，市委书记孙正东同来阜考察的苏州市委常委、常务副市长顾海东率队的代表团一行座谈交流。市领导王波、胡明文，市政府秘书长孙存坤参加。', '考察交流中，孙正东简要介绍了阜阳市情和苏阜结对合作帮扶取得的成效，代表市委、市政府感谢苏州方面给予阜阳的大力支持。他说，苏州市结对合作帮扶阜阳市以来，两市深入学习贯彻习近平总书记关于推动长三角一体化发展的重要讲话指示批示精神，坚持高位推进，建立常态化联系、全方位对接、定期式互访的双向对接机制，在共建省际产业合作园区、人力资源合作、农业全产业链供应链协同等方面取得了一些成果。', '孙正东说，苏阜两地产业协同性高、资源互补性强，结对合作潜力大。希望双方务实对接、远谋近施、点面结合、重点突破、深化合作，高效推进苏阜产业园区建设，持续深化干部赴苏学习锻炼，加快实施双方在产业转移、技能人才培养、农产品供应等多层次多领域合作，共同推动两地经济社会高质量发展，携手打造长三角一体化发展区域合作新样板。', '顾海东表示，做好结对合作帮扶工作，是中央赋予苏州市的政治责任和光荣使命。阜阳市城市基础设施完善、综合交通优势明显、人力资源丰富。当前，苏州正处在增长速度换挡期、转型升级关键期，希望能与阜阳市进一步强化市际合作，遵循政府搭台、市场运作原则，在园区及产业研究院建设、产业转移等方面建立长期紧密型合作关系，推动苏州市结对合作帮扶阜阳市迈开更坚实的步伐，真正实现优势互补、互利共赢。', '在阜期间，苏州市代表团考察了阜阳技师学院，并深入颍州区实地考察苏阜产业园区选址等情况。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>103</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>政务资讯颍泉区委书记刘万和率队赴深圳河源招商考察</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2022-11-09</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/636b539d88668847798b456a.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['11月3日至8日，颍泉区委书记刘万和率队到广东省深圳市、河源市，就电子信息和光电显示、新材料、新能源、现代农业、基金投资等开展招商引资考察活动。副区长刘璨，区招商中心、颍泉经开区等相关单位负责同志参加。', '11月4日，刘万和一行实地考察了三诺集团和山本光电有限公司。每到一处，刘万和都详细了解企业的产品、产值、核心技术。刘万和说，颍泉人文历史悠久、产业发展优良、营商环境优厚，这些企业与我们的主导产业高度契合，合作的基础好、空间大，真诚欢迎到颍泉投资兴业。', '11月5日，刘万和参观了深圳市美生创谷科技创业园、中盛世有限公司、河源市晶源光学有限公司。刘万和实地考察了美生创谷科技创业园，强调要学习借鉴外观设计、内在文化、运营管理等先进经验，结合颍泉经开区实际，提升园区的整体形象。', '11月6日，刘万和来到深圳市辰峰私募基金、京洲投资集团进行考察。辰峰私募基金主要聚焦新能源汽车产业和泛半导体相关产业投资，刘万和说，辰峰私募基金与颍泉主导产业定位、方向相同，投资的理念、方式相近，相互有良好的合作基础，希望能来颍泉考察，进一步探讨交流、深入合作、实现共赢。在京洲投资集团，就氢科技、现代农业、餐厨余物造水溶肥等项目合作进行深入交流。', '11月8日，在深圳三诺智慧大厦举行了颍泉区招商引资推介暨签约仪式活动，现场分别与传银国际科技、高峰科技、中盛世等企业签订协议。', '期间，刘万和还考察了深圳中惠创智无线供电技术有限公司、珈伟新能源股份有限公司，就新能源、新材料等方面合作进行洽谈。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>103</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组召开理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6364677a88668892438b4567.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['11月3日，市人大常委会党组召开理论学习中心组学习会议，市人大常委会党组书记、主任胡明莹主持会议并讲话。副主任王玉峰、金杰，秘书长朱新参加，副主任陶颖列席。', '会议传达学习了习近平总书记在10月25日中共中央政治局会议、二十届中共中央政治局第一次集体学习、瞻仰延安革命纪念地、在陕西延安和河南安阳考察时的重要讲话精神，以及《中共中央关于认真学习宣传贯彻党的二十大精神的决定》和《中国共产党章程》。', '胡明莹指出，习近平总书记系列重要讲话是统一意志、字字千钧的政治动员，是高屋建瓴、全面系统的理论辅导，是依靠人民、服务人民的铮铮誓言，是团结奋斗、实干兴邦的前进号角。要一体抓好党的二十大报告、习近平总书记系列重要讲话精神、党章修正案的学习领会和贯彻落实，做到学思用贯通、知信行统一。', '胡明莹要求，要按照党中央统一部署和市委要求，制定市人大常委会党组及机关学习宣传贯彻党的二十大精神工作方案，紧密联系人大工作实际和岗位职责，持续加强学习宣传，确保学出忠诚信仰、学出责任担当、学出奋进力量。要紧扣“九个深刻领会”的要求，加强学习领悟，全面准确把握党的二十大精神的核心要义、精神实质、丰富内涵、实践要求。要对标党的二十大关于全过程人民民主和法治中国建设的新部署新要求，高质量完成全年工作任务，谋划明年工作，筹备好市人代会，在服务大局中发挥职能作用，以实际工作成效检验学习成果，奋力推进人大工作高质量开展。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>103</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>政务资讯山西省政协来阜调研考察现代农业建设情况</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/631fd276886688a15e8b4570.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['9月8日至9日，山西省政协农业和农村委员会副主任王晓东带队，来我市调研现代农业建设情况。市政协副主席朱洪亮陪同。', '调研组一行先后来到阜南县绿土农业发展有限公司（田集镇）水稻生产基地、皖西北（阜南）粮食产业园，颍州区三合镇环宇粮食购销公司等地，详细了解我市粮食生产、园区建设、种业发展等情况。', '调研组对我市现代农业建设工作给予充分肯定，表示将参考我市先进经验，结合当地实际，不断探索做好现代农业的新思路、新方法。同时，希望两地进一步加强交流与合作，为共同推动两地农业产业发展和转型升级贡献政协力量。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>103</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组召开理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/630d5d8b886688015b8b456b.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['8月29日，市政协党组书记、主席李志伟主持召开市政协党组理论学习中心组学习（扩大）会议。副主席顾恒中、王家仁、张华久、于伟，秘书长郭景宏，党组成员房继红出席会议。', '会议传达学习了习近平总书记近期重要讲话精神，学习了《中共中央关于加强对“一把手”和领导班子监督的意见》《纪检监察机关派驻机构工作规则》，传达学习了全省政协工作经验交流会暨市县政协主席培训班及全省政协秘书长工作交流座谈会精神。围绕学习《习近平谈治国理政》第四卷“积极发展全过程人民民主”专题，结合重温习近平总书记考察安徽及阜阳重要讲话指示精神，4位同志作了交流发言。', '李志伟指出，习近平总书记近期重要讲话精神高屋建瓴、内涵丰富、思想深邃，具有深刻的历史洞察力、重要的理论引领力、强大的实践指导力。要深入领会新精神，重点在理论学习上深化、在精髓要义上消化、在结合实际上转化，切实把学习成果体现在对党绝对忠诚上；要着力贯彻新要求，全面推进政协组织党的各项建设，在常和长、深和细、严和实上下功夫，切实把学习成果体现在全面从严治党上；要认真落实新部署，结合市政协年度工作要点，进一步找准履职切入点、结合点，在精准建言资政、彰显团结民主、强化履职能力中抓好落实，切实把学习成果体现在提高履职实效上。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>103</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组召开理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/630d5fed886688225b8b4572.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['8月29日，市人大常委会党组副书记王玉峰主持召开党组理论学习中心组学习会议。市人大常委会党组成员金杰、黄琦、朱新参加，副主任陶颖列席。', '会议传达学习了习近平总书记在辽宁考察时的重要讲话精神和习近平总书记给“中国好人”李培生、胡晓春的重要回信精神。', '会议要求，要深入学习领会习近平总书记重要讲话精神，自觉在学思践悟上下功夫、作表率，把衷心拥护“两个确立”、忠诚践行“两个维护”体现在实际行动上。常委会机关党员干部要向李培生、胡晓春等“中国好人”“安徽好人”“阜阳好人”学习，立足岗位，扎实工作，高质量履行好宪法、法律赋予的各项职责，全力助推全国文明典范城市建设，以创建带动民生福祉改善、促进社会文明水平提升。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>103</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>政务资讯孙正东主持召开市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62fefc9f886688a06e8b4569.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['在习近平总书记考察安徽及阜阳两周年之际，8月18日，市委书记孙正东主持召开市委理论学习中心组学习会议，重温习近平总书记考察安徽及阜阳重要讲话指示精神，认真学习《习近平谈治国理政》第四卷，研究部署学习贯彻措施。市委副书记、市长刘玉杰，市委理论学习中心组成员，市人大常委会、市政协有关负责同志参加。', '与会人员观看了中央党史和文献研究院第一研究部副主任张贺福专题辅导录像视频，进行了交流研讨发言。', '会议指出，两年来，全市上下坚持把学习宣传贯彻习近平总书记考察安徽及阜阳重要讲话指示精神作为重大政治任务，忠诚尽职、奋勇争先，推动阜阳经济社会发展和党的建设各项事业焕发出新活力、取得了新成效。各级各部门要站在衷心拥护“两个确立”、忠诚践行“两个维护”的高度，持续落实落细习近平总书记考察安徽及阜阳重要讲话指示精神，按照省委提出的两个“明显提升”、四个“力求实效力争上游”要求，拉高标杆、扬长补短，只争朝夕、埋头苦干，奋力推动阜阳成为皖北振兴的排头兵、安徽高质量发展的又一增长极。要不断改善沿淮行蓄洪区群众生产生活条件，推动经济提质增效，深度融入长三角一体化，持续增进人民福祉，纵深推进全面从严治党，努力以实干实绩回报习近平总书记的谆谆教导和殷殷嘱托。', '会议强调，要把学习《习近平谈治国理政》第四卷与学习前三卷以及习近平总书记考察安徽及阜阳重要讲话指示精神结合起来，自觉主动学、及时跟进学、联系实际学、笃信笃行学。要深刻感悟习近平总书记大国领袖风范和思想伟力、高度历史自信和强烈责任担当、深厚为民情怀和坚定人民立场、顽强斗争精神和高超领导艺术、求真务实作风和实事求是导向，衷心拥护“两个确立”、忠诚践行“两个维护”，全力抓好工作落实、务求取得实效。各级党委（党组）要按照中央部署及省委要求，把学习第四卷作为一项重大政治任务，周密部署、精心实施，推动理论学习有力有序、研究阐释走深走实、宣讲宣传入脑入心、贯彻落实见行见效，切实把学习成果转化为推动各项工作的实际成效。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>103</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>政务资讯习近平在辽宁考察时强调在新时代东北振兴上展现更大担当和作为奋力开创辽宁</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62fef2fa886688f36d8b456c.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['习近平在辽宁考察时强调 在新时代东北振兴上展现更大担当和作为 奋力开创辽宁振兴发展新局面-阜阳市人民政府', '习近平在辽宁考察时强调 在新时代东北振兴上展现更大担当和作为 奋力开创辽宁振兴发展新局面', '新华社沈阳8月18日电 中共中央总书记、国家主席、中央军委主席习近平近日在辽宁考察时强调，要贯彻党中央决策部署，坚持稳中求进工作总基调，统筹疫情防控和经济社会发展工作，统筹发展和安全，完整、准确、全面贯彻新发展理念，坚定不移推动高质量发展，扎实推进共同富裕，加快推进治理体系和治理能力现代化，深入推进全面从严治党，在新时代东北振兴上展现更大担当和作为，奋力开创辽宁振兴发展新局面，以实际行动迎接党的二十大胜利召开。', '8月16日至17日，习近平在辽宁省委书记张国清、省长李乐成陪同下，先后来到锦州、沈阳等地，深入革命纪念馆、河湖治理工程、企业、社区等进行调研。', '16日下午，习近平在锦州市首先考察了辽沈战役纪念馆。70多年前，中国共产党指挥人民军队取得辽沈战役胜利。习近平依次参观序厅、战史馆、支前馆、英烈馆，回顾东北解放战争历史和辽沈战役胜利进程，追忆广大人民群众支援前线的感人事迹和革命先烈不畏牺牲的英雄事迹。习近平指出，辽沈战役的胜利，充分体现了毛泽东同志等老一辈革命家高超的战略眼光和战略谋划。解放战争时期我们党同国民党的大决战，既是兵力火力之战，更是民心向背之争。辽沈战役胜利是东北人民全力支援拼出来的，淮海战役胜利是老百姓用小车推出来的，渡江战役胜利是老百姓用小船划出来的。民心是最大的政治，决定事业兴衰成败。只要我们党始终保持同人民群众的血肉联系，始终与人民同呼吸、共命运、心连心，就能拥有战胜一切艰难险阻的强大力量。习近平强调，学习党史是每一位党员的义务。要推动党史学习教育常态化长效化，引导广大党员、干部把学习党史作为必修课和常修课。', '这是16日下午，习近平在锦州市考察辽沈战役纪念馆时，亲切会见老战士老同志和革命烈士亲属代表。新华社记者 鞠鹏 摄', '习近平亲切会见了老战士老同志和革命烈士亲属代表，向他们表示诚挚慰问。习近平指出，东北人民不仅为辽沈战役胜利和东北解放付出了巨大牺牲，也为新中国建设和抗美援朝战争胜利作出了巨大贡献，党和人民永远不会忘记。我们的红色江山是千千万万革命烈士用鲜血和生命换来的。江山就是人民，人民就是江山。我们决不允许江山变色，人民也绝不答应。吃水不忘挖井人。新中国成立70多年来，经过一代又一代人艰苦奋斗，我们的国家发生了翻天覆地的变化，人民过上了全面小康生活，中华民族屹立于世界民族之林。我们要继续向前走，努力实现中华民族伟大复兴，以告慰革命先辈和先烈。各级党委和政府要关心老战士老同志和革命烈士亲属，让老战士老同志享有幸福晚年，让烈士亲属体会到党的关怀和温暖。红色江山来之不易，守好江山责任重大。要讲好党的故事、革命的故事、英雄的故事，把红色基因传承下去，确保红色江山后继有人、代代相传。习近平祝愿老战士老同志健康长寿、生活幸福、事事如意！', '随后，习近平来到锦州东湖森林公园，考察当地加强生态环境修复情况。公园位于小凌河和女儿河交汇处北侧。2014年起，锦州市对两河进行环境综合整治，并沿河修建了10余公里绿化带，形成了滨河健身休闲带状公园。习近平察看小凌河沿岸生态环境。他强调，良好生态环境是东北地区经济社会发展的宝贵资源，也是振兴东北的一个优势。要把绿色发展理念贯穿到生态保护、环境建设、生产制造、城市发展、人民生活等各个方面，加快建设美丽中国。生态文明建设能够明显提升老百姓获得感，老百姓体会也最深刻。要坚持治山、治水、治城一体推进，科学合理规划城市的生产空间、生活空间、生态空间，多为老百姓建设休闲、健身、娱乐的公共场所。', '这是16日下午，习近平在锦州市东湖森林公园察看小凌河沿岸生态环境时，同正在休闲、进行文化活动的群众亲切交流。新华社记者 燕雁 摄', '习近平现场听取了辽宁省防汛工作汇报。今年北方雨水偏多，辽宁入汛以来出现多轮强降雨过程，导致农作物受损、群众财产损失。辽宁省委和省政府在中央有关部门支持下，全力做好各项救灾救助工作，及时转移受灾群众近20万人，保证受灾群众有饭吃、有衣穿、有干净水喝、有临时安全住处、有病能及时就医，保持了社会大局稳定。习近平十分关心受灾群众的救援安置情况。他指出，8月仍是北方地区防汛关键期。各级党委和政府要坚持人民至上、生命至上，加强汛情监测，及时排查风险隐患，抓细抓实各项防汛救灾措施，妥善安置受灾群众，确保人民群众生命安全。要做好灾后恢复重建规划，帮助受灾群众尽早恢复正常生产生活。要健全体制机制，完善应对预案，加强对极端天气的预警和防范，提高洪涝地质灾害防御和应急抢险救援能力。当前，一些地方遇到严重干旱，要切实做好抗旱工作。', '这是16日下午，习近平在锦州市考察小凌河和女儿河环境综合整治情况，听取辽宁省防汛工作情况汇报，并就做好防汛工作、提高灾害防御能力作出重要指示。 新华社记者 燕雁 摄', '东湖文化广场上，正在休闲、进行文化活动的群众看到总书记来了，纷纷向总书记问好。习近平亲切地对大家说，中国式现代化是全体人民共同富裕的现代化，不能只是少数人富裕，而是要全体人民共同富裕；中国式现代化是物质文明和精神文明相协调的现代化，要弘扬中华优秀传统文化，用好红色文化，发展社会主义先进文化，丰富人民精神文化生活。党中央高度重视东北振兴。党的十八大以来，党中央实施深入推进东北振兴战略，我们对新时代东北全面振兴充满信心、也充满期待。锦州是一座英雄的城市，也是一座具有独特文化气质和深厚历史文化底蕴的城市。看到这里经过整治，生态环境、人居环境发生了巨大变化，感到很欣慰。希望大家增强保护生态、爱护环境的意识，共同守护好自己的家园。祝愿乡亲们今后生活更幸福更美好！', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司展厅，察看辽宁先进科技产品集中展示。新华社记者 鞠鹏 摄', '习近平17日在沈阳市考察调研。当天下午，他来到沈阳新松机器人自动化股份有限公司。在企业展厅，习近平听取辽宁新时代东北振兴整体情况介绍，察看辽宁先进科技产品集中展示，并考察了新松公司生产经营、自主创新情况。企业生产车间内，工业机器人、协作机器人、特种机器人等正在进行测试。习近平向技术人员和企业职工询问企业开展核心技术攻关等情况，对企业自主创新和产业化发展取得的成绩予以肯定，表示新松公司体现了中国速度、中国水平。', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司展厅，了解公司生产经营、自主创新情况。新华社记者 鞠鹏 摄', '车间外，企业员工代表围拢在一起，习近平向大家挥手致意。习近平强调，党中央实施创新驱动发展战略，格外重视自主创新，格外重视创新环境建设，努力提升我国产业水平和实力，推动我国从经济大国向经济强国、制造强国转变。当前，经济全球化遭遇逆流，保护主义抬头，但我们要坚持敞开大门搞建设。我国发展既要扎扎实实、步步为营，又要开放包容、互利共赢，积极构建以国内大循环为主体、国内国际双循环相互促进的新发展格局。要坚持自力更生，把国家和民族发展放在自己力量的基点上，牢牢掌握发展主动权。全面建设社会主义现代化强国，实现第二个百年奋斗目标，必须走自主创新之路。要时不我待推进科技自立自强，只争朝夕突破“卡脖子”问题，努力把关键核心技术和装备制造业掌握在我们自己手里。青年人朝气蓬勃、充满活力，是企业发展希望所在。各级党委和政府要营造良好环境，充分激发青年人创新创造活力，鼓励他们在各领域勇于创新、勇攀高峰，为推动新时代东北振兴作出更大贡献。', '这是17日下午，习近平在沈阳新松机器人自动化股份有限公司生产车间考察。新华社记者 鞠鹏 摄', '习近平随后来到皇姑区三台子街道牡丹社区。该社区建于上世纪80年代，共有3000多户居民，近年来经过基础设施改造和服务改善，成为基层治理示范社区。习近平先后走进社区党群服务中心、群众活动中心和养老服务中心，向社区工作者、幸福教育课堂的师生和老年志愿者了解当地加强基层党建、改善人居环境、开展为民服务等情况。在老年餐厅，习近平向正在用餐的老人们询问饭菜价格贵不贵、社区服务好不好、生活上还有什么困难。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区养老服务中心，向老年志愿者了解社区开展为民服务情况。新华社记者 申宏 摄', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区群众活动中心，同幸福教育课堂的孩子们亲切交流。新华社记者 申宏 摄', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区老年餐厅，同正在用餐的老人们亲切交流。新华社记者 鞠鹏 摄', '习近平走进居民李水家中，察看厨房、卫生间、卧室等，之后在客厅落座并同一家人亲切交谈。大家告诉总书记，社区经过改造，冬天屋里暖和多了，道路积水的问题也解决了，环境好，心情也好。现在孩子上学有着落，老人看病有托底，邻里和睦就像一家人。看到他们日子和美兴旺，习近平十分欣慰。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区，同居民李水一家拉家常。新华社记者 鞠鹏 摄', '离开社区时，居民们热情欢送总书记。习近平对大家说，小康梦、强国梦、中国梦，归根到底是老百姓的“幸福梦”。中国共产党的一切奋斗都是为人民谋幸福。他指出，老旧小区改造是提升老百姓获得感的重要工作，也是实施城市更新行动的重要内容。要聚焦为民、便民、安民，尽可能改善人居环境，改造水、电、气等生活设施，更好满足居民日常生活需求，确保安全。要加强社区服务，提升服务功能。老人和小孩是社区最常住的居民，“一老一幼”是大多数家庭的主要关切。我国已经进入老龄化社会。要大力发展老龄事业和老龄产业，有条件的地方要加强养老设施建设，积极开展养老服务。未成年人健康成长事关国家和民族未来，事关千千万万家庭幸福安康。社区要积极开展各种公益性课外实践活动，促进未成年人身体健康、心理健康、心灵健康。要加强社区基层党组织建设，加强和改进社区工作，推动更多资源向社区倾斜，让老百姓体会到我们党是全心全意为人民服务的，党始终在人民群众身边。习近平祝愿大家在新时代东北全面振兴发展中生活一天比一天好。', '这是17日下午，习近平在沈阳市皇姑区三台子街道牡丹社区考察时，同社区居民群众亲切交流。新华社记者 鞠鹏 摄', '这是17日上午，习近平在沈阳亲切接见驻沈阳部队大校以上领导干部和团级单位主官，代表党中央和中央军委，向驻沈阳部队全体官兵致以诚挚问候，并同大家合影留念。新华社记者 李刚 摄', '8月17日上午，习近平在沈阳亲切接见驻沈阳部队大校以上领导干部和团级单位主官，代表党中央和中央军委，向驻沈阳部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>103</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>政务资讯省水利厅一级巡视员谢为群到颍上县调研考察定点帮扶工作</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62e9e94c88668811588b456e.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['8月1日，安徽省水利厅一级巡视员谢为群率厅机关有关处室负责人到颍上县垂岗乡墩黄村、新集镇韩庄村调研考察定点帮扶工作。颍上县副县长李汪苗、省水利厅政策法规处处长刘莉、厅政策法规处二级调研员丁先陪同调研。', '谢为群一行首先来到垂岗乡墩黄村草莓文化园，听取了驻村工作队工作汇报，实地调研草莓产业发展情况，对墩黄村以草莓种植为龙头带动产业发展的做法给予了肯定，并就今年草莓种植提出了宝贵建议。随后，谢为群来到新村部建设工地及颍河滩地苗木繁育基地，考察了新村部建设和村集体经济发展工作，并在村部举办了《民法典》书籍捐赠仪式。', '在新集镇韩庄村，谢为群来到脱贫户吴大壮家中，详细了解其家庭生活、生产情况，现场查看住房、饮水安全等基本保障情况；鼓励脱贫户要好好学习技术，掌握更好、更多的生产技能，在帮扶干部的帮助下，通过自己的劳动，进一步增加家庭收入，改善生活条件。随后，谢为群来到韩庄村水利帮扶产业园考察生产经营情况，要求进一步做好配套设施建设，提高生产保障力度。谢为群还到韩庄村党群服务中心看望慰问了村“两委”成员和工作人员，并详细询问便民服务有关工作开展情况，勉励工作人员进一步做好群众工作，努力为人民群众办更多的好事、实事。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>103</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022-08-15</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62f9a6b6886688aa438b456a.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['8月12日，市人大常委会党组书记、主任胡明莹主持召开党组理论学习中心组学习会议，市人大常委会党组成员黄琦、梁永勤、朱新参加，副主任陶颖列席。', '会议重温了习近平总书记2016年4月考察安徽重要讲话指示精神、2020年8月考察安徽及阜阳重要讲话指示精神，集中学习了习近平总书记关于全面推进乡村振兴的重要论述。', '胡明莹强调，要进一步深化对习近平总书记重要讲话精神的领会和把握，常学常新、常用常新，充分发挥职能作用，更好彰显人大担当；进一步在助力长三角一体化发展上谋划新举措，增强立法协同实效性、监督联动精准性、代表互动多样性，不断推动交流协作走深走实；进一步践行全过程人民民主，充分发挥常委会联系代表、代表联系群众的独特优势，倾听人民呼声，凝聚人民智慧，不断夯实依法履职的民意基础；进一步解放思想、知重负重、攻坚克难，围绕市委贯彻落实党中央大政方针的决策部署，创造性做好立法、监督、代表等工作，更好助力经济社会发展和改革攻坚任务。要学深悟透习近平总书记关于全面推进乡村振兴的重要论述，把理论学习成果转化为抓“三农”、谋发展、促振兴的强大思想武器和精神力量，综合运用执法检查、专题调研等方式依法监督推动农业高质高效、乡村宜居宜业、农民富裕富足。要按照市委要求，扎实做好领导干部联系乡村振兴联系点各项工作，每季度至少联系走访1次，助力定点帮扶村全面推进乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>103</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组召开理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022-07-19</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62d604aa886688a5418b456d.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['7月18日，市政协党组书记、主席李志伟主持召开市政协党组理论学习中心组学习（扩大）会议。市政协副主席顾恒中、黄珍、吴开义、王家仁、朱洪亮、张华久，秘书长郭景宏，党组成员房继红出席会议。', '会议传达学习了习近平总书记近期重要讲话、重要回信及中央重要文件精神；学习了《中共阜阳市委关于印发〈贯彻落实习近平总书记系列重要讲话指示批示和考察安徽及阜阳重要讲话指示工作实施方案&gt;的通知》，并结合学习内容进行了交流研讨。', '李志伟指出，要深入学习贯彻习近平总书记给太和县种粮大户徐淙祥的重要回信精神，围绕粮食安全，组织各类调研、协商等活动，切实在“研”上下功夫；灵活开展各类民主监督活动、持续跟踪问效，切实在“督”上求实效；发挥政协联系广泛的优势、引导委员深入基层一线，切实在“引”上见真章，助推粮食安全政策落实落地。要深入学习贯彻习近平总书记近期重要讲话精神，号召党员领导干部带头学习、带头研讨交流，做到以上率下、学有示范；持续拓展学习载体，坚持“线上+线下”两手抓、“请进来+走出去”两结合，做到创新形式、学有特色；善于从新思想新理论中找思路、找方法，做到以学促行、学有实效，推动党的创新理论入脑入心。', '李志伟强调，要深入学习贯彻中央重要文件精神，紧紧锚定人民政协政治协商的职能定位，围绕深化三次产业高质量发展、优化营商环境、乡村全面振兴、实施暖民心行动等重点工作扎实推进协商建言，广泛凝聚社会共识，促进政治协商工作提质增效，为建设现代化美好阜阳贡献智慧和力量。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>103</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>政务资讯我市组织菜篮子企业赴苏州考察对接</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62c25020886688d24d8b4567.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['6月30日至7月2日，阜阳市菜篮子工程推进中心组织颍泉区、界首市、太和县、阜南县等县市区菜篮子工作部门及部分企业，与苏州市农业农村局就蔬菜全产业链发展进行深度对接。', '市菜篮子中心充分抓住苏州帮扶阜阳战略机遇，围绕蔬菜育苗工厂、生产工厂、精深加工厂、预售前置仓、冷链物流、销售平台、供销联合体、人才培训方面，谋划8个产业项目对接苏州，为阜阳菜篮子企业构建苏阜合作平台。', '在苏州，市、县市区菜篮子工程推进部门与企业调研了苏州南环桥农副产品批发市场、布瑞克农业互联网股份有限公司、润汇农业发展公司、康博绿色高质量发展示范基地，对苏州市蔬菜需求、市场行情、企业现状进行深入了解，相关单位、企业就预售前置仓、供销联合体、蔬菜冷鲜贮运、农产品深加工、预制菜研发、人才培训5个项目达成合作框架协议。', '参加活动的企业家表示，对接学习开阔了眼界，找到我市菜篮子产品进入长三角市场的切入点，推动阜阳菜篮子产品顺利进入苏州市场。下一步，相关部门和企业将加快落实合作项目，力争把阜阳建设成为苏州市菜篮子工程的生产基地、供应基地、研发基地。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>103</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>政务资讯省委召开全省领导干部专题会议传达学习习近平总书记给种粮大户徐淙祥的重要</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62be4c8d886688cf708b457b.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['省委召开全省领导干部专题会议 传达学习习近平总书记给种粮大户徐淙祥的重要回信 多种粮种好粮为保障国家粮食安全作出安徽更大贡献-阜阳市人民政府', '省委召开全省领导干部专题会议 传达学习习近平总书记给种粮大户徐淙祥的重要回信 多种粮种好粮为保障国家粮食安全作出安徽更大贡献', '6月29日下午，省委召开全省领导干部专题会议，传达学习习近平总书记给我省太和县种粮大户徐淙祥的重要回信，安排部署贯彻落实工作。省委书记郑栅洁主持会议并传达习近平总书记的重要回信。省委副书记、省长王清宪，省政协主席唐良智，省委常委，省人大常委会、省政府、省政协有关负责同志出席，各省辖市委书记、市长，省委农村工作领导小组成员参加会议。', '郑栅洁在讲话中指出，习近平总书记的重要回信，向当地的乡亲们表示问候，对全国的种粮大户提出殷切期望，对抓好粮食安全作出重要指示，充分体现了习近平总书记对粮食安全的高度关注、对农民群众的深厚感情、对安徽工作的重视和对安徽“三农”工作的关心。习近平总书记的重要回信，不仅是写给徐淙祥个人的，也是写给全国种粮大户的；不仅是徐淙祥本人的无上荣光，也是对安徽人民的巨大鼓舞。我们要从衷心拥护“两个确立”、忠诚践行“两个维护”的高度，深刻领会习近平总书记重要回信的重大意义和丰富内涵，始终把粮食安全摆在“三农”工作头等大事的重要位置，坚决扛稳粮食安全责任，支持和引导种粮大户带动广大小农户多种粮种好粮，为保障国家粮食安全作出安徽的更大贡献。', '习近平总书记的重要回信，思想深刻、内涵丰富、要求明确。郑栅洁指出，要坚决落实好中央及我省支持粮食生产的政策举措，强化政策落地、强化分类指导、强化跟踪问效，督促各地把政策用足用好、吃干榨尽，切实发挥政策保障激励作用。要让种粮农民有钱挣得实惠，健全农民种粮收益保障机制，帮助种粮主体降本增效，促进粮食产业高质量发展，真正实现粮食增产农民增收，日子越过越好。要发挥规模经营优势，引导农民以多种形式流转土地承包经营权，深入实施机械强农行动；加快推进“小田变大田”，总结推广试点地区好经验好做法，加强分类指导，努力实现农田增量、农业增效、农民增收；加快建设高标准农田，通过新增建设和改造提升，显著改善农业生产条件，为保障粮食安全筑牢“压舱石”；加快培育新型农业经营主体，推动由数量增长向量质并举转变，更好发挥农民合作社、家庭农场、种粮大户规模经营主力军作用。要积极应用现代农业科技，推动科技强农具体行动方案精准落地，加快打造种业强省，发挥好科技特派员作用，加强基层农技推广体系建设，走好科技种粮新路子。要带动广大小农户多种粮种好粮，严格落实耕地保护各项制度，对新增违法违规行为“零容忍”，尽快将流失的耕地“找回来”，牢牢守住耕地数量、质量双红线；大力发展优质专用粮食生产，引导粮食生产经营专业化、标准化、集约化和绿色化，发挥种粮大户示范引领和辐射带动作用，把更多小农户引入现代农业发展轨道，一起为国家粮食安全贡献力量。', '学习宣传好、贯彻落实好习近平总书记重要回信精神，是全省各级党委政府和涉农部门的一项重要工作。郑栅洁强调，各地各有关部门要广泛组织传达学习，与学习贯彻习近平总书记考察安徽等重要讲话指示批示精神结合起来，与喜迎党的二十大结合起来，努力做到学懂弄通做实，确保习近平总书记重要回信精神在江淮大地落地生根，确保以习近平同志为核心的党中央决策部署在安徽开花结果，以实际行动和优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>103</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>政务资讯市人大常委会党组理论学习中心组举行集体学习</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/62abe2068866882d0f8b4567.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['6月16日，市人大常委会党组书记、主任胡明莹主持召开市人大常委会党组理论学习中心组学习会议。市人大常委会副主任王玉峰、金杰、陶颖，秘书长朱新参加学习。', '会议集中学习了习近平总书记在四川考察时的重要讲话精神、关于安全生产的重要论述和指示批示精神、致《大公报》创刊120周年的贺信和《论“三农”工作》部分篇章等内容。', '胡明莹要求，要深入学习领会习近平总书记在四川考察时的重要讲话精神，紧密结合人大实际，认真抓好贯彻落实，切实把衷心拥护“两个确立”、忠诚践行“两个维护”落实在具体行动和工作成效上。要进一步提高政治站位，深刻领会学习贯彻《论“三农”工作》的重要性，一体把握新时代党的“三农”理论的丰富内涵、核心要义和实践要求，强化对农业“两强一增”、农村人居环境整治、乡村治理等各项工作的监督，持之以恒推动巩固拓展脱贫攻坚成果同乡村振兴有效衔接，切实把学习成果转化为促进阜阳农业农村高质量发展的实际成效。要认真贯彻落实习近平总书记关于防范化解重大风险重要论述，以及省委、市委防范化解重大风险专题会议精神，牢固树立总体国家安全观，时刻绷紧安全发展的思想之弦，聚焦重点领域，深入调查研究，强化监督实效，把统筹安全与发展落实到人大履职行权的各个方面，在防范化解重大风险、保持经济社会发展大局和谐稳定中体现人大担当作为。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>103</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>政务资讯孙正东主持召开市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/626b4cce8866885a118b4568.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['4月28日，市委书记孙正东主持召开市委理论学习中心组学习会议，传达学习习近平总书记近期重要讲话精神；学习《宪法》（第四十一条）、《信访工作条例》等，就做好信访工作进行交流研讨。市委副书记、市长刘玉杰，市领导李志伟、李军、章绍伟、王波、陈兆国、白晓云、胡明文、吕国平、张俊杰、邵兵出席。', '会议指出，习近平总书记到中国人民大学考察并发表重要讲话，充分体现了对教育事业和青年工作的高度重视。我们要深入学习领会习近平总书记重要讲话精神，坚持和加强党对高校的全面领导，推动高校党建与高等教育事业发展深度融合；要发挥好思政课立德树人作用，努力培养高素质教师队伍，加强爱国主义教育，帮助青年学生练就过硬本领，勇当时代先锋，为建设现代化美好阜阳贡献力量。', '会议要求，要深入学习贯彻习近平总书记在中央财经委员会第十一次会议上的重要讲话精神，严格对标对表，不折不扣把中央的决策部署落到实处。要坚持立足长远、适度超前、多轮驱动、注重效益，加强信息、科技、物流等产业升级基础设施建设，加强交通、能源、水利等网络型基础设施和城市、农业农村、国家安全等领域基础设施建设，持续扩大基础设施项目投资。要健全基础设施建设协调机制，强化要素保障，推动基础设施项目快落地快建设快见效。要发挥好市委财经委对全市经济领域重大工作的系统谋划、统筹协调、整体推进作用，加强督促检查和评估督导，提高贯彻落实成效。', '会议强调，要深入学习贯彻习近平总书记关于加强和改进人民信访工作的重要思想，全面理解《信访工作条例》的主要内容和核心要义，迅速掀起学习宣传贯彻热潮。要增强宪法观念，维护公民的基本权利和义务，坚决保障人民群众根本利益。要按照“三到位一处理”要求，大力化解信访积案，抓好初信初访和网上信访，抓好公开接访和领导批示件办理等，依法规范信访秩序。要拧紧责任链条，压紧压实各级党委政府属地责任、党政主要负责同志领导责任、各级信联办统筹协调责任、相关部门主体责任等，全力维护社会大局和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>103</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组召开理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022-04-28</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6269ed14886688b9668b4567.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['4月27日，市政协党组书记、主席李志伟主持召开市政协党组理论学习中心组学习（扩大）会议，副主席顾恒中、黄珍、王家仁、朱洪亮、张华久、于伟，秘书长郭景宏出席会议。', '会议传达学习了习近平总书记在中央全面深化改革委员会第二十五次会议上、在海南考察时、在北京冬奥会冬残奥会总结表彰大会上的重要讲话精神；学习了“两个确立”的决定性意义和习近平总书记关于党的百年奋斗重大成就和历史经验重要论述；与会同志进行了交流研讨。', '李志伟指出，习近平总书记近期重要讲话和关于党的百年奋斗重大成就和历史经验重要论述站位高远、思想深邃，逻辑严密、博大精深，是我们做好各项工作的强大思想武器和科学行动指南。大家要深入学起来，努力学出忠诚信仰、学出能力本领、学出责任担当，不断提高政治判断力、政治领悟力、政治执行力，真正把学习成果转化为推动工作的强大合力；要迅速动起来，切实在行动上加快节奏、在互动上彰显活力、在联动上注重实效，有力有效有序推进年度重点民主协商活动、民主监督小组、书香政协建设、委员工作室全覆盖、社情民意信息点试点等重点工作和创新工作高质量开展；要全面抓起来，切实以比本领、比服务、比实绩“三比”活动为契机，在重规范、优服务、抓协调中进一步提升机关效能，更好把作风之实和履职之能结合起来，不断推动政协各项工作提质增效，为现代化美好阜阳建设作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>103</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>政务资讯孙正东主持召开市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/625f621088668840128b457a.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['4月19日，市委书记孙正东主持召开市委理论学习中心组学习会议，传达学习3月31日中共中央政治局常务委员会会议精神和习近平总书记在海南考察时、在参加首都义务植树活动时、在北京冬奥会冬残奥会总结表彰大会上的重要讲话精神，研究我市贯彻落实措施。市委副书记、市长刘玉杰，市领导胡明莹、李志伟、章绍伟、王波、陈兆国、白晓云、吕国平、张俊杰、邵兵等出席会议。', '会议指出，安全生产是民生大事，必须警钟长鸣、常抓不懈。要深入学习贯彻习近平总书记关于安全生产重要论述，深刻汲取“3·21”东航MU5735航空器飞行事故教训，统筹发展与安全，牢牢守住安全生产底线，强化安全生产源头治理，全面开展安全生产专项大检查，压紧压实安全生产责任，严格落实安全隐患“一单四制”闭环管理，全力维护社会大局和谐稳定。', '会议强调，习近平总书记重要讲话具有极强的思想性、针对性、指导性。我们要深入学习、认真领会，更好统筹疫情防控和经济社会发展，进一步完整准确全面贯彻新发展理念，服务和融入新发展格局，毫不放松抓好疫情防控工作，加快构建现代产业体系，着力推动乡村全面振兴，牢固树立“两山”理念，巩固拓展党史学习教育成果，坚定不移推动高质量发展，奋力谱写现代化美好阜阳新篇章。', '会议要求，要深入学习贯彻习近平生态文明思想，坚定不移走生态优先、绿色发展之路，科学开展国土绿化，大力推进林长制改革示范区先行区建设，认真落实林长制、河长制等制度，积极创建省级绿色生态示范市，努力打造生态文明建设阜阳样板。要认真学习贯彻习近平总书记在北京冬奥会冬残奥会总结表彰大会上的重要讲话精神，进一步锤炼拼搏进取的精神状态和攻坚克难的工作作风，大力弘扬冬奥精神、发展体育事业、抓好扶残助残，积极打造体育强市。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>103</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>政务资讯界首市党政代表团到颍上县考察工业经济发展和文化旅游工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/61e7b3018866880d3f8b456b.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['1月18日，界首市委副书记、市长丁思彬率领界首市党政代表团到颍上县考察工业经济发展和文化旅游工作。', '考察期间，界首市党政代表团在颍上县委书记张银军的陪同下，先后实地考察了盛鸿钢构绿色装配式建筑产业园项目、安徽塞拉弗光伏组件及电池片生产项目、牧原集团颍上产业化项目、安徽燕龙基新增日产12000吨太阳能光伏组件高透玻璃生产线项目以及管仲老街、尤家花园，认真听取企业转型升级、新材料新工艺运用成功经验介绍，深入了解企业生产发展、产品销售、经济效益以及颍上县文化旅游产业发展情况。', '考察中，张银军向界首市党政代表团介绍了颍上县情以及近年来工业经济、文化旅游产业发展情况。张银军指出，近年来，界首市工业经济发展工作亮点纷呈、可圈可点。颍上县要紧密结合县情实际，积极学习借鉴界首市抓工业经济发展的卓越工作方法、先进管理模式和行之有效的工作措施，认真反思当前颍上县工业经济发展过程中存在的问题，及时补差补缺，更好推动颍上工业经济、文化旅游产业实现更好更快发展。张银军表示，下一步，希望颍上、界首两地加强交流与合作，共同谱写经济社会持续快速健康发展大文章。', '丁思彬指出，颍上县地理位置优越，历史悠久、资源丰富、交通便利，工业经济发展、招商引资成就显著，文化旅游产业发展走在全市前列，在发展过程中积累的好经验值得界首市学习借鉴。丁思彬表示，回去后，界首市将认真总结考察中的所见所闻，把颍上开展招商引资、发展工业经济、做强文化旅游产业的好做法结合界首实际进行消化吸收，同时希望界首、颍上两地今后进一步加强交流学习，加快产业转型升级，持续深入开展产业项目建设年活动，助力两地经济高质量发展。', '界首市人大常委会主任李子刚，界首市政协主席应鹏飞等参加考察。颍上县人大常委会主任胡伟，县委副书记、县政协主席刘铭，县委常委、常务副县长虢磊等陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>103</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>政务资讯孙正东在临港集团考察时看望慰问我市首批赴临港集团跟班学习干部</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2021-11-11</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/618c68a78866881b4f8b456a.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['11月10日，市委书记孙正东在上海临港集团考察时看望慰问我市首批赴临港集团跟班学习干部。市委常委、常务副市长胡明文参加。', '为深入推进“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动，定向精准培养干部，我市同上海临港集团积极对接，首批选派了徐云飞等10名干部赴临港集团跟班学习。', '孙正东代表市委市政府向跟班学习干部表示慰问。他要求，大家要以此次跟班学习为契机，坚持边学、边思、边干，在跟班学习中磨砺成长，争做敬业型、学习型、创新型、清正型、绩效型“五型”干部。要转变理念，树牢争先的激情、开放的胸怀、创新的精神、改革的闯劲、学习的习惯、实干的作风，深层次推进思想解放、作风转变。要转换机制，学习沪苏浙等地区的先进经验，探索本地、本部门和本岗位工作机制创新。要转移项目，宣传推介阜阳发展基础和优势，积极开展“双招双引”工作。要总结提升，探索常态化跟班学习制度，不断提高实效，做到学有所思、学有所成、学有所用。', '徐云飞等跟班学习干部一致表示，通过此次跟班学习，拓展了视野、解放了思想、提升了能力，将更加深入学习临港集团及上海有关部门的先进理念、机制，加强项目对接，并把学习到的新理念、好方法运用到今后工作中，为阜阳在高质量发展中加快追赶跨越贡献更大力量。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>103</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>政务资讯刘玉杰率队赴宿迁考察结对合作帮扶工作</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2021-12-21</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/61c148dd88668861168b4567.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['12月20日，市委副书记、市长刘玉杰率队赴江苏省宿迁市考察苏州、宿迁两市挂钩合作情况。宿迁市委副书记、市长陈忠伟，副市长曹秀明陪同或出席座谈会。市委常委、常务副市长胡明文，市政府秘书长朱新参加。', '2001年，江苏省委、省政府实施区域共同发展战略，决定由苏州市与宿迁市挂钩合作。20年来，两市按照“政府推动、市场运作、优势互补、共同发展”原则，在园区合作共建、干部挂职交流、社会事业发展等方面积极合作，取得了显著成效。', '在宿期间，刘玉杰一行先后来到苏宿工业园、张家港宿豫工业园，实地考察长电科技、可成科技、尼吉康电子、骏马化纤、百威啤酒、京东物流等企业，详细了解产品研发、企业经营、产业转移等情况。在随后召开的座谈会上，宿迁市政府负责同志介绍了苏宿结对合作经验，双方围绕苏州、宿迁两市创新推进园区共建、招商引资、干部队伍建设等方面进行了交流。', '刘玉杰指出，根据习近平总书记关于推动长三角一体化发展重要讲话指示批示精神，中央决定苏州结对合作帮扶阜阳，这对阜阳来说既是发展机遇也是政治责任。此次宿迁之行，深切感受到苏宿两市南北挂钩合作的显著成效，尤其是两地创新挂钩机制、共建合作园区、发挥市场作用等方面的好经验、好做法，非常值得学习借鉴，有利于推动苏州、阜阳结对合作帮扶取得扎实成效。', '刘玉杰说，阜阳与宿迁同属淮河生态经济带，地缘相近、人缘相亲、文化相通，在经济社会发展各领域合作空间广阔，希望两市在“四化同步”发展、园区改革创新、“双招双引”等方面加强交流合作，努力形成协作共赢发展格局。', '曹秀明表示，阜阳发展势头良好，政策叠加优势凸显，未来前景广阔。期待两地进一步加强沟通交流、相帮相扶、共促共进，共同推动两地经济社会发展迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>103</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>政务资讯孙正东赴爱谱华顿和复旦大学临港集团考察对接</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2021-11-11</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/618c68a78866881b4f8b456b.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['11月8日至10日，市委书记孙正东率队到上海考察对接爱谱华顿、复旦大学、临港集团等企业和单位，开展“双招双引”。市委常委、常务副市长胡明文参加。', '爱谱华顿是国内规模较大的弱电系统传输产品研制企业。8日上午，孙正东与企业总裁华建刚座谈，并见证了颍泉区与企业相关合作项目签约。孙正东说，爱谱华顿综合实力强、产品技术优、市场竞争力大，与我市电子信息及光电显示、数字经济产业匹配度高。希望双方进一步深化在先进制造基地和数字小镇建设、工业互联网应用、乡村振兴等方面的合作。', '复旦大学是世界知名、国内顶尖的综合性研究型大学，同我市在科技协同创新、成果转化、产业孵化等方面已有合作。9日上午，孙正东同校长金力、副校长徐雷等交流。孙正东说，复旦大学创新资源丰富、科技成果丰硕，与地方相关产业需求高度吻合。希望双方在深化与阜合园区现有的学校搭平台、公司搞运作、建双向基地等合作基础上，向阜阳全市域合作拓展，推进复旦大学同阜阳企业、阜师大及相关行业对接，促进更多科技成果在阜转化落地。', '临港集团以园区开发、配套服务和相关产业投资为主业，下属开发园区已汇聚万余家企业。10日上午，孙正东与集团董事长袁国华、副董事长刘伟洽谈。孙正东说，临港集团在产业和“管委会+平台公司”运营模式等方面特色明显，与我市新能源和节能环保、新材料、装备制造和新能源汽车等产业及开发园区管理契合。希望双方进一步细化合作实施方案，加快跟班学习、园区合作、加入长三角开发区协同发展联盟等多领域合作事项落地。', '考察中，孙正东要求，市政府要组织颍州、颍泉、阜合园区及市科技、数据资源管理、商务、招商等部门成立相应专班，开放应用场景，做好基金引导，提供精准服务，清单化闭环式推进有关合作。', '在沪期间，孙正东还参观了第四届中国国际进口博览会部分展区，参加了2021年国际碳中和与绿色投资大会并发言，考察了青浦区有关离岸科创中心等项目。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>103</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>信息公开阜阳银保监分局开展重走习近平总书记考察阜阳之路主题党日活动</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2021-11-02</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/6184ee3788668894728b456b.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['更好地学习领会习近平总书记重要讲话精神，10月28日，阜阳银保监分局党员与入党积极分子赴阜南县开展“牢记习近平总书记嘱托，勇担新时代使命—重走总书记考察阜阳之路”主题党日活动。分局党员干部参观了西田坡庄台、阜南县红亮箱包有限公司、王家坝抗洪纪念馆等地，进一步加深了对习近平总书记“以人民为中心”理念的理解，纷纷表示要把思想和行动统一到习近平总书记的重要讲话精神上来，不忘初心，牢记使命，勇于担当作为，为银行保险监管事业发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>103</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>政务资讯市发展改革委带队赴台州市苏州市开展考察对接活动</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021-09-16</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/61430077886688e2158b4567.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['为认真贯彻落实市委、市政府赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会精神，市发展改革委党组成员、驻委纪检监察组组长李晔良带队于9月13日至14日赴苏州市、台州市开展考察对接活动，阜阳经开区、阜合现代产业园区管委会负责同志参加。', '9月13日，考察组一行在台州市考察了吉利汽车台州发动机制造基地、台州湾新区规划馆，台州市发展改革委副主任胡坚、驻委纪检组组长李红顺、地区处处长陈慧斌陪同考察。双方围绕长三角中心区深层合作、承接产业转移、扩大对外开放、纪检监察等工作开展了深入沟通，同时按照阜阳市委、市政府谋划建立战略合作关系进行仔细探讨，希望两地加强结对共建，在优化营商环境、园区建设、产业发展、“双招双引”等方面全方位建立战略合作，充分利用好台州市民营经济重要发源地、长三角重要先进制造业基地等优势，实现互惠共赢。', '9月14日，考察组一行在苏州工业园召开专题座谈会，苏州工业园投资发展局副局长赵启亮主持会议，副局长周文清参加。双方围绕加快园区建设，谋划与苏州工业园区开展合作进行交流，详细了解苏州工业园发展历程、产业布局和园区治理等情况，希望与苏州工业园加强在技能人才培育、承接产业转移、开发园区共建等方面的广泛合作。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>103</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>政务资讯孙正东主持召开市委理论中心组第十二次学习会议暨市委党史学习教育领导小组</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2021-09-14</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/61400bc5886688e9778b4567.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['孙正东主持召开市委理论中心组第十二次学习会议暨市委党史学习教育领导小组会议-阜阳市人民政府', '9月13日，市委书记孙正东主持召开市委理论中心组第十二次学习会议暨市委党史学习教育领导小组会议，传达学习习近平总书记在中共中央政治局会议上、中央党校中青年干部培训班开班式上的重要讲话精神，围绕“学史力行”主题，结合“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论集中调研课题，部分市委理论中心组成员联系分管领域和工作实际开展研讨。市委副书记、市长刘玉杰，市领导胡明莹、李志伟、章绍伟、王波、白晓云、胡明文、吕国平等出席。', '会议要求，要深入学习贯彻习近平总书记重要讲话精神，领会精神实质，站稳立场、把握观点、学会方法，结合阜阳实际，认真抓好我市高校全面从严治党、高等教育内涵式高质量发展、年轻干部培养使用等工作。', '会议强调，要认真学习贯彻习近平总书记关于党史学习教育重要讲话精神，特别是在西藏考察时关于“学史力行是党史学习教育的落脚点”重要论述，按照党史学习教育中央第三指导组来阜阳开展指导时的要求，一如既往、善始善终地抓好党史学习教育，切实推动我市党史学习教育取得更大成效。要在锤炼党性上力行，通过深化理论武装、加强政治历练、严格修身律己锤炼党性，始终做到信仰坚定、对党忠诚。要在为民服务上力行，坚持好群众立场，依靠好群众力量，解决好群众难题，始终做到践行初心、履职为民。要在推动发展上力行，坚持“敢想、会谋、干成”的工作逻辑和“务实、规范、创新、精准、高效”的工作作风，把握好战略环境、战略目标、战略路径、战略任务，始终做到求真务实、担当作为。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>103</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>政务资讯党史学习教育中央第三指导组来阜开展指导工作</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2021-09-09</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/61396ddf88668847448b4567.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['9月7日至8日，党史学习教育中央第三指导组组长沙海林率队来阜开展指导工作。省委常委、宣传部长陶明伦，省委宣传部副部长李兵，省委党史学习教育第六巡回指导组组长黄玉明，市委书记孙正东，市领导李军、章绍伟、王波、白晓云、吕国平参加座谈或陪同调研。', '党史学习教育开展以来，我市高度重视，突出抓好组织学习、重点群体、精神传承、为民解忧、从严从实、知行合一，切实做到集中学习和潜心自学相结合、抓重点和全覆盖相结合、宣传教育和喜迎百年华诞相结合、办实事和解难题相结合、抓指导和传压力相结合、效果导向和实践转化相结合。', '沙海林指出，阜阳市认真学习贯彻习近平总书记关于党史学习教育重要讲话精神，精心制定方案并严格落实，认识到位、领导到位、组织到位、工作到位，形式多样，成效明显，党史学习教育动员广泛深入、参与面广。下一步，要在学习上注意连续性、阶段性与递进性相结合，注重把学党史、悟思想、办实事、开新局融会贯通，整体推进；要注重点线面结合，通过抓好关键少数、重点群体等，带动绝大多数群众感党恩、听党话、跟党走；要在办实事上下功夫，把学史力行作为重要出发点和落脚点，在检验成果上积极探索，对好的做法固化形成制度，既要为群众办好现实的实事好事，又要办好关系长远发展的实事好事。', '陶明伦要求，要深化学思践悟，牢记殷殷嘱托，抓好习近平总书记“七一”重要讲话精神和考察安徽重要讲话指示精神的学习贯彻落实。要发扬光荣传统，进一步开展党性教育，传承革命基因。要践行好党的宗旨，进一步在为群众办实事中求实效。', '孙正东表示，阜阳将以这次中央巡回指导为契机，按照中央部署及省委要求，认真开展“回头看”，持续深化学习，高标准高质量推进党史学习教育。要办好为民实事，强化制度建设，加快发展步伐，把党史学习教育成果转化为推动高质量发展的思路举措、全面从严治党的政治自觉。', '在阜期间，指导组一行深入颍州区万达社区、阜南县王家坝镇、市财政局、阜阳幼儿师范高等专科学校等地实地调研，审阅台账资料、听取情况汇报、访谈党员干部群众等，详细了解我市基层、非公企业、市直机关及青少年党史学习教育开展情况。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>103</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>信息公开市经济和信息化局召开对标沪苏浙学习合芜滁加速一体化解放思想大讨</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2021-09-13</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/613ea9f3886688f53a8b4570.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['市经济和信息化局召开“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论集中研讨-阜阳市人民政府', '按照“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动安排，8月26日下午，市经济和信息化局组织召开解放思想大讨论集中研讨会，会议由局党组书记、局长韩烁主持。', '会议深入学习了《阜阳市党政考察团赴长三角中心区学习考察报告》等文件。局党组成员、市纪委监委派驻纪检组长刘小平，党组成员、总工程师刘辉，二级调研员蒋杰等局领导干部根据近期针对性的学习和深入调研情况，围绕对标先进经验做法、查找短板差距、找出制约因素、谋划下一步工作等方面分别发言。', '韩烁强调，全局党员干部要深刻理解开展解放思想大讨论的现实意义，在“两个一百年”奋斗目标的历史交汇点、“十四五”开局之年这个重要时期、关键节点上，开展解放思想大讨论意义重大，进一步在全市范围内统一对标先进、谋划未来、鼓舞士气、坚定信心、奋起直追的思想，为持续推动全市经济发展打下坚实的思想基础；要深刻认识到我市经济社会发展上存在的差距，看到思想上、机制上、创新上、环境上、作风上等方面的短板和不足，进一步增强责任感、紧迫感；要坚持解放思想不动摇，进一步理清发展思路，坚持以开放引领发展，坚持工业强市战略不动摇，在机关建设、作风建设上发挥示范带头作用，在落实好“三地一区”和融入新发展格局的“五个定位”中贡献经信力量。', '会议还对深入持续开展解放思想大讨论集中研讨作了安排部署。局领导班子成员、县处级干部、各科室负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>103</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>政务资讯阜阳市第四届举旗帜送理论党史学习教育微宣讲决赛举行</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/612c4e5d886688790e8b4578.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['8月29日，阜阳市第四届“举旗帜·送理论”党史学习教育微宣讲决赛举行，市委常委、宣传部长白晓云出席并为获奖选手颁奖。', '比赛现场，来自全市各地的24名优秀选手经过层层选拔参加角逐，他们结合自身工作实际，从多样的角度，围绕中国共产党百年奋斗的光辉历程，以《觉醒年代的一束光》《百年大党的红色基因密码》等为题，用生动的语言，宣讲感人事迹，感悟发展成就，展示了良好风采。经过一天的激烈角逐，来自颍泉区乡村振兴局的高梨获得一等奖，颍州区委党校田苗苗、界首市委党校讲师高晓宁、颍东区人民法院周梅获得二等奖。', '据悉，此次微宣讲竞赛活动是在全市上下深入学习习近平新时代中国特色社会主义思想，学习习近平总书记“七一”重要讲话及考察安徽重要讲话精神，扎实推进党史学习教育之际举行的，旨在进一步深入宣讲习近平总书记关于党的历史的重要论述，宣讲中国共产党百年奋斗的光辉历程，宣讲革命先烈、英雄模范、时代楷模的感人事迹，宣讲在中国共产党的领导下百年来颍淮大地发生的沧桑巨变、取得的辉煌成就。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>103</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>政务资讯市经济和信息化局召开对标沪苏浙学习合芜滁加速一体化解放思想大讨</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021-08-27</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6128a9a088668826088b4570.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['市经济和信息化局召开“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论集中研讨会-阜阳市人民政府', '市经济和信息化局召开“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论集中研讨会', '按照“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动安排，8月26日下午，市经济和信息化局组织召开解放思想大讨论集中研讨会，会议由局党组书记、局长韩烁主持。', '会议深入学习了《阜阳市党政考察团赴长三角中心区学习考察报告》等文件。局党组成员、市纪委监委派驻纪检组长刘小平，党组成员、总工程师刘辉，二级调研员蒋杰等局领导干部根据近期针对性的学习和深入调研情况，围绕对标先进经验做法、查找短板差距、找出制约因素、谋划下一步工作等方面分别发言。', '韩烁强调，全局党员干部要深刻理解开展解放思想大讨论的现实意义，在“两个一百年”奋斗目标的历史交汇点、“十四五”开局之年这个重要时期、关键节点上，开展解放思想大讨论意义重大，进一步在全市范围内统一对标先进、谋划未来、鼓舞士气、坚定信心、奋起直追的思想，为持续推动全市经济发展打下坚实的思想基础；要深刻认识到我市经济社会发展上存在的差距，看到思想上、机制上、创新上、环境上、作风上等方面的短板和不足，进一步增强责任感、紧迫感；要坚持解放思想不动摇，进一步理清发展思路，坚持以开放引领发展，坚持工业强市战略不动摇，在机关建设、作风建设上发挥示范带头作用，在落实好“三地一区”和融入新发展格局的“五个定位”中贡献经信力量。', '会议还对深入持续开展解放思想大讨论集中研讨作了安排部署。局领导班子成员、县处级干部、各科室负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>103</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>政务资讯市应急局召开对标沪苏浙学习合芜滁加速一体化解放思想大讨论活动动</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2021-08-24</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/61249a0b88668846218b4569.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['市应急局召开“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动动员会-阜阳市人民政府', '8月23日，市应急管理局召开“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动动员会。局党委书记、局长胡天立主持会议并作动员讲话，机关全体人员和二级机构副科级以上干部参加了会议。', '会议集中学习了市委书记孙正东在全市赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会会议上的讲话精神，学习了市委办公室印发的《阜阳市“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案》，解读了《市应急管理局“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案》。', '会议指出，要提高政治站位，充分认识开展解放思想大讨论的意义。开展解放思想大讨论，对于当前和今后一个时期的阜阳具有深远的现实意义和历史意义，没有思想上的大破冰，难有行动上的大突围、高质量发展上的大突破。应急管理系统要深入学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神，全面贯彻落实习近平总书记关于长三角一体化发展的重要论述和考察安徽重要讲话指示精神，落实省委十届十三次全会和市委五届十五次全会精神，引导全局广大党员干部进一步解放思想、更新观念、勇于创新。', '会议强调，要把握工作重点，认真开展好解放思想大讨论各项活动。要明确总体要求，坚持“六个聚焦”，开展“十项活动”，明确“四项措施”。', '会议要求，要强化统筹结合，确保解放思想大讨论取得切实成效。一是与当前应急管理重点工作统筹结合，主动发挥应急管理职能, 以昂扬奋进姿态，积极开展好全市安全生产隐患“大起底、大排查、大整改”专项行动，充分发挥市安委会办公室的作用，综合协调各方开展隐患整改“回头看”，做到彻底消除隐患、防止反弹。持续紧抓当前应急管理工作重点任务，严格对表抓好“我为群众办实事”清单落实，助推乡村振兴和“两化一推”工作。二是与推进应急管理体系建设统筹结合，集中开展调查研究，借全市开展解放思想大讨论活动的东风，加快推进应急管理体系和能力现代化建设，解决当前我市安全生产和应急管理急需解决的问题。三是推进解放思想大讨论活动成果转化，具体做到“三个转化”，把开展解放思想大讨论活动成果转化为履行应急管理职能，科学应对自然灾害，防范遏制安全事故的具体行动，转化为深化改革发展、推进应急管理现代化的实际成效，转化为勇于自我革命、建设应急铁军的有力举措，为奋力推进我市经济社会高质量发展提供安全稳定的环境。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>103</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>政务资讯市委党史学习教育领导小组办公室举行第五次全体会议</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2021-08-23</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6122e9328866886d328b4573.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['8月20日下午，市委党史学习教育领导小组办公室举行第五次全体会议，深入学习贯彻习近平总书记“七一”和考察西藏重要讲话精神，认真落实省市委要求，对下一步工作进行研究安排推动。市委常委、宣传部长、市委党史学习教育领导小组副组长白晓云出席会议并讲话。各专项组组长进行了工作交流。', '会议指出，党史学习教育开展以来，市委高站位谋划、高标准实施、高质量推进，各项学习教育工作全面展开、创新展开、有序展开，在政治上、精神上、作风上、实践上取得了阶段性成效。', '会议强调，要突出首要任务，深入学习宣传习近平总书记“七一”和考察安徽重要讲话精神，持续深化学习研讨、宣讲普及、宣传阐释。要突出学史力行，扎实开展好“我为群众办实事”实践活动，加快把老百姓一直愁盼的老地方、老问题、老解决不了的疑难杂症解决好。要突出思想教育，全面推进好以党史为重点的“四史”宣传教育，见英雄、见事迹、见精神，厚植党员干部群众爱党爱国爱家乡的情感。要突出务实戒虚，强化分类精准指导，创新宣传报道方式，大力选树推广先进典型，防范和制止借党史学习教育之名搞商业化庸俗化行为，推动党史学习教育走深走实走心。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>103</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>政务资讯阜南县学习先进补短板推进高质量发展</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2021-08-19</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/611dce5d8866880f748b4569.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['长三角中心区放眼全球的视野、对标顶端的决心、专注务实的精神，给阜南县委副书记、县长李云川留下了深刻印象。市党政代表团赴长三角中心区学习考察结束后，李云川表示，这既是一次开阔眼界、转变观念之行，也是一次学习经验、增长本领之行，更是一次坚定信心、鼓足干劲之行。', '“对标先进地区，我们主要存在创新不足、能力不强、执行不力等方面的问题。”李云川说，下一步，要充分吸收这次学习考察成果，认真借鉴先进地区经验做法，切实把学习考察成果转化为贯彻落实习近平总书记考察安徽和在扎实推进长三角一体化发展座谈会重要讲话精神的具体行动，加快推进阜南经济社会高质量发展。', '聚焦提升创新能力，阜南县把“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动作为思想解放的重要抓手，面对新形势、探索新路子、谋求新发展，切实以思想解放、观念更新推动高质量发展。', '当前，阜南县正积极对接长三角科技创新资源，并鼓励企业加强与高校、科研机构合作，建设一批产学研用合作平台，吸引长三角高校、科研院所、企业在阜南县建立成果转移中心或研发、成果转化基地。同时，积极探索科技创新合作模式，争取与沪苏浙合作设立“创新飞地”，探索建立研发在外、落地在阜南县的合作模式。', '聚焦提升专业能力，阜南县通过选派干部到沪苏浙挂职锻炼、举办培训班、开设专题讲座等，促使各级干部不断开阔视野、增长见识，加强学习共享经济、数字经济、工业互联网等新理论、新方向、新业态，提升专业素养，加快知识更新。同时，进一步提升各级干部的决策能力，引导他们站在战略和全局高度登高望远，抢抓战略机遇，变被动落实为主动决策，拿出突围的“制胜绝招”。', '当前，阜南县正以“两化一推”为抓手，推出学习借鉴台州“妈妈式”亲情服务和“码”上服务等一系列举措，深入践行“六零服务”和“亲人式服务”，着力帮助企业解决生产经营中的困难和问题。', '聚焦提升执行能力，阜南县要求各级领导干部践行“四下基层”，主动到一线去发现问题、解决问题，努力把各项工作做好。当前，阜南县正严格落实“四督四保”重点项目调度机制，坚持完善产业项目快速推进调度机制，加快推动阜南新农业科技产业园、行蓄洪区建设、洼地治理等一批“十四五”时期长三角一体化发展重点项目。', '“学习借鉴先发地区的先进理念、鲜活经验，既要看到差距、短板和弱势，更要看到信心、希望与光明。”李云川说，下一步，阜南县将以此次学习考察为动力，按照市委市政府工作部署，进一步突出抓好能力提升、项目建设、“双招双引”、开放合作和营商环境，对标沪苏浙、学习合芜滁、加速一体化、争当排头兵，在鼎故革新中推进经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>103</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>信息公开政策文件库其他解读阜阳市粮食和物资储备局对标沪苏浙学习合芜滁加速一体化</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/policyContent/detail/21/61aecd0488668895618b456a.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['【其他解读】阜阳市粮食和物资储备局“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案-政策文件库-阜阳市人民政府', '【其他解读】阜阳市粮食和物资储备局“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案', '习近平总书记关于长三角一体化发展的重要论述和考察安徽重要讲话指示精神，以及省、市党政代表团赴沪苏浙学习考察总结交流会精神，', '广大党员干部进一步解放思想、更新观念、勇于创新，努力与沪苏浙及省内合芜滁等先进地区在理念、机制、项目等方面实现有效对接，着力实施高质量、可持续支撑的追赶型发展战略，加快推进长三角一体化发展', '进一步扫除思想障碍、优化思路方法、强化担当作为，着力以思想先变促进观念转变、实现行为改变。为阜阳勇当皖北经济高质量发展上台阶的排头兵、学习', '“学习合芜滁”赶先进的排头兵、全国百强再进位的排头兵争做新贡献。制定本活动方案对全市粮食和物资储备系统具有重要意义。', '8月13日，市粮食和物资储备局组织学习阜阳市“解放思想大讨论”活动方案；8月18日，制定本单位“解放思想大讨论”活动方案。', '进一步扫除思想障碍、优化思路方法、强化担当作为，着力以思想先变促进观念转变、实现行为改变，引导全市粮食和物资储备系统工作人员进一步解放思想、更新观念、勇于创新。', '保持永不满足的争先激情，拓宽海纳百川的开放胸怀，砥砺永无止境的创新精神，增强勇立潮头的改革闯劲，养成孜孜以求的学习习惯，弘扬真抓实干的工作作风。', '1.组织举办签约仪式。6月下旬，组织阜阳市5个县市与南京市5个区签订优质粮食产销合作协议，召开粮食企业座谈会，部署阜阳市粮食企业与南京市粮食企业进行战略合作，加大招商引资力度。', '2.组织开展“两化一推”系列政策文件宣传解读活动。对近年来中央及省、市出台的关于优化营商环境、强化“双招双引”、推进民营经济高质量发展的重要政策文件，分门别类归纳整理，形成政策清单；深入开展送政策上门、专题培训等系统活动，加强政策解读和辅导，指导企业用好政策。', '3.组织参与高端辅导报告活动。结合阜阳市“解放思想大讨论活动方案”，积极组织人员参与高端辅导报告活动，保障我市粮食系统干部更多地学到先进地区经济社会发展新理论新思路新举措，深入推进学习型机关创建活动，使干部的专业素养和工作能力跟上时代节拍。', '成立大讨论活动领导小组，领导小组全面负责对活动的统一组织领导。做好宣传引导、舆论营造等工作，要将大讨论活动与干部日常学习、管理、使用结合起。局领导结合既有的联系包保责任，分别到所联系的县市区和直属企业，开展走访调研，督促指导大讨论活动。把开展大讨论活动与学党史、抓整改、正作风结合起来，与', '“两化一推”等各项重点工作结合起来，与全市粮食企业改革发展稳定结合起来，做到一体推进、互相促进。', '领导小组办公室对活动开展情况进行督促指导，及时发现问题，提出工作建议，跟踪推动落实。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>103</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>信息公开政策文件库关于印发阜阳市粮食和物资储备局对标沪苏浙学习合芜滁加速一体化</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2021-09-02</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/policyContent/detail/20/61aecb948866880c608b456d.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['关于印发《阜阳市粮食和物资储备局“对标 沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案》的通知-政策文件库-阜阳市人民政府', '关于印发《阜阳市粮食和物资储备局“对标 沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案》的通知', '“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案》经党组会议通过，现印发给你们，请结合实际认真贯彻落实。', '思想是总开关、总闸门，没有思想上的大破冰，难有行动上的大突围、高质量发展上的大突破。为深入学习贯彻习近平总书记在庆祝中国共产党成立', '100周年大会上的重要讲话精神，全面贯彻落实习近平总书记关于长三角一体化发展的重要论述和考察安徽重要讲话指示精神，以及省、市党政代表团赴沪苏浙学习考察总结交流会精神，引导全市粮食系统广大党员干部进一步解放思想、更新观念、勇于创新，努力与沪苏浙及省内合芜滁等先进地区在理念、机制、项目等方面实现有效对接，着力实施高质量、可持续支撑的追赶型发展战略，加快推进长三角一体化发展，勇当皖北经济高质量发展上台阶的排头兵，奋力谱写新阶段现代化实力阜阳大美阜阳建设新篇章夯实思想基础、营造浓厚氛围，市粮食和物资储备局党组决定，在全系统党员干部重点是领导班子和领导干部中，开展“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论。现制定如下方案。', '“边对标、边学习、边讨论、边行动”，强化目标导向、问题导向和结果导向，把自己摆进去、把职责摆进去，把工作摆进去，扎实开展“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动，进一步扫除思想障碍、优化思想方法、强化担当作为，着力以思想先变促进观念转变、实现行为改变，为阜阳勇当皖北经济高质量发展上台阶的排头兵、学习“学习合芜滁”赶先进的排头兵、全国百强再进位的排头兵争做新贡献。', '进一步对标学习沪苏浙、合芜滁等先进地区勇争一流的工作激情，坚决破除争先上的小进则满以及小富即安、得过且过等问题，敢于拉高标杆、对标一流、争先进位，同强的比、向高的攀、跟快的赛，在各自工作岗位上争创一流工作业绩，在', '“两推一化”“优质粮食工程”“粮食产业经济”“加快建设绿色粮食仓储、长三角绿色农产品生产加工供应基地、区域性绿色消费中心”中展现更大担当作为。', '进一步对标学习沪苏浙、合芜滁等先进地区包容开放的宽广胸怀，坚决破除开放上的固步自封以及视野不够开阔、开放程度不高、营商环境不优，特别是依法不办事、生人不办事、推诿不办事等问题，自觉站在时代前沿和战略高度观察、思考和处理问题，善于把粮食和物资储备发展放到经济全球化的大背景下去谋划、全国发展的大战略中去定位、长三角一体化发展的大环境下去推进，以更优化的营商环境、更有力的', '进一步对标学习沪苏浙、合芜滁等先进地区开拓进取的创新精神，坚决破除创新上的因循守旧以及惯性思维和路径依赖等问题，摒弃与完整准确全面贯彻新发展理念、敢想敢干、敢闯敢试、敢为人先，善于用市场的逻辑谋事、用资本的力量干事，用平台思维做发展乘法、用生态思维优发展环境，在全局上下持续掀起竞相探索新思路、新方法、新机制的热潮。', '4.聚焦潜能释放，增强勇立潮头的改革闯劲。进一步对标学习沪苏浙、合芜滁等先进地区永不停步的改革劲头，坚决破除改革上的畏首畏尾以及患得患失、瞻前顾后、不敢拍板、不敢迈大步等问题，牢固树立强烈的改革意识，切实增强改革自觉，坚持依靠改革应对变局、开拓新局，拿出更大的勇气、更实的举措破除制约高质量发展的深层次体制机制障碍，不断通过改革释放内需潜力、激发经济活力、培育增长动力。', '5.聚焦专业提升，养成孜孜以求的学习习惯。进一步对标学习沪苏浙、合芜滁等先进地区精湛过硬的专业能力，持续在学深悟透习近平新时代中国特色社会主义思想上下功夫，强化专业意识、专业化谋划、专业化历练、专业化组织，坚决破除能力上的本领恐慌以及专业素养不高、政策把握运用不够等问题，不断提高知识化、专业化水平，学会在法律和政策框架下找准作为的机遇和空间，做到干一行爱一行钻一行，努力成为做好工作的行家里手，尤其是全市各级各部门主要领导同志既能高位提出问题、又能给出思路、最后还能拿出结果。', '进一步对标学习沪苏浙、合芜滁等先进地区担当实干的优良作风，坚决破除作风上的不严不实以及工作浮于表面、庸政懒政怠政，特别是对职责边界上的事推诿扯皮、能推则推等问题，坚持', '“敢想、会谋、干成”的工作逻辑、“一对标三审查”“两单两制”的工作方法和“务实、规范、创新、精准、高效”的工作作风，做敬业型、学习型、创新型、清正型、绩效型“五型”干部，努力把发展理念变成思路、把思路变成抓手、把抓手变成工程、把工程变成项目，推动中央及省委决策部署在阜阳粮食系统落地见效、开花结果。', '2021年6月下旬开始，9月份基本结束，不分批次、不划阶段、不搞转段。本次大讨论活动，主要有以下十项安排：', '6月下旬，组织阜阳市5个县市与南京市5个区签订优质粮食产销合作协议，召开粮食企业座谈会，部署阜阳市粮食企业与南京市粮食企业进行战略合作，加大招商引资力度。', '8月上旬，市粮食和物资储备局主持召开全市粮食系统2021年上半年经济发展部署会，深入学习“两推一化”会议精神，全面总结粮食系统经济发展取得的成效、遇到的瓶颈问题、需要解决的事项，放大全国优质粮食工程“阜南现场会”成果，对接南京市粮食和物资储备系统，积极融入长三角一体化发展。深入学习贯彻习近平总书记关于民营经济发展的重要论述，贯彻落实省优秀民营企业家和优秀民营企业表彰暨推进“十四五”民营经济高质量发展大会、省市党政代表团赴沪苏浙学习考察总结交流会精神，在全市粮食系统拉开“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动序幕，着力营造尊重企业家、尊重纳税人的氛围，优化营商环境、强化“双招双引”、推进民营经济高质量发展，为推动阜阳粮食经济追赶跨越、争先进位，勇当皖北经济高质量发展上台阶的排头兵奠定坚实基础。', '“双招双引”、推进民营经济高质量发展的重要政策文件，分门别类归纳整理，形成政策清单；深入开展送政策上门、专题培训等系统活动，加强政策解读和辅导，指导企业用好政策。', '8月下旬，市局班子成员和科室负责人结合各自工作分工和任务，聚焦未来五年经济社会发展和党的建设，在落实常态化疫情防控前提下，深入一线开展有针对性调研，重点是深入本地基层一线开展专题研讨；在此基础上，组织不少于2次集中研讨，市局领导至少到分管和联系的县市区参加1次集中研讨交流，把先进经验做法学透，把短板差距摸清，把影响制约经济社会发展的阻点痛点难点找准，把未来五年的工作思路和目标谋深谋实，提出切实可行的工作措施和对策建议，撰写高质量调研报告，统一汇编成册，为加快推进长三角一体化发展，深入实施高质量、可持续支撑的追赶型发展战略提供决策参考。', '创新工作思路，精心选择主题，开展暗访活动，深入企业一线、基层群众察真情、听真言。强化结果运用，积极参加深入开展', '“百名科长”考评活动。充分借鉴先发地区优化营商环境的好经验好做法，全面落实政府网站创优“四最”营商环境“你提我办”栏目、营商环境问题政府热线受理电话、12345市长热线、12325监督热线电话等平台受理事项，设立营商环境举报电话，畅通市场主体和人民群众对粮食系统营商环境问题的投诉举报渠道。围绕优化营商环境加强日常监督，将优化营商环境作为督查检查重要内容，着力发现问题、解决问题，进一步优化营商环境。', '“解放思想大讨论活动方案”，积极组织人员参与高端辅导报告活动，保障我市粮食系统干部更多地学到先进地区经济社会发展新理论新思路新举措，深入推进学习型机关创建活动，使干部的专业素养和工作能力跟上时代节拍。', '“双招双引”领导小组研究认定的优秀民营企业经营者按照阜阳市优惠政策积极落实，深入企业调研，帮助企业解决实际问题。', '认真总结大讨论活动成果中形成的认识成果、实践成果、制度成果，并做好成果转化工作，形成推动粮食和物资储备高质量发展新的工作创新举措和制度机制，促进各项工作全面提质增效。', '解放思想大讨论活动作为党史学习教育一项自选动作，在局党组的领导下进行，成立大讨论活动领导小组，领导小组全面负责对活动的统一组织领导，张帆同志负责具体执行推进。领导小组下设办公室，办公室设在市局办公室，负责具体策划、协调督促、推动实施等日常工作。各牵头科室要按照任务分工和时间安排，统筹谋划推进活动实施，认真抓好贯彻落实工作。', '“一把手”要充分发挥示范带头作用，以身作则、率先垂范，以关键少数带动绝大多数积极参与大讨论活动。同时，要做好宣传引导、舆论营造等工作，要将大讨论活动与干部日常学习、管理、使用结合起来，要引导老干部、老同志积极建言献策、贡献智慧，局直各单位要结合自身实际精心组织开展配合活动，使上上下下、方方面面参与到大讨论活动中来。', '局领导结合既有的联系包保责任，分别到所联系的县市区和直属企业，开展走访调研，督促指导大讨论活动。领导小组办公室对活动开展情况进行督促指导，及时发现问题，提出工作建议，跟踪推动落实。', '“两化一推”等各项重点工作结合起来，与全市粮食企业改革发展稳定结合起来，做到一体推进、互相促进。', '领导小组下设办公室，办公室设在局办公室，张帆同志兼任办公室主任，宋士玉、李金广、黄维照、郑文娟任办公室副主任。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>103</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>政务资讯市政协党组举行党史学习教育专题读书班暨理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021-08-17</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/611b2a1d8866881a3f8b456f.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['市政协党组举行党史学习教育专题读书班暨理论学习中心组学习（扩大）会议-阜阳市人民政府', '8月16日，市政协党组举行党史学习教育专题读书班暨理论学习中心组学习（扩大）会议。市政协党组书记、主席李志伟主持会议，副主席王振军、顾恒中、吴开义、秦煦、聂磊、王家仁、张华久，秘书长郭景宏出席。', '会议传达学习了习近平总书记在西藏考察时、在7月30日中共中央政治局会议上、在党外人士座谈会上、在中共中央政治局第三十二次集体学习时的重要讲话精神，学习了《中共阜阳市委办公室阜阳市人民政府办公室关于印发〈阜阳市“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论活动方案〉的通知》，传达了市委网信委有关文件精神。与会同志围绕“学史崇德”主题进行了交流研讨。', '会议强调，要明大德，自觉擦亮政治本色，永葆对党忠诚的政治品格，坚定理想信念，筑牢初心使命，切实把对党忠诚铸入思想、融入灵魂、见于行动。要守公德，不断提升履职成色，始终把人民群众对美好生活的向往作为努力方向，积极协助党委政府破解民生难题、增进人民福祉。要严私德，始终坚守从政底色，清清白白做人、干干净净做事，慎微走正道、慎独修正身，以担当诠释忠诚、以奋进砥砺初心、以实干践行使命，为我市加快“两化一推”、勇当皖北经济高质量发展排头兵贡献政协智慧和力量。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>政务资讯孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2021-08-05</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/610b4751886688cb718b4568.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会-阜阳市人民政府', '孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会', '8月4日，市委书记孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会，进一步凝聚共识，学先进、找差距、快追赶，在全市上下营造大抓发展的浓厚氛围，着力推动阜阳经济追赶跨越、争先进位。市委副书记、市长刘玉杰，市领导胡明莹、李志伟、李军、王玉峰、章绍伟、王波、陈兆国、白晓云、胡明文、吕国平等出席会议。', '孙正东要求，要围绕“学”“找”“追”，深度对标沪苏浙及合芜滁等先进地区经验，把学习考察的成果转化为推动阜阳经济社会高质量发展的实际成效。要在“追”上谋思路、找出路、闯新路，聚焦追赶跨越、借梯登高、敢为人先、潜能释放、专业提升、担当作为，保持永不满足的争先激情、拓宽海纳百川的开放胸怀、激发砥砺永无止境的创新精神、增强勇立潮头的改革闯劲、养成孜孜以求的学习习惯、弘扬真抓实干的工作作风。要着力解决思想观念上的突出问题，坚决破除阻碍发展的思想桎梏，深入开展解放思想大讨论活动，以思想大解放带动发展大突破。', '孙正东强调，要用好观摩讲评成果，切实增强产业项目建设和开发园区改革发展的责任感紧迫感。要围绕全市经济发展定位抓项目谋划、围绕属地特色产业抓项目谋划、围绕“双招双引”项目落实抓要素保障，不断加强产业项目建设。要围绕产城融合、产业兴城、制造强市，完善基础设施，加快园区改革，推动开发园区做强做大。要认真落实“三看三比三清单”、半年观摩、产业项目建设末位表态发言等制度，一以贯之开展好产业项目建设观摩，形成比学赶超的浓厚氛围。', '孙正东要求，要科学研判经济运行态势，不断激发市场主体活力，切实加强分类指导，着力强化调度考核，勇当皖北经济高质量发展上台阶的排头兵。要以“两化一推”为抓手、全力推动经济高质量发展，大力发展社会事业，持续加强党的建设，确保完成全年目标任务。要抓好常态化疫情防控、党史学习教育、安全稳定、文明城市建设、乡村振兴等当前各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>政务资讯市政府机关党组召开理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2021-08-11</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/6115d10c886688e0478b4570.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['8月9日，市政府机关党组召开理论学习中心组学习（扩大）会议，市政府办公室、政研室全体人员参加会议，会议由市政府秘书长、机关党组书记朱新主持 。', '会议传达学习了全国、全省疫情防控工作电视电话会议精神和阜阳市新冠肺炎疫情防控应急指挥部办公室通告（2021年第4号）、《赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会会议精神》《阜阳市人民政府办公室关于印发进一步推进〈优化营商环境条例〉落细落实具体措施的通知》相关文件精神，会议还学习了《习近平新时代中国特色社会主义思想学习问答—我们党作为百年大党，为什么必须始终牢记初心和使命》。', '会议指出，当前新冠肺炎疫情防控形势严峻复杂，要扎实做好疫情防控工作，认真落实各项措施。要统一思想，切实提高政治站位；要从严从实，严格落实各项防控措施；要加强管理，做好单位内部防护工作，做好办公区域定期消杀、防疫物品发放等工作；要履职尽责，担当作为，市政府办公室领导班子成员、各科室负责人要严格履行疫情防控责任，强化风险意识和责任担当。', '会议强调，要高度重视党史学习教育工作，深入学习，查找不足，联系实际，办好实事。要加强业务学习，聚焦重点工作，全面抓好市委、市政府重要会议精神贯彻落实。要优化营商环境，抓好“两化一推”，立足本职，提高服务水平。要强化学习意识、规范意识、质量意识、安全意识，不断提升“三服务”工作能力。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>103</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>专题专栏市政府机关党组召开理论学习中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2021-08-13</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/special/detail/6115d123886688d5478b456c.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['8月9日，市政府机关党组召开理论学习中心组学习（扩大）会议，市政府办公室、政研室全体人员参加会议，会议由市政府秘书长、机关党组书记朱新主持。', '会议传达学习了全国、全省疫情防控工作电视电话会议精神和阜阳市新冠肺炎疫情防控应急指挥部办公室通告（2021年第4号）、《赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会会议精神》《阜阳市人民政府办公室关于印发进一步推进〈优化营商环境条例〉落细落实具体措施的通知》相关文件精神，会议还学习了《习近平新时代中国特色社会主义思想学习问答—我们党作为百年大党，为什么必须始终牢记初心和使命》。', '会议指出，当前新冠肺炎疫情防控形势严峻复杂，要扎实做好疫情防控工作，认真落实各项措施。要统一思想，切实提高政治站位；要从严从实，严格落实各项防控措施；要加强管理，做好单位内部防护工作，做好办公区域定期消杀、防疫物品发放等工作；要履职尽责，担当作为，市政府办公室领导班子成员、各科室负责人要严格履行疫情防控责任，强化风险意识和责任担当。', '会议强调，要高度重视党史学习教育工作，深入学习，查找不足，联系实际，办好实事。要加强业务学习，聚焦重点工作，全面抓好市委、市政府重要会议精神贯彻落实。要优化营商环境，抓好“两化一推”，立足本职，提高服务水平。要强化学习意识、规范意识、质量意识、安全意识，不断提升“三服务”工作能力。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>103</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>信息公开保基层运转孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2021-08-05</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/610b47c68866889f728b456d.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['【保基层运转】孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会-阜阳市人民政府', '【保基层运转】孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会', '孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会', '8月4日，市委书记孙正东主持召开赴长三角中心区学习考察总结交流会暨产业项目及开发园区建设观摩会、上半年经济运行分析会，进一步凝聚共识，学先进、找差距、快追赶，在全市上下营造大抓发展的浓厚氛围，着力推动阜阳经济追赶跨越、争先进位。市委副书记、市长刘玉杰，市领导胡明莹、李志伟、李军、王玉峰、章绍伟、王波、陈兆国、白晓云、胡明文、吕国平等出席会议。', '孙正东要求，要围绕“学”“找”“追”，深度对标沪苏浙及合芜滁等先进地区经验，把学习考察的成果转化为推动阜阳经济社会高质量发展的实际成效。要在“追”上谋思路、找出路、闯新路，聚焦追赶跨越、借梯登高、敢为人先、潜能释放、专业提升、担当作为，保持永不满足的争先激情、拓宽海纳百川的开放胸怀、激发砥砺永无止境的创新精神、增强勇立潮头的改革闯劲、养成孜孜以求的学习习惯、弘扬真抓实干的工作作风。要着力解决思想观念上的突出问题，坚决破除阻碍发展的思想桎梏，深入开展解放思想大讨论活动，以思想大解放带动发展大突破。', '孙正东强调，要用好观摩讲评成果，切实增强产业项目建设和开发园区改革发展的责任感紧迫感。要围绕全市经济发展定位抓项目谋划、围绕属地特色产业抓项目谋划、围绕“双招双引”项目落实抓要素保障，不断加强产业项目建设。要围绕产城融合、产业兴城、制造强市，完善基础设施，加快园区改革，推动开发园区做强做大。要认真落实“三看三比三清单”、半年观摩、产业项目建设末位表态发言等制度，一以贯之开展好产业项目建设观摩，形成比学赶超的浓厚氛围。', '孙正东要求，要科学研判经济运行态势，不断激发市场主体活力，切实加强分类指导，着力强化调度考核，勇当皖北经济高质量发展上台阶的排头兵。要以“两化一推”为抓手、全力推动经济高质量发展，大力发展社会事业，持续加强党的建设，确保完成全年目标任务。要抓好常态化疫情防控、党史学习教育、安全稳定、文明城市建设、乡村振兴等当前各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>103</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>政务资讯市公安局深入开展我为群众办实事实践活动推动党史学习教育走深走实</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2021-08-05</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/610b36708866886c618b4580.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['市公安局深入开展“我为群众办实事”实践活动推动党史学习教育走深走实-阜阳市人民政府', '市委、市政府部署开展优化营商环境强化“双招双引”推进民营经济高质量发展专项工作以来，市公安局高度重视，深入学习贯彻习近平总书记在民营企业座谈会上的重要讲话精神和考察安徽重要讲话指示精神，树牢以人民为中心的发展思想，在优化营商环境、深化“放管服”改革、用心用情用力解决好群众急难愁盼问题上狠下功夫，深入组织开展“我为群众办实事”实践活动，推动党史学习教育走深走实。', '推行“一次办”。一是服务事项再集成。按照“全科+专科”“综窗+专窗”的目标要求，在公安窗口服务事项上最大限度做加法、做乘法，汇总身份证办理、驾驶证补换领、交通违法处理等141项跨部门办理权限，聚合治安、出入境、交管等22项跨警种高频民生事项，加叠“一站式”“一件事”2项联办服务措施，公安窗口服务事项增加至37项，增加了5.71%。二是行政审批再提速。狠抓行政审批流程优化和环节压减，制定网上运转、并行办理、限时办结工作规范，要求审批事项在“日清月结”基础上“动态清零”。在县市区政务服务中心设立“企业合成服务窗口”，为企业提供公安事项联办快办、防范宣传、政务公开、政策咨询等服务。三是政务服务再便利。实行行政审批岗位高峰期弹性工作制、午休延时工作制、节假日值班工作制，开辟公安政务服务“绿色通道”，为60岁以上老年人和军人军属提供“快捷服务”。', '强化“就近办”。一是向群众身边延伸。按照城区“15分钟办事圈”、农村“半小时办事圈”标准要求，科学布点，积极向基层派出所、车管所、出入境大厅、政务服务大厅延伸公安政务服务，机动车注册登记、驾照号牌补换领等15个常用事项实现就近受理、“一窗通办”。二是拓展自助服务。进一步深化“无人警务自助终端”建设应用，在县区户政、车管、出入境服务大厅和基层派出所投放应用，交通违章处理、临时身份证明、新生儿入户等7类服务随到随办。临泉县局推出“无人智慧警局”，颍泉分局设置“24小时自助服务厅”，实现公安政务服务全天“不打烊”。三是推进试点破题。主动融入“长三角”一体化发展大局，与我市外出务工人员相对集中的绍兴上虞试点开展新生儿落户“跨省通办”，在全省率先实现“长三角户口一站式迁移”，6月份以来，办理网上迁移服务2229件。', '深化“网上办”。一是做强网上平台。以“皖事通”和“皖警便民服务e网通”为平台，将123项公安业务上网，引导群众网上提交申请，网上审核办理。积极探索打造“网上车管所”服务，实现电子委托及机动车解抵押、号牌互换等事项“不见面办理”。二是打通数据资源。坚持“联通共享、合作共赢”，争取市委市政府支持，通过数据资源管理局对接数据接口8个，打通4条部门间数据通道，汇聚人社、民政、工商等信息5.9亿条，建立寄递业“三个100%”、银行反电诈应急处置工作机制，为智慧城市建设、政务服务开展提供有力支撑。三是实行“一照通用”。针对群众办理部分业务需重复采集人像的问题，搭建全市公安统一照片库，全面归集全市公安机关采集的证件照片，统一照片规格，规范采集标准，推进线上与线下政务服务等场景的照片共享应用，方便群众“一次采集、多次复用”。目前居民身份证、机动车驾驶证、出入境护照“三证照片”已实现互联共享，下一步将纳入更多照片资源，最大限度地避免重复拍照，让群众办事“最多跑一次”。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>103</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>政务资讯市数据资源局组织召开优化营商环境学习研讨暨政务服务提升行动座谈会议</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2021-07-29</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/61028ae488668830198b4572.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['市数据资源局组织召开优化营商环境学习研讨暨政务服务提升行动座谈会议-阜阳市人民政府', '7月28日下午，市数据资源局组织召开优化营商环境学习研讨暨政务服务提升行动座谈会议，局党组书记、局长齐明砾，党组成员副局长李晓飞，二级调研员李彪出席会议。各县市区数据资源局分管负责同志和业务负责人参加研讨座谈会议。', '会议传达了全省优化营商环境暨“双招双引”工作培训会议精神，围绕政务服务标准化、规范化、便利化开展了业务培训；通报了上半年全市政务服务提升工作进展情况及弱项指标，逐项研究整改措施，并就做好“两化一推”、开展全市数据资源和政务服务大调研等工作进行安排部署。参会人员围绕优化营商环境暨政务服务优化提升工作分别交流了心得体会、整改措施及下步思路。', '齐明砾在总结讲话中指出，此次研讨学习会议是在市党政代表团赴沪苏浙及合肥、芜湖等地学习考察后的一次交流研讨会，是对优化营商环境暨开展政务服务提升行动的一次学习座谈会，是对上半年工作进行总结盘点的一次工作推进会议，主要目的是要对标长三角中心区的好经验好做法，细化学习贯彻落实措施，切实提升政务服务标准化、规范化、便利化水平。她要求，参会人员要传达汇报到位，第一时间将会议内容向主要负责同志及全局工作人员进行传达，认真研究落实措施，进一步明确标准和责任，不断推动政务服务优化；要消化钻研到位，吃透政务服务相关政策及提升行动和指标的最新要求，理清思路，明确方向，持续抓好整改提升；要宣传引导到位，加强平台开发和业务培训，把皖事通办平台、长三角政务地图等融入到大厅运行、窗口服务中去，主动走入基层做好引导宣传工作，持续提升用户体验和活跃度；要沟通对接到位，结合全市“互联网+政务服务”运行体检工作，持续加强与上级部门、同级部门的工作对接，做好对镇村级为民服务中心的业务指导、监督检查，提出更多针对性强的意见建议，不断提升政务服务的精准度、实效性。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>103</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>信息公开市科技局开展对标沪苏浙学习合芜滁加速一体化专题学习</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2021-07-23</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/613f9c32886688af4b8b4576.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['7月22日下午，市科技局召开专题会议，组织学习我市“对标沪苏浙、学习合芜滁、加速一体化”党政代表团外出学习考察情况，安排部署贯彻落实工作。市政协副主席、科技局局长秦煦主持会议并讲话。', '会议指出，这次参加全市党政代表团学习考察，既看到了阜阳与台州、松江、徐汇、苏州、合肥、芜湖等地相比在经济实力、产业结构、发展动力上的差距，又感受到了阜阳在创新实力、创新氛围、精准服务上的不足，要以更加开放的胸怀、争先的干劲和创新的精神，树立比学赶超的信心和决心。', '会议强调，创新在现代化建设全局中处于核心地位，科技创新在全面创新中具有引领作用，要坚持问题导向，打破惯性思维，以更大的格局谋划科技创新，抢抓长三角一体化发展战略机遇，深入实施科技创新“4111”五年行动计划，集聚创新资源，加快建设全省具有重要影响力的科技成果转化聚集地，为产业创新和高质量发展赋能。', '会议要求，要扎实推进“两化一推”，强化人才、资金、信息、技术等要素保障，为外地“种子”生根发芽、本地“树苗”长大成林营造良好生态；要深化科技创新体制机制改革，统筹各类项目资金支持科技创新，坚持优化存量、扩大增量，进一步加大科技创新资金投入，引导更多社会资本投入科技创新；要强力推进科技成果转移转化，加快建设阜阳创新馆和阜阳科技大市场，打造线上线下科技成果交易平台，构建“政产学研用金”六位一体技术转移体系；要以“科创+产业”为引领，以打造离岸科创中心为抓手，加快实施开放协同创新工程，推动与长三角核心区战略协同、平台联动、资源共享，培育高成长性创新型领军企业、高新技术企业等企业创新主体，打造产业创新的核心引擎。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>103</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>政务资讯亳州市谯城区考察团到临泉县考察调研</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2021-07-22</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60f940e5886688405e8b4581.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['在临泉规划馆，丁辉一行详细了解临泉经济社会发展及城乡规划建设情况，亲身体验声光电技术展现出的临泉记忆。丁辉表示，在推动城市加快建设、基础设施不断完善、环境持续优化的同时，临泉注重彰显历史、人文、产业、生态等区域特色，充分展现城市魅力，切实提高城市的美誉度和吸引力。', '在中原牧场牛羊交易大市场，丁辉一行听取了规模养殖及经营情况的介绍。丁辉表示，中原牧场牛羊交易大市场不仅为活畜交易提供了规范的平台，带动贫困群众就业，增加养殖户收入；还可通过收储秸秆，有效解决农业秸秆处理难题，为巩固拓展脱贫攻坚成果和全面推进乡村振兴提供坚实的产业支撑。', '江利国在考察中对亳州市谯城区考察团的到来表示欢迎，并指出双方合作有良好的前景，考察团的到来更为两地经济社会沟通交流架起了一座友谊的桥梁。丁辉简要介绍了谯城区经济社会发展情况，并表示，临泉县发展思路清晰、措施有力，特别是在狠抓产业发展，优化城市管理，推动经济社会发展提质增效等方面形成了好经验好做法，值得谯城区学习借鉴，双方争取在更大范围和更宽领域内开展合作，实现共赢发展、携手共进。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>103</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>政务资讯阜阳市党政考察团赴芜湖学习考察对接合作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2021-07-19</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60f4d6da88668871288b456a.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['7月16日至17日，市委书记孙正东，市委副书记、市长刘玉杰率阜阳市党政考察团，就深入学习贯彻习近平总书记关于扎实推进长三角一体化发展的重要讲话指示精神，赴芜湖市学习考察、对接合作。芜湖市委书记、市人大常委会主任单向前，芜湖市委副书记、市长宁波陪同或出席交流座谈会。', '座谈会上，单向前说，当前，阜阳正抢抓长三角一体化发展和中部地区崛起等重大国家战略，坚定不移推进产城融合、制造强市和区域重点城市建设，勇当皖北经济高质量发展的排头兵。芜湖正在加快建设省域副中心城市和长三角具有重要影响力的现代化大城市，希望双方加强交流、深化合作、互促共进。', '孙正东说，芜湖是安徽第二大经济体，经济社会发展势头强劲，敢闯敢试的创新精神、一以贯之抓产业的韧劲、勇于争先的激情和持续优化营商环境的做法等值得我们学习借鉴。建议双方进一步加强联系，在产业协同发展、干部学习交流、技能人才培育等领域深化合作，共同为长三角一体化高质量发展作出新贡献。', '在芜湖期间，考察团来到三只松鼠股份有限公司，孙正东建议企业利用阜阳原料和销售大市场优势，加强与阜阳对接合作，更好实现产业链接、要素流动、利益共享。在奇瑞新能源汽车、芜湖产业创新馆和芜湖第三代半导体工程中心、埃夫特智能装备等地，孙正东表示，阜阳要学习芜湖支持服务创新创业的做法，积极对接资源要素，把更多应用场景、制造基地延伸到阜阳，加快阜阳科技成果转化和承接转移集聚区建设步伐。', '芜湖市领导张峰、丁祖荣、张志宏、黄干、杨志斌，阜阳市领导胡明莹、李志伟、王玉峰、王朝晖、章绍伟、王波、白晓云等参加相关活动。', '在芜湖期间，孙正东、刘玉杰还实地考察了海螺集团，并与集团董事长王诚、总经理任勇就建立产业战略合作进行了座谈。', '芜湖考察结束后，孙正东主持召开了小结会。他说，通过沪苏浙、合肥、芜湖等地的学习考察，开阔了视野、学习了经验、找到了差距，下一步要把学思行结合，对标长三角中心区的好经验好做法，拿出学习贯彻落实方案，列出意向合作项目、人员学习交流等清单，做好学习成果转化运用。要抓好当前改革、发展、稳定各项重点工作，统筹推进经济社会发展。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>103</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>政务资讯阜阳市党政考察团赴合肥学习考察对接合作</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2021-07-19</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60f4c248886688c5158b4567.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['7月15日至16日，市委书记孙正东，市委副书记、市长刘玉杰率阜阳市党政考察团，就深入学习贯彻习近平总书记关于扎实推进长三角一体化发展的重要讲话指示精神，赴合肥市学习考察、对接合作。省委常委、合肥市委书记虞爱华陪同考察，并主持召开两市合作交流座谈会，合肥市委副书记、市长罗云峰陪同考察。', '座谈会上，虞爱华说，阜阳大力推动经济高质量可持续追赶型发展，势头向上向好，成绩可圈可点。合肥与阜阳同属人口大市、发展势头良好，新征程上都大有可为、大有作为。希望两市继续携手并进，在长三角一体化发展中把“合肥模式”与阜阳优势结合起来，更大力度推动产业协作、人才交流、资源共享，把阜合现代产业园区打造成合作共建样板园，并延伸拓展到其他领域。', '孙正东对合肥多年来关心与支持阜阳发展表示感谢。他说，合肥与阜阳是结对共建城市，这次考察感受最深的是合肥下大力气加大科技创新、发展新兴产业、优化营商环境，特别是合肥坚持推动有效市场和有为政府相结合，撬动社会资本，引来“头部”企业，加快战新产业发展的做法很值得阜阳学习。建议合肥在前期支持合作的基础上，加强园区共建、产业发展、乡村振兴、人才培养等方面的支持力度，全面拓展合作领域，实现双方共赢发展。', '在合肥期间，考察团还来到江淮蔚来、通威太阳能等企业考察。孙正东说，我们要学习合肥开放创新、合作共赢的发展思维，帮助企业嫁接资源，在优化重组中加快转型升级。在阳光电源、科大讯飞、国仪量子，孙正东建议企业加大与阜阳对接合作力度，要求阜阳市县相关部门切实做好服务保障。在中安创谷科技园、安徽创新馆，孙正东要求，要学习合肥支持服务创新创业的做法，完善人才引进、培育、激励机制，不断激发创新创造活力。在与阜阳籍创业者安徽东超科技董事长韩东成交谈时，孙正东鼓励他努力开发更多产品，并把应用场景放到阜阳，为家乡发展多作贡献。', '合肥市领导汪卫东、韩冰、韦弋、王文松、杨伟，阜阳市领导胡明莹、李志伟、王玉峰、王朝晖、章绍伟、王波、白晓云等参加相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>103</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>政务资讯阜阳市党政考察团赴江苏苏州学习考察对接合作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2021-07-16</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60f0edef886688c15e8b4567.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['7月15日，由市委书记孙正东，市委副书记、市长刘玉杰率队的阜阳市党政考察团来到江苏省苏州市学习考察、对接合作。江苏省委常委、苏州市委书记许昆林，苏州市委副书记、市长李亚平陪同或出席座谈会。', '座谈会上，许昆林指出，阜阳是长三角一体化发展区域重点城市，近年来在城乡建设、产业发展方面取得了显著成绩。当前，苏州正围绕“强富美高”总目标，把握“争当表率、争做示范、走在前列”重大使命，建设更高水平的创新之城、开放之城、人文之城、生态之城、宜居之城、善治之城。双方应认真贯彻落实习近平总书记在扎实推进长三角一体化发展座谈会上的重要讲话精神，紧扣一体化和高质量两个关键词，加大对接力度，实现合作共赢。', '孙正东说，到苏州市学习考察，是深入贯彻落实习近平总书记关于扎实推进长三角一体化发展重要讲话指示精神的具体行动，是阜阳“对标沪苏浙、学习合芜滁、加速一体化”解放思想大讨论的重要一站。苏州是全国重要的制造业基地，发展势头强劲，通过这次考察，感受到了苏州在开放、创新、改革方面取得的巨大成就，敢为人先的开放胸怀、永无止境的创新精神、勇立潮头的改革闯劲都值得我们学习。建议双方加强对接联系，在干部学习交流、技能人才培育、承接产业转移、开发园区共建等方面开展合作，共同为长三角一体化高质量发展作出新贡献。', '在苏州期间，考察团还来到苏州工业园区展示中心、智慧城市运行中心，详细了解园区发展历程、产业布局和园区治理等情况。孙正东说，苏州“下好改革棋、走好开放路、打好创新牌”的做法很值得学习，我们要打开思想“阀门”，营造更具活力的创意创新创业环境。苏州生物医药产业园聚集了500余家高科技研发企业，并孵化出19家上市企业，孙正东说，要加强与产业园项目对接合作，做好科技成果转化和优化产业分工配套布局，形成复合联动的产业体系。', '苏州市领导周伟强、顾海东，阜阳市领导胡明莹、李志伟、王玉峰、王朝晖、章绍伟、王波等参加相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>103</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>信息公开阜阳市党政考察团赴上海徐汇学习考察对接合作</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2021-07-15</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/60f0fe05886688256d8b4568.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['7月14日，市委书记孙正东，市委副书记、市长刘玉杰率阜阳市党政考察团，就深入学习贯彻习近平总书记考察安徽重要讲话指示和关于扎实推进长三角一体化发展重要讲话指示精神，赴上海市徐汇区开展学习考察、对接合作。徐汇区委书记鲍炳章陪同考察并参加座谈会。', '座谈会上，孙正东说，徐汇区是上海西南部的城市副中心，在长三角一体化发展中，正利用黄浦江西岸原老工业区以国际化的眼光打造卓越城区、卓越水岸，注重并善于用精准思维谋发展的战略、平台思维做发展的乘法、生态思维做发展的举措值得阜阳学习借鉴，我们将深入研究，结合阜阳实际做好吸收转化。当前，阜阳正狠抓优化营商环境、强化“双招双引”、推进民营经济高质量发展“两化一推”，徐汇与阜阳是战略合作关系，建议双方在巩固好前期合作的基础上，以徐汇的创新资源优势，帮助阜阳承接产业转移和科技成果转化，实现双方互利共赢。', '鲍炳章说，希望双方以这次考察交流为契机，在更宽领域、更深层次、更高水平上不断深化交流合作，共同推动一体化制度创新、产业发展和公共服务。徐汇区将发挥好辐射带动作用，积极帮助阜阳产业转型升级，促进一体化中产业融合发展、民生互利共享。', '在上海期间，考察团还来到上海漕河泾开发区科技绿洲和漕河泾印象城学习考察，孙正东要求，要学习全球化的视野，系统谋划加快推进“园区管委会+公司”的发展模式，盘活资源，提升工作效能。在西岸传媒港、智慧谷、金融城，孙正东要求，要学习“规划引领、文化先导、生态优先、科创主导”的发展思路，通过引进头部企业，支持企业创新创意创造，做长做强做大产业链。在东方国际集团，孙正东一行在考察东方集团进口博览会“6天+365天”虹桥品汇后，还与其董事长童继生、总经理季胜君洽谈了制造业和服务业项目合作，建议双方明确合作定位，成立专班，加快项目进度。', '徐汇区领导李新华、胡敏、王宏伟，阜阳市领导胡明莹、李志伟、王玉峰、王朝晖、章绍伟、王波等参加考察和座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>103</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>政务资讯阜阳市党政考察团赴浙江台州学习考察对接合作</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2021-07-13</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60ecf1c9886688a97b8b4573.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['7月12日，市委书记孙正东，市委副书记、市长刘玉杰率阜阳市党政考察团，就深入学习贯彻习近平总书记考察安徽重要讲话指示和关于扎实推进长三角一体化发展重要讲话指示精神，赴浙江省台州市开展学习考察和对接合作，并举行台州·阜阳工作交流会。台州市委书记李跃旗，台州市委副书记、市长吴海平出席交流会。李跃旗、孙正东分别讲话，吴海平、刘玉杰分别介绍台州、阜阳经济社会发展情况。', '交流会上，孙正东说，台州是长三角一体化中心区27个城市之一、中国民营经济重要发源地、长三角重要先进制造业基地，民营经济发展充满活力。当前，阜阳正通过实施“两化一推”，加快民营经济高质量发展，台州的经验做法值得阜阳学习借鉴。阜阳是长三角一体化区域重点城市，位于中原腹地、人力资源丰富，两地在发展上互补性很强，希望两地加强结对共建，在优化营商环境、园区建设、产业发展、“双招双引”等方面全方位合作，实现互惠共赢。', '李跃旗说，浙江和安徽，是华东地区的友好睦邻；台州和阜阳，正朝着深度融入长三角一体化的方向大步前进。下一步，台州将立足自身优势，持续加大与阜阳在政务服务、产业发展等方面的合作力度，不断拓展合作深度与领域，为两地高质量发展注入新动能。', '在台州期间，阜阳市党政考察团首先来到浙江星星冷链集成股份有限公司，得知企业通过数字改造和科技赋能不仅实现了智能制造，还从制造端向服务端延伸，孙正东说，创新是引领发展第一动力，阜阳要抢抓长三角一体化发展机遇，强化互联网思维，嫁接好创新资源，推动传统产业转型升级。在亚欧汽车制造台州有限公司、杰克缝纫机股份有限公司，孙正东说，要学习台州抢抓“双碳”发展机遇，促进制造业绿色转型；要学习台州“妈妈式”亲情服务和“码上政策”“码上诉求”“码上融资”等“码”上服务，转变观念、创新方法，持续优化营商环境。', '台州市领导叶海燕、陈伟义、芮宏、徐良平、周凌翔，市领导胡明莹、李志伟、王朝晖、章绍伟、王波等参加。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>103</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>政务资讯颍泉区召开区委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2021-06-24</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60d3e222886688a1318b456d.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['6月22日下午，颍泉区委书记虞建斌主持召开区委理论学习中心组学习会议，区委理论学习中心组成员参加。', '会上，颍泉区委副书记、区委党校校长潘江徽传达学习了习近平总书记在青海考察时重要讲话精神、在中共中央政治局第三十次集体学习时重要讲话精神、在中国科学院第二十次院士大会、中国工程院第十五次院士大会、中国科协第十次全国代表大会上的重要讲话精神，5月31日中共中央政治局会议精神；区委常委、区委宣传部部长袁亮传达学习了习近平总书记《求是》杂志重要署名文章《学好“四史”永葆初心、永担使命》《以史为镜、以史明志，知史爱党、知史爱国》；区政府副区长李保生传达学习了省市领导关于校园安全督查报告的批示精神，传达学习了省纪委《关于太和县多家医院欺诈骗取医保基金问题的通报》，并开展研讨。', '虞建斌指出，要深入学习贯彻习近平总书记在青海考察时重要讲话精神，扎实推动高质量发展，不断增强发展的内生动力。要落实好国家生态战略，推进碳达峰碳中和，打造生态文明颍泉样板。要坚持以人民为中心的发展思想，做到解群众难、安群众心、暖群众情。要做到学史崇德，崇尚对党忠诚的大德、造福人民的公德、严于律己的品德；要学习贯彻习近平总书记在中共中央政治局第三十次集体学习时重要讲话精神，提高思想认识，自觉地把外宣工作融入国家大局。要坚持守正创新，讲好颍泉故事、传播好颍泉声音、贡献好颍泉力量。要强化组织领导，抓好队伍和外宣平台建设；要学习贯彻习近平总书记在中国科学院第二十次院士大会、中国工程院第十五次院士大会、中国科协第十次全国代表大会上的重要讲话精神，大力实施人才强区战略、创新驱动发展战略，以智能制造业为突破口，加强科技创新；要学习贯彻5月31日中共中央政治局会议精神，健全完善老龄工作体系，组织实施三孩生育政策，促进人口长期均衡发展。', '虞建斌强调，学好“四史”，进一步丰富了党史学习教育的理论内涵，为深化党史学习教育指明了方向。要传承红色基因，坚决与党中央的要求对标对表，强化政治“三力”；要强化责任担当，发挥关键少数的作用，锤炼“忠诚、干净、担当”的政治品格；要有厚植为民情怀，深入开展“我为群众办实事”实践活动，着力做好就业、教育、医疗等民生实事；要注重学用结合，坚持用党史学习教育的成果来指导实践、推动工作，真正把学习成果转化为推动颍泉发展的强大动力。', '虞建斌指出，要抓好隐患排查化解，突出重要路段、重要时段、重要环节，落实落细各类防护措施，有效化解风险；要强化安全教育监管，帮助广大学生增强安全意识，督促家长增强安全观念和责任观念；要压实齐抓共管责任，党委、政府要切实扛起属地责任，做到抓在经常、严在日常、实在平常。政法、公安等部门要认真履行监管责任，树立“一盘棋”思想，扎紧织密校园安全防护网络。', '虞建斌强调，以案为鉴，必须强化政治引领，要从坚持从践行“两个维护”的政治高度看待和纠治问题，做到警钟长鸣、警惕常在；以案为鉴，必须强化宗旨意识，要以“我为群众办实事” 实践活动为抓手，用心用情用力解决好群众的操心事、烦心事、揪心事；以案为鉴，必须强化责任担当，各级党员干部要出实招、干实事、求实效，切实做到知责尽责、担当作为；以案为鉴，必须强化作风保障，要全面查摆、彻底整改、举一反三，一体推进学党史、抓整改、正作风等重点工作，以优异成绩庆祝中国共产党成立100周年。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>103</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>政务资讯孙正东主持召开市委常委会会议暨市委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60cbe94b886688fb788b4570.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['6月17日，市委书记孙正东主持召开市委常委会会议暨市委理论学习中心组学习会议，学习习近平总书记考察青海重要讲话精神和《中国共产党简史》改革开放时期历史，并围绕“学史崇德”主题，开展交流研讨。市领导刘玉杰、胡明莹、李志伟、王玉峰、王朝晖、张家忠、章绍伟、王波等参加会议。', '会议强调，要结合阜阳实际，全面贯彻落实习近平总书记在青海考察时的重要讲话精神，坚持绿色低碳发展，利用长三角和中原城市群“双桥头堡”的区位优势、铁公机水四位一体的交通优势、皖北承接产业转移集聚区的政策优势、千万人口及辐射周边消费的人口优势和“百亿粮仓”种养循环的农业优势，加快建设绿色低碳的皖豫省际区域性中心城市、国家物流枢纽承载城市、中原地区新兴制造业和新能源基地、区域性绿色消费中心、长三角绿色农产品生产加工供应基地，走一条具有阜阳特色的高质量发展之路。要坚持人民情怀，切实服务好群众、企业、基层公务人员，认真解决好人民群众的急难愁盼事、构建“亲”“清”政商关系、调动基层干部的积极性。', '会议要求，要在党史学习教育中涵养和崇尚对党忠诚的大德，坚定理想信念，加强党性修养，以实际行动坚决把党中央及省委各项决策部署落到实处。要在党史学习教育中涵养和崇尚造福人民的公德，站稳群众立场，坚守人民情怀，真正听取群众呼声，真情关心群众疾苦，真心维护群众利益。要在党史学习教育中涵养和崇尚严于律己的品德，做到严以修身、严以用权、严以律己。', '会议强调，当前党史学习教育正处于纵深推进的关键时期，要牢牢把握深化理论武装这个根本任务，推深做实“我为群众办实事”实践活动，把开展党史学习教育同落实好习近平总书记重要讲话指示批示精神、“十四五”规划重点任务和统筹疫情防控与经济社会发展结合起来，以党史学习教育的新进展新成效迎接建党100周年。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>103</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>政务资讯习近平主持中共中央政治局第三十一次集体学习并发表重要讲话</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2021-06-27</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60d912e288668870568b4568.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['新华社北京6月26日电 在庆祝中国共产党成立100周年之际，中共中央政治局6月25日下午就用好红色资源、赓续红色血脉进行第三十一次集体学习。中共中央总书记习近平在主持学习时强调，红色资源是我们党艰辛而辉煌奋斗历程的见证，是最宝贵的精神财富。红色血脉是中国共产党政治本色的集中体现，是新时代中国共产党人的精神力量源泉。回望过往历程，眺望前方征途，我们必须始终赓续红色血脉，用党的奋斗历程和伟大成就鼓舞斗志、指引方向，用党的光荣传统和优良作风坚定信念、凝聚力量，用党的历史经验和实践创造启迪智慧、砥砺品格，继往开来，开拓前进，把革命先烈流血牺牲打下的红色江山守护好、建设好，努力创造不负革命先辈期望、无愧于历史和人民的新业绩。', '这次集体学习是中央政治局带头开展党史学习教育的一项重要安排，采取参观和讨论相结合的形式进行。', '6月25日，中共中央政治局就用好红色资源、赓续红色血脉举行第三十一次集体学习。这次集体学习采取参观和讨论相结合的形式，这是习近平、李克强、栗战书、汪洋、王沪宁、赵乐际、韩正等在北大红楼参观“光辉伟业 红色序章——北大红楼与中国共产党早期北京革命活动主题展”。新华社记者 谢环驰 摄', '25日下午，习近平带领中央政治局同志来到北大红楼，参观“光辉伟业 红色序章——北大红楼与中国共产党早期北京革命活动主题展”，重温李大钊、陈独秀等开展革命活动、推动马克思主义在中国早期传播、酝酿和筹建中国共产党等革命历史。展厅内，一张张图片、一件件文物，全面展现了那个时期的光辉历史。习近平不时停下脚步，询问相关细节。他指出，北大是新文化运动的中心和五四运动的策源地，最早在我国传播马克思主义思想，也是我们党在北京早期革命活动的历史见证地，在建党过程中具有重要地位。要加强红色资源保护和利用，尊重历史事实，准确评价历史，正确学史用史。', '6月25日，中共中央政治局就用好红色资源、赓续红色血脉举行第三十一次集体学习。这次集体学习采取参观和讨论相结合的形式，这是习近平、李克强、栗战书、汪洋、王沪宁、赵乐际、韩正等在中南海丰泽园参观毛泽东同志故居。新华社记者 鞠鹏 摄', '丰泽园毛泽东同志故居，是毛泽东同志从1949年9月21日开始工作和生活了17年的地方。毛泽东同志在这里筹划了新中国建立和建设的一系列大政方略。习近平带领中央政治局同志来到这里参观瞻仰，察看颐年堂大厅现场展陈，观看毛泽东同志在丰泽园工作生活的影像短片，回顾毛泽东同志在这里主持召开的重要会议、作出的重大决策、会见的重要外宾，参观毛泽东同志办公区、会议室和藏书室，仔细察看毛泽东同志批改过的重要文件、阅读过的书籍、穿过的衣物、使用过的日常用品和书信、手稿、照片等，追忆毛泽东同志的卓越功勋和崇高风范。习近平强调，北大红楼和丰泽园在党的历史上都具有标志性意义，生动诠释了中国共产党是怎么来的、中华人民共和国是怎么来的，给我们上了一堂鲜活而又生动的党史课。', '6月25日，中共中央政治局就用好红色资源、赓续红色血脉举行第三十一次集体学习。这次集体学习采取参观和讨论相结合的形式，这是习近平、李克强、栗战书、汪洋、王沪宁、赵乐际、韩正等在中南海丰泽园参观毛泽东同志故居。新华社记者 李学仁 摄', '参观结束后，习近平等回到中南海怀仁堂，围绕主题进一步开展学习。习近平在主持学习时发表了重要讲话。他指出，红色是中国共产党、中华人民共和国最鲜亮的底色，在我国960多万平方公里的广袤大地上红色资源星罗棋布，在我们党团结带领中国人民进行百年奋斗的伟大历程中红色血脉代代相传。每一个历史事件、每一位革命英雄、每一种革命精神、每一件革命文物，都代表着我们党走过的光辉历程、取得的重大成就，展现了我们党的梦想和追求、情怀和担当、牺牲和奉献，汇聚成我们党的红色血脉。', '习近平表示，党的十八大以来，我到地方考察，都要瞻仰对我们党具有重大历史意义的革命圣地、红色旧址、革命历史纪念场所，主要的基本上都走到了。每到一地，重温那一段段峥嵘岁月，回顾党一路走过的艰难历程，灵魂都受到一次震撼，精神都受到一次洗礼。每次都是怀着崇敬之心去，带着许多感悟回。', '习近平强调，要教育引导全党始终坚持科学理论指导。马克思主义在中国的广泛传播催生了中国共产党，马克思主义使我们党拥有了科学的世界观和方法论，拥有了认识世界、改造世界的强大思想武器。一百年来，我们党坚持把马克思主义基本原理同中国具体实际相结合，创立了毛泽东思想、邓小平理论，形成了“三个代表”重要思想、科学发展观，创立了新时代中国特色社会主义思想，指导党和人民事业不断开创新局。中国共产党为什么能，中国特色社会主义为什么好，从根本上说，是因为马克思主义行。我们要从党的百年奋斗史中感悟真理的力量，不断深化对共产党执政规律、社会主义建设规律、人类社会发展规律的认识，用马克思主义的真理光芒照耀我们的前行之路。', '习近平指出，要教育引导全党始终坚持理想信念。革命理想高于天，回望百年党史，千千万万共产党人为了理想信念不惜抛头颅、洒鲜血。共产主义是我们党的远大理想，为了实现这个远大理想，就必须坚定中国特色社会主义信念。全党同志要增强“四个意识”、坚定“四个自信”，在全面建设社会主义现代化国家新征程上披荆斩棘、奋力前行，不断夺取新时代中国特色社会主义新胜利。', '习近平强调，要教育引导全党始终坚持初心使命。牢记和践行为中国人民谋幸福、为中华民族谋复兴的初心使命，是贯穿我们党百年奋斗史的一条红线。江山就是人民，人民就是江山，打江山、守江山，守的是人民的心，对我们这样一个长期执政的党而言，没有比忘记初心使命、脱离群众更大的危险。全党同志要从党的百年奋斗史中不断体悟初心使命，贯彻好以人民为中心的发展思想，矢志不渝为实现中华民族伟大复兴而奋斗。', '习近平指出，要教育引导全党始终坚持光荣革命传统。党的伟大精神和光荣传统是我们的宝贵精神财富，是激励我们奋勇前进的强大精神动力。当今中国正处于实现中华民族伟大复兴关键时期，国家强盛、民族复兴需要物质文明的积累，更需要精神文明的升华，决不能丢掉革命加拼命的精神，决不能丢掉谦虚谨慎、戒骄戒躁、艰苦奋斗、勤俭节约的传统，决不能丢掉不畏强敌、不惧风险、敢于斗争、敢于胜利的勇气。全党同志要用党在百年奋斗中形成的伟大精神滋养自己、激励自己，以昂扬的精神状态做好党和国家各项工作。', '习近平强调，要教育引导全党始终坚持推进自我革命。我们党历经百年沧桑依然风华正茂，其奥秘就在于具有自我净化、自我完善、自我革新、自我提高的强大能力，自我革命精神是党的执政能力的强大支撑。全党同志要增强忧患意识，以永远在路上的坚定执着将全面从严治党向纵深推进，严于律己，不断提高政治判断力、政治领悟力、政治执行力，始终做一名合格的共产党员，为把党建设得更加坚强有力作出应有的努力。', '习近平指出，要用心用情用力保护好、管理好、运用好红色资源。要深入开展红色资源专项调查，加强科学保护。要开展系统研究，准确把握党的历史发展的主题主线、主流本质，旗帜鲜明反对和抵制历史虚无主义。要打造精品展陈，坚持政治性、思想性、艺术性相统一，用史实说话，增强表现力、传播力、影响力，生动传播红色文化。要强化教育功能，围绕革命、建设、改革各个历史时期的重大事件、重大节点，研究确定一批重要标识地，讲好党的故事、革命的故事、英雄的故事，设计符合青少年认知特点的教育活动，建设富有特色的革命传统教育、爱国主义教育、青少年思想道德教育基地，引导他们从小在心里树立红色理想。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>103</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>政务资讯市统计局召开党史学习教育第二次专题研讨会</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60bd6f94886688130c8b4567.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['6月4日，市统计局围绕习近平总书记在党史学习教育动员大会和广西考察的重要讲话精神，召开了党史学习教育第二次专题研讨会。局党组书记、局长顾中伟主持会议，市委党史学习教育第六巡回指导组组长訾冬青到会指导。', '指导组充分肯定了这次专题研讨会，认为研讨交流准备充分，思想认识深刻。指导组指出，下步党史学习教育要进一步聚焦核心要义，全面落实“学党史、悟思想、办实事、开新局”部署要求，真正做到“学习明理、学史增信、学史崇德、学史力行”，强化统筹兼顾，丰富学习载体，推动“我为群众办实事”落在实处，做到党史学习教育和统计工作双促进、双丰收。', '顾中伟强调，要认真落实市委党史学习教育第六巡回指导组指导意见，提高政治站位，把党史学习教育作为机关干部的必修课，切实树立正确价值取向，激发工作热情；要做到系统深入，把学深悟透贯穿党史学习教育的始终，真正领悟精神要义，把握实质内涵；要常态化学习，把党史学习作为长期坚持的任务，继续发扬统计部门优良学习传统，持之以恒，常学常新；要统筹推进，把党史学习教育与统计工作有机结合，强化经济运行预判分析，加强统计基层基础工作，提升统计数据质量，为市委市政府科学决策当好参谋助手，为建设新阶段实力阜阳大美阜阳贡献统计力量！']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>103</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>政务资讯习近平总书记考察青海纪实高天厚土铺展大美画卷</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2021-06-12</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60c7f272886688015c8b4570.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['青海，屹立世界屋脊，北依巍巍祁连、中贯莽莽昆仑、南峙唐古拉山，承担着保护“中华水塔”、三江源的重大使命，是中国乃至东亚的重要生态安全屏障。', '青海，也是一片团结热土。在这个我国少数民族人口比例较高的省，各民族手足相亲、交流交融，率先创建民族团结进步示范省，不断筑牢民族团结的生命线，推动各民族共同团结奋斗、共同繁荣发展。', '“十四五”开局之年，建党百年之际，6月7日至9日，习近平总书记踏上高原，看企业、访社区、进农村、考察自然保护区，发表重要讲话，为推进青藏高原生态保护和高质量发展指明方向。', '一块块不同规格、不同颜色的藏毯挂满展示墙，上面编织着字符、花鸟、风景等各类图案，写实的、抽象的，传统的、现代的，花样精美，令人目不暇接。', '近年来，正是依托优质原料、独特民族风格和精湛制作工艺，一块块藏毯走下高原、走向世界。', '“我们公司最大的特点是生产原料90%以上都是天然的。”企业负责人介绍，他们采用的都是产自青海的天然绵羊毛，俗称“西宁大白毛”，还有优质牦牛毛，织出的藏毯不仅坚韧耐磨，还绿色环保。', '走到原料展柜前，总书记拿起黑色的牦牛毛、洁白的绵羊毛，用手指轻轻揉捏，“感觉确实不错”。', '“现在很多人都喜欢在家里挂毯，显得有艺术氛围。这些年市场越来越好，国内国外需求量都很大。”这家企业产品远销欧美、中东等40多个国家和地区，去年实现产值4200万元。', '在青藏高原，编织藏毯已有千年历史，通过代代相传、改进创新，既保留了传统技艺，也焕发了新的风采。2006年，“加牙藏族织毯技艺”被列入国家级非物质文化遗产名录。', '企业负责人告诉总书记，他们公司绝大多数职工都是本地的，高中以下学历占80%以上。“很多住在附近的家庭主妇，来企业接受培训，三五年之后就能成长为熟练技工，平均月工资可达到四五千元。”', '“发展产业就是要带动就业。”总书记点头表示肯定，“从这点来看，藏毯产业不仅有扶贫致富、推进乡村振兴的作用，还有促进民族团结的作用。”', '“百闻不如一见啊。”离开公司时，面对围拢过来的企业职工，习近平总书记这样谈及感受，“藏毯是我们藏族一个很有特色的产业，你们企业在这个领域打出了品牌，很好地把传统工艺和现代工艺结合在一起，契合了个性化、多样化的市场需求。”', '总书记进一步强调，推动高质量发展，要善于抓最具特色的产业、最具活力的企业，以特色产业培育优质企业，以企业发展带动产业提升。希望青海发展更多这样符合地方实际的特色产业，靠创新实现更好发展。', '“我到地方考察，总要到农村、城市社区，看看人民群众生活得怎么样，有什么好的经验可以交流推广，有什么操心事、烦心事需要我们解决。”', '这是一个人口密集的大社区，有住宅小区13个，居民2.2万多人；这也是一个多民族聚居的社区，有藏、回、蒙古、撒拉等少数民族居民1000多人。', '社区党委书记刘翠青向总书记汇报，这些年来，社区紧紧抓住“和睦”这两个字，以“五融五筑·和睦家”品牌建设为主线，将辖区内省、市、区、街道、社区五级党组织联系在一起，形成事务共商、活动共办、服务共做、党员共育、阵地共用的联动大党建格局。', '走进社区综合服务中心，一派其乐融融的景象：书画室、舞蹈室、阅览室、康复室等一应俱全，歌声悠扬、翰墨飘香。', '“不同对象有不同优惠，一荤两素市场价18元，60岁以上老人享受幸福价6元，80岁以上享受高龄价3元，其中属于低保、特困等四类老人只要1元。”刘翠青一一道来。', '“咱们这里又方便又干净，中央厨房统一配送，每种饭菜都要留样检验，保障食品安全。”刘翠青自豪地说，“现在每天有40多位老人用餐，他们中有不少独居老人。有一位老人激动地说，社会主义好啊，这辈子赶上了！”', '“社会主义的幸福生活就应该是这样。”习近平总书记勉励道，“你们做得很好。敬老尊贤，这是我们的优良传统。”', '社区综合服务中心一层阅览室里，刚刚放学的孩子们正在“四点半课堂”写作业、做手工。临近端午，桌上摆着五颜六色的纸龙舟和香包，总书记看了直夸孩子们手艺好。', '习近平总书记指出：“首先这件事要由学校来办，学校不能把学生的课后时间全部推到社会上去。学生基本的学习，学校里的老师应该承担起来。不能在学校里不去做，反而出去搞校外培训了，这样就本末倒置了。现在教育部门正在纠正这种现象。”', '总书记进一步指出：“当然，如果孩子们还有时间精力，来到社区里，引导他们做一些符合兴趣的事情，这种形式也很好。”', '“歌之缘合唱团”正在这里排练献礼“七一”的红色歌曲。61岁的卓玛才仁站在第一排，用高扬优美的藏语领唱：“北京的金山上光芒照四方……”', '总书记带头鼓起掌来：“《北京的金山上》这首歌唱出人民群众特别是藏族同胞，对党、对祖国、对社会主义的热爱，这个歌在‘七一’的时候唱很有意义。”', '习近平总书记对大家说：“一个社区要搞好，一定要有非常强的党组织领导的基层组织，把社区各方面服务搞周到，把群众自治性的事情组织好。”', '“安居才能乐业，幸福的日子还在后头。”看着人群中的孩子们，总书记面带笑容，“等这一批小家伙长大的时候，我们的国家又不一样了，我们人民的生活又会上一个水平。从现在开始，为了人民生活得更加幸福，我们再接再厉！”', '“青海最大的价值在生态、最大的责任在生态、最大的潜力也在生态”。2016年，习近平总书记考察青海作出的这一重要指示，至今依然振聋发聩。', '从西宁出发，乘火车、转汽车，8日下午，习近平总书记来到海拔3200多米的青海湖仙女湾，实地考察这里的生态环境保护情况。', '仙女湾位于青海湖西北侧，属于青海湖国家级自然保护区的实验区。夏日的阳光洒在宽阔的湖面上，波光粼粼，一望无际。', '当地有关负责同志告诉总书记，近15年来，青海湖水位上升了3米多、面积扩大了300多平方公里。', '青海湖水位持续上涨，有利于周边气候变湿变暖，在一定程度上改善了当地野生动植物和鸟类栖息环境以及整个环湖地区的生态环境。', '从仙女湾远眺四周，水系、滩涂、水生植物等生态景观类型丰富，碧波荡漾，飞鸟翔集，呈现出典型的湿地风貌。', '“这里水质怎么样？”“鸟类有多少种？”“禁渔是怎么搞的？”围绕青海湖生态环境现状和保护工作，总书记问得很细。', '3个月前，全国两会，青海代表团审议现场，从小生长在祁连山脚下海北州门源县的孔庆菊代表，向总书记介绍了近年来祁连山南麓生态环境的变迁。', '这次，站在青海湖边，遥望巍巍祁连，习近平总书记专门听取了青海省关于祁连山自然生态情况的汇报，特别关注询问祁连山冰川同青海湖水源之间的联系情况。', '沿着木栈道，习近平总书记步行察看周边环境：远山如黛，碧水无垠，草原上牛羊成群，天空中飞鸟翱翔……', '“看到这样的景象，总会想起王洛宾在青海创作的那首民歌《在那遥远的地方》。正是充分吸收了这里的精华养分，他才为人类艺术宝库增添了这样美好的作品。”', '习近平总书记强调，生态是资源和财富，是我们的宝藏。环顾四周，他反复叮嘱当地党政负责同志，青海在生态文明方面的战略位置非常重要，分量很重。要把青海生态文明建设好、生态资源保护好。', '9日上午，在听取青海省委和省政府工作汇报时，习近平总书记谈到党中央下决心保护青海生态环境的战略考量。', '他指出，进入新发展阶段、贯彻新发展理念、构建新发展格局，青海的生态安全地位、国土安全地位、资源能源安全地位显得更加重要。', '“保护好青海生态环境，是‘国之大者’。”习近平总书记强调，青海是维护国家生态安全的战略要地，要承担好维护生态安全、保护三江源、保护“中华水塔”的重大使命。', '习近平总书记强调，青海有青海的特点，必须根据自身实际在全国大局中找准自己的定位。青海90%以上国土属于限制开发区或禁止开发区，必须牢固树立绿水青山就是金山银山理念，把生态环境保护作为高质量发展的基本前提和刚性约束。', '对此，习近平总书记表示肯定：“我注意到你们加了个‘冰’字，体现了青海生态的特殊性。这个‘冰’字也不是所有地方都可以加的。”', '2014年8月、9月，习近平总书记对青海祁连山自然保护区和木里矿区破坏性开采作出批示。', '这次在听取青海省委和省政府工作汇报时，习近平总书记再次强调，木里问题要抓好整改，不留尾巴、不留遗憾。今后，这类问题发现一起查处一起，不能搞下不为例。', '刚察县沙柳河镇果洛藏贡麻村，一个藏族牧业村。在政府帮助下，牧民们从远处的草场搬迁安置到这里。', '“欢迎总书记！”50岁的村民索南才让带着一家三代站在家门口，向总书记献上洁白的哈达。', '索南才让5个月的小外孙尚在襁褓中，总书记见了十分喜欢：“小家伙长得很漂亮，看着很聪明。”', '走进卧室、客厅，看到屋里装着吊顶、贴了墙纸，衣柜、电视机等家具家电齐全，总书记笑着说：“家里头布置得很精致。”', '索南才让拿出一张老照片给总书记看，那是在17公里外草场上的老房子，两间低矮的土坯房。', '索南才让告诉总书记，2014年底，政府补贴4.7万元、自付1.5万元，一家人住进了这个宽敞的砖瓦房小院。', '索南才让给总书记算起了细账：除去这些固定工资收入，家里还有80只羊、20头牛，去年仅出售牛羊就赚了2.5万元……', '这么一问，索南才让也不知怎么回答，只是一个劲儿地说：“没有了、没有了。”大家都笑了起来。', '“牧民生活好，全靠党的政策好，衷心感谢党、衷心感谢总书记。”朴实的话语，道出了真挚的心声。', '总书记感慨地说：“中国共产党成立一百年了，我们这个党能够发展壮大起来不容易，夺取政权不容易，建设新中国不容易。为什么老百姓衷心拥护中国共产党？因为我们党始终全心全意为人民服务、为各民族谋幸福。”', '“长征的时候，红军路过少数民族居住地区，和我们的少数民族同胞，就像兄弟姐妹一样，留下了很多美丽的故事。”总书记接着说，“现在，我们共产党的各级干部到哪都要问一声乡亲们：还想过什么样的好生活？更好的生活，我们一起来推动、来实现。”', '“总书记好！习主席好！”索南才让家门口的道路两旁，早已围满了村民，大家纷纷捧出洁白的哈达，热烈地鼓掌，高声向总书记问好。', '面对热情的乡亲们，总书记深情同大家说：“看到你们感到很高兴、很亲切，我们都是一家人，都是兄弟姐妹。看到你们村子变化很大，大家过得很幸福，我们很欣慰，能感受到大家对党和政府的深情厚谊。”', '“维族同胞说我们要像石榴籽一样抱在一起，这个词很形象。各民族就要像石榴籽一样紧紧抱在一起，我们都是中华民族共同体的一分子。”', '“现在，我们即将实现第一个百年奋斗目标，下一个百年奋斗目标就在前面。我相信，到新中国成立一百年时，中华民族一定能够更加坚强地屹立于世界民族之林。到那个时候，一个幸福的国家、一个现代化的国家，一定会建设起来。”']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>103</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>信息公开市经济和信息化局组织第二批企业赴上海学习考察工业互联网发展经验</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/openness/detail/content/613ba7c188668884668b4584.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['为进一步推动我市企业与国内工业互联网领军企业开展深入合作，促进企业数字化、网络化、智能化转型升级，6月8日至9日，市经济和信息化局组织颍泉区、临泉县、阜南县、颍上县、阜合现代产业园23家企业负责人和经信系统负责人赴上海学习考察工业互联网发展经验和做法。', '6月8日，考察团来到海尔数字科技(上海)有限公司，首先参观了海尔卡奥斯COSMOPlat工业互联网创新应用体验中心，随后卡奥斯有关专家就“工业互联网与企业数字化转型”、“卡奥斯工业互联网行业实践”展开主题分享，最后，企业家们与海尔卡奥斯有关专家进行了座谈，企业家们就当前企业在数字化、网络化、智能化转型升级中遇到的难点、痛点、症点问题同专家进行了深入交流。部分企业家邀请海尔卡奥斯专家近期到企业进行调研诊断。', '6月9日上午，考察团来到中国联通南方基地。中国联通上海分公司专家在“聚焦四大行业领域提供多行业、多场景解决方案”、“打造工业互联网平台”等方面分享了案例和经验，并与考察团进行了座谈交流。下午，考察团在中国移动（上海）产业研究院实地参观了中国移动近年来在“5G+”方面取得的成果，该院专家围绕“5G+区域工业互联网平台”和“5G+智慧工厂”建设开展了主题讲座。', '下一步，市经济和信息化局将继续推动我市企业与海尔卡奥斯等国内先进工业互联网企业深度对接，促进双方务实合作，助推我市工业互联网创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>103</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>政务资讯颍泉区召开区委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60b6d7ce886688c2598b4569.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['5月31日上午，颍泉区委书记虞建斌主持召开区委理论学习中心组学习会议，区委理论学习中心组成员参加。', '会上，区委常委、区委宣传部部长兰玉传达学习了习近平总书记给《文史哲》编辑部全体编辑人员回信精神、向世界马克思主义政党理论研讨会致贺信精神、习近平总书记《求是》杂志署名文章《用好红色资源，传承好红色基因 把红色江山世世代代传下去》；区委常委、区委办公室主任、区总工会主席武亚东领学《中国共产党机要密码工作条例》；区委常委、区委组织部部长、区委统战部部长，区政协党组副书记李金刚领学了《论中国共产党历史》等党史必读书目部分章节、《阜阳市党员干部“八小时以外”行为监督管理暂行办法》。与会同志围绕“学史增信”这一主题进行了交流研讨。', '虞建斌指出，习近平总书记在回信中，对70年来《文史哲》在弘扬中华文明、繁荣学术研究方面给予充分肯定，就办好高质量的学术期刊提出了新的更高要求，为繁荣发展哲学社会科学进一步指明了方向、提供了根本遵循。我们要深入学习领会，抓好哲学社会科学工作、传承好中华文明、弘扬好中华优秀传统文化。', '虞建斌强调，习近平总书记在贺信中，高度概括了马克思主义对人类社会发展的重要意义，鲜明阐述了马克思主义发展迎来的时代机遇，深刻指出了马克思主义对我们党和国家发展的指导作用。我们必须长期坚持并不断发展，切实用以武装头脑、指导实践、推动工作。', '虞建斌指出，学习习近平总书记这篇重要文章，重温一段段壮怀激烈的峥嵘岁月，感悟党一路走来的苦难辉煌，对于我们更加深刻了解和认识党的百年历史，昂扬奋进全面建设社会主义现代化国家新征程，具有十分重要的意义。要把学习同落实习近平总书记考察安徽重要讲话精神结合起来，充分挖掘和用好“四九”红色资源，开展好革命传统、爱国主义和思想道德教育，让红色基因代代相传、伟大事业薪火相传。', '虞建斌要求，要认真贯彻落实习近平总书记总体国家安全观要求，充分认识《中国共产党机要密码工作条例》的重要意义，准确把握《条例》的精神实质，切实落实政治责任，不断完善机要密码保障体系和能力建设。', '虞建斌指出，要认真贯彻落实《阜阳市党员干部“八小时以外”行为监督管理暂行办法》。要把握监管重点，突出重点人员、重要环节、 重点时期；要汇聚监督合力，充分发挥党内同级监督、纪检监察监督、媒体监管、群众监督的作用；要建立长效机制，严格执行重大事项请示报告制度、探索实行廉政教育、健全惩处问责机制。', '虞建斌强调，习近平总书记在广西考察时强调，“学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量”。做到学史增信，我们就是要从党的百年奋斗史中感悟信仰力量，把牢政治方向，强化理论武装；要从党的光辉历程中增强理想信念，坚定“四个自信”，保持战略定力，汇聚奋进合力；要从党取得的辉煌成就中树牢信心，汲取智慧和力量，以昂扬的状态和奋斗姿态建功新时代，奋斗新征程。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>103</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>政务资讯颍东区委理论学习中心组召开第十二次集体学习会议</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2021-05-26</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60ada5cf886688ee148b456d.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['5月24日下午，颍东区委理论学习中心组召开第十二次集体学习会议，颍东区委书记张俊杰主持会议并讲话。', '会议集中学习了习近平同志《论中国共产党历史》、习近平总书记在中央政治局第二十九次集体学习时的重要讲话和李锦斌在省党政代表团赴沪苏浙学习考察总结交流会上的讲话精神等内容，部分中心组成员作交流研讨发言。', '张俊杰强调，要抓学习，感悟思想伟力，切实把学习成果转化为悟思想、办实事、开新局的实际行动，推动“我为群众办实事”活动见实见效。要抓统筹，一体协同推进，加大“双招双引”力度，加快推进项目建设，持续优化营商环境，确保经济平稳健康运行，突出抓好秸秆禁烧、中央环保督察反馈问题整改等，切实推动重点工作落实落地。要抓作风，从严管党治党，抓思想作风，在“准”上下功夫；抓监督教育，在“实”上下功夫；抓查处治理，在“严”上下功夫，切实推动政治生态持续向上向好。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>103</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>政务资讯蒙城县党政考察团到临泉县考察调研</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60b600538866886e548b4571.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['在老集镇兄弟蔬果专业合作社、杨桥镇天邦股份500万头生猪屠宰及深加工建设项目现场、中原牧场冷鲜城、中原牧场牛羊交易大市场，孔祥永一行听取了临泉县农业发展、园区建设、冷链物流等工作的介绍，实地了解“合作社+基地+农户+市场”发展模式、生猪养殖专业化项目、冷链物流产业链的各环节情况，并就土地流转、政策扶持、特色小镇、项目引进等问题进行了探讨交流。孔祥永认为，大力发展现代农业养殖业，坚持以市场为导向，以科技为支撑，以基地为依托，贯通生产、批发、储存、物流等各个环节，打造完整的冷链物流产业链，实现产业全聚集效应，为临泉发展经济、促进农业增效、农民增收、农村增活力创造了更多可能性。', '随后，孔祥永一行实地参观了市民活动中心、中环格林童话世界，博物馆展现着千年古沈、姜尚故里的辉煌历史，格林童话世界科普研学、文化体验、主题游乐、亲子互动和休闲度假亮点纷呈。梁永勤介绍到，城市管理、文旅项目建设是系统工程，要稳扎稳打、循序渐进，当前临泉县也在积极探索，通过开放管理平台、畅通管理渠道，积极吸纳人民群众参与其中，充分发挥人民群众的智慧力量，实现人人参与、人人尽力、人人共享；积极推进城市精细化管理与文旅市场繁荣相得益彰，丰富市民的文化娱乐生活，展现临泉的丰厚文化底蕴，争取成为临泉文化的一扇新窗口。', '考察中，梁永勤代表临泉县对蒙城县党政考察团表示欢迎，希望友谊之树常青，加强沟通、密切往来，通过资源共享、优势互补，推进两地经贸合作、行业协作、企业对接，合作共赢、共同发展。孔祥永表示，临泉县发展思路清晰、措施有力，特别是狠抓企业培植，促进农业发展，大力实施城市管理、文旅项目惠及民生，推动经济社会发展提质增效等方面形成的好经验好做法，值得蒙城县学习借鉴，并简要介绍了蒙城县经济社会发展情况，争取在更大范围和更宽领域内开展合作，实现共赢发展、携手共进。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>103</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>政务资讯市交通运输局党组理论学习中心组学习扩大会议召开</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2021-05-25</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60aca138886688560d8b456b.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['5月24日上午，市交通运输局党组书记、局长笪乘胜主持召开市交通运输局党组理论学习中心组学习（扩大）会议。局领导班子成员，三区交通运输分局、局属二级机构，市公交总公司、市通达交通服务有限公司，局机关各科室主要负责人参加会议。', '会上，与会人员集中学习了《中国共产党简史》、《习近平新时代中国特色社会主义思想学习问答》部分章节，习近平总书记在推进南水北调后续工程高质量发展座谈会上的讲话，传达了全国、省委、市委宣传部长会和中央、省委、市委深改会以及省委、市委常委会暨疫情防控领导小组会议精神和《阜阳市党员干部“八小时以外”行为监督管理暂行办法》。', '笪乘胜要求，一要加强学习、用心领会《中国共产党简史》内容，切实增强在工作中践行初心使命的政治自觉、思想自觉和行动自觉。二要坚持不懈、全面系统、联系实际学习习近平新时代中国特色社会主义思想的指导地位、时代背景等内容，用以武装头脑、指导实践、推动工作，真正做到学懂弄通做实。三要认真抓好交通运输水污染防治，时刻保持高度警醒，坚决履行好行业监管责任，压实企业主体责任，常态化做好船舶和港口码头污染防治和非法加油船整治工作。四要持续深化行业体制机制改革，既要做好执法改革的后续工作，加强队伍建设，提升执法工作和行业治理质量和水平，也要加快推进事业单位分类改革和城乡公交一体化改造，让体制机制更加适应行业发展需要。五要毫不放松抓好疫情防控工作，要始终保持高度警惕和严防态势，绷紧防控之弦，落实落细机场、高铁站、火车站、客运站、渡口、城市公共交通、冷链物流运输等关键场所和环节的常态化疫情防控措施，加快推进交通运输从业人员疫苗接种工作，确保“外防输入、内防反弹”各项任务能够严格落实到位。六要深刻领会《阜阳市党员干部“八小时以外”行为监督管理暂行办法》文件精神，要以身作则，严格约束自身“八小时以外”的言行，主动接受监督，带头树立良好的家风；要加强对党员干部的教育管理，对“八小时以外”的苗头性倾向性问题早提醒、早纠正，避免小问题酿成大错误；要强化监督，注重对党员干部“八小时以外”行为的考察了解，严格执纪，对违纪违规问题要严肃处理问责，营造风清气正的社会氛围。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>103</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>政务资讯市医保局召开党组中心组学习扩大会议</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2021-05-25</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60ac66cb886688410b8b4567.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['5月24日，市医保局召开党组中心组学习（扩大）会议，深入学习了习近平总书记在中共中央政治局第二十九次集体学习时的重要讲话精神等内容，局党组书记、局长杨汇汇主持会议并部署贯彻落实工作，局党组成员、二级调研员、各科室负责人、二级机构负责人参加会议。', '会议深入学习了习近平总书记在中共中央政治局第二十九次集体学习时的重要讲话精神；学习了中共中央、国务院《关于新时代推动中部地区高质量发展的意见》；认真学习了中共中央办公厅关于《党委（党组）落实全面从严治党主体责任规定》、《中华人民共和国反食品浪费法》；传达学习了《市委党史学习教育领导小组转发中央党史学习教育领导小组关于认真学习贯彻习近平总书记在广西考察期间重要讲话精神的通知》和《阜阳市公职人员政商交往负面清单》；学习了《习近平新时代中国特色社会主义思想学习问答》、《中国共产党简史》部分章节', '会议指出，习近平总书记在中央政治局第二十九次集体学习时的重要讲话，深刻阐释了生态环境保护和经济发展辩证统一、相辅相成的关系，要深入学习领会习近平生态文明思想，增强节约意识、环保意识、生态意识，把建设美丽中国转化为全体人民自觉行动。要充分认识新时代推动中部地区高质量发展的重大意义，深刻把握阜阳定位，结合我市医保工作实际，担当实干，谋划好前进路径、发展载体、创新举措，学习好、领会好、运用好《意见》精神，切实将党中央决策部署落实到位。', '会议强调，《党委(党组)落实全面从严治党主体责任规定》是党中央健全全面从严治党责任制度的重要举措，各级党组织和党员领导干部要持续引深学习贯彻，把思想行动统一到中央精神和《规定》要求上来，按照《规定》内容各司其职、各负其责。局党组要带头践行全面从严治党主体责任，党组成员要带头抓好分管领域主体责任落实，发挥好“头雁效应”，共同担起全面从严治党的责任，以更科学更有效的举措，强化政治监督，助推医疗保障事业健康发展。', '会议要求，要突出党史学习这个重点，持续在深学真学上下功夫，引导医保系统党员干部学党史、悟思想、办实事、开新局。要把党史学习教育的学习成效落实到医保为民服务的实际行动上，充分认识到“我为群众办实事”实践活动是检验党史学习教育成效的重要载体；要找准“我为群众办实事”的切入点和落脚点，用科学的理念和方法解难题、促发展、惠民生，切实解决好医保领域群众的“急难愁盼”问题，确保党史学习教育取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>103</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>政务资讯市林业局开展月份党建集中学习</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2021-05-20</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60a61cac8866886d5f8b456b.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['会议学习了《中国共产党问责条例》《中国共产党党员教育管理工作条例》，学习了习近平总书记关于力戒形式主义官僚主义、全面从严治党、青年工作和中国梦等方面的重要论述，学习了习近平总书记在清华大学考察时的重要讲话精神，开展了家风家教教育，诵读了《红色家书》部分篇章，观看了形势与政策教育视频《抗疫大考的中国答卷》和党性教育专题片《赤胆铸忠魂》。与会人员结合所学内容，围绕“学史崇德”开展研讨。', '会议要求，一要持续学习习近平总书记重要讲话和指示精神，深刻领悟、掌握并用以指导实践。二要加强作风纪律教育，强化底线思维，自觉做到遵章守纪。三要深化学习教育与林业工作相结合，有力助推林业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>103</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>政务资讯市林业局举办党史学习教育专题读书班</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2021-05-20</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60a61c318866886c5f8b456d.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['5月17日至18日，市林业局举办党史学习教育专题读书班，局机关及二级机构全体人员参加会议，党组书记、局长朱振华主持会议。', '读书班集中学习了习近平总书记在“领导人气候峰会”、博鳌亚洲论坛2021年年会开幕式、在广西和清华大学考察时的重要讲话精神，学习了习近平总书记关于力戒形式主义官僚主义、全面从严治党、青年工作和中国梦等方面的重要论述，深入研读了《论中国共产党历史》《毛泽东邓小平江泽民胡锦涛关于中国共产党历史论述摘编》《习近平新时代中国特色社会主义思想学习问答》有关内容，系统开展了社会主义革命和建设时期以及改革开放新时期历史的专题学习。', '读书班采取集中学习与自主学习相结合、学习与研讨交流相结合、书面学习与视频教育相结合，坚持领导示范带头，一体推进“读、听、议、讲”，主题突出、特色鲜明、形式多样，达到了预期效果。下一步将进一步做好党史学习和林业中心工作的结合文章，学党史，抓整改，正作风，确保学习教育成果及时转化。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>103</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>政务资讯市应急局学习贯彻习近平总书记在广西考察期间重要讲话精神</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2021-05-20</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60a614a2886688ac5e8b4570.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['5月19日上午，市应急管理局召开党委理论学习中心组会议，学习贯彻习近平总书记在广西考察期间重要讲话精神。局党委委员、副局长李贺主持会议，局领导、局相关科室和二级机构负责人参加会议。', '会议重点学习了习近平总书记在广西考察期间、在中央政治局第二十九次集体学习时的重要讲话精神，以及中共中央办公厅有关文件等内容。', '李贺指出，习近平总书记在广西考察期间的重要讲话精神，对我们做好当前工作具有很强的指导性。我们要深刻领会，抓好落实。一要明理悟思想，进一步学习马克思主义基本原理，筑牢理论根基；二要增信担使命，只有心中有信仰，脚下才能有力量；三要崇德葆初心，从红色精神中立心铸魂，树立初心使命；四要立行办实事，学党史落脚点在为群众办实事上，要把党史学习教育作为强化应急管理工作的重要抓手，守正创新抓住机遇、锐意进取开辟新局，努力推动应急管理工作高质量发展，有效防范和化解重大安全风险，确保全市安全生产形势稳定。', '李贺强调，全局党员干部要把学习领会习近平总书记在广西考察期间的重要讲话精神同学习领会习近平总书记关于党史学习教育的重要论述结合起来，按照“六个进一步”的要求，学党史、悟思想、办实事、开新局，不断增强开展党史学习教育的思想自觉和行动自觉，切实把学习成效转化为工作动力和工作实绩，践行以人民为中心的发展理念，以高度的责任感、使命感做好应急管理工作，深入推进应急管理体系和能力现代化。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>103</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>政务资讯市退役军人事务局举行党史学习教育研讨暨书记讲堂专题党课报告会</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60ab9390886688d5058b4571.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['5月24日，市退役军人事务局召开全体党员大会，组织进行党史学习教育研讨和党组书记专题党课辅导，局系统全体党员、入党积极分子和发展对象等50余人参加学习。', '会上，在依次观看了习近平总书记在广西考察时系列新闻报道和党史学习辅导讲座视频后，局机关科室和二级机构3名负责人交流了党史学习心得体会；李士坤同志最后围绕党史学习教育个人感悟为全体党员进行了专题党课辅导。', '李士坤在党课中指出，作为退役军人工作系统的党员干部，要以高度政治自觉开展好党史学习教育。一是要做到学史明理，在深刻领悟内涵中增强政治自觉思想自觉。领悟中国共产党为什么“能”、马克思主义为什么“行”、中国特色社会主义为什么“好”。二是要学史增信，在感受我们党创造的伟大成就中坚定信念信心。感悟中国共产党的领导和社会主义制度的显著优势，从党史中汲取坚定自信开新局的力量。三是要学史崇德，在牢记我们党初心和使命中践行宗旨意识。深化对党的性质宗旨认识，永葆共产党人的初心本色,带着责任、带着感情做好退役军人工作。四是要学史力行，在推进我市退役军人事业进程中展现担当作为。强化政治机关意识和思想政治工作，加强各地各部门中党的领导，把退役军人团结凝聚在党的旗帜下，认真化解历史遗留问题，让拥军优属、尊崇军人、关爱退役军人成为思想自觉、行动自觉。', '李士坤强调，随着党史学习教育的深入和“十四五”纲要逐步推进落实，我们要准确把握新发展理念的精神实质和实践要求，不断提升退役军人服务管理保障效能和水平，有力有效服务国防和军队建设大局，为新阶段现代化实力阜阳大美阜阳建设和中华民族伟大复兴而努力奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>103</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>政务资讯杨光荣在颍上县开展党史学习教育我为群众办实事实践活动</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60aafe638866882d7e8b456f.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['按照省委统一部署，5月21日，副省长、市委书记杨光荣深入颍上县部分镇村，开展党史学习教育“我为群众办实事”实践活动。市委常委、市委秘书长王波，市人大常委会副主任、颍上县委书记黄琦参加。', '位于颍上县南照镇的十里生态农业有限公司流转土地600多亩发展现代农业，有力带动了当地群众增收。杨光荣深入种植大棚，详细了解种植规模、产品市场、带动就业及发展面临的困难等情况。他指出，乡村振兴的关键是产业振兴，颍上县和相关部门要加大扶持力度，创新方式方法，切实帮助农业经营主体解决好发展过程中遇到的实际困难和问题，持续推动农业增效、农民增收。', '在颍上县西三十铺镇，杨光荣走进镇新冠疫苗接种点、为民服务中心和综治中心，实地调研疫苗接种、基层窗口单位为群众办实事情况，并现场接待两批次来访群众，与他们面对面沟通交流，帮助协调解决相关问题。他强调，要持续做好疫苗接种动员，加强疫苗接种点服务、管理，加快构筑我市群体免疫屏障。要始终树牢群众观点，不断提升服务意识和服务能力，依法依规解决合理诉求，切实维护好信访群众合法权益。', '杨光荣十分牵挂脱贫不稳定户、边缘易致贫户及因病因残因灾因意外事故等导致基本生活出现严重困难户等“三类户”的生产生活，在西三十铺镇洪单村，他深入林宝川等“三类户”家中走访慰问，了解他们的收入来源和生产生活情况，要求全市领导干部加强对“三类户”的走访联系，及时帮助解决新困难、新问题，巩固拓展脱贫攻坚成果，推动乡村全面振兴开好局、起好步。', '洪单村村嫂陈颍积极参与乡村治理的同时，发挥专业特长，义务辅导当地留守儿童。杨光荣对她积极服务乡村、服务村民的做法给予肯定，并要求颍上县及相关部门进一步加大对村嫂理事会的支持力度，充分发挥村嫂政策法规“宣传员”、村居环境“监督员”、乡风文明“引领员”、矛盾纠纷“调解员”、村居治理“信息员”和扶弱济困“服务员”的积极作用，推进常态化服务，激发社会活力，完善基层社会治理体系。', '调研中，杨光荣强调，开展好“我为群众办实事”实践活动，全市广大党员干部要深入学习贯彻习近平总书记在党史学习教育动员大会上的重要讲话精神和考察安徽重要讲话指示精神，践行初心使命、强化为民情怀，带头下基层听意见，带头出实招办实事，用心用情用力解决基层的困难事、群众的烦心事，不断增强人民群众的获得感幸福感安全感。', '杨光荣要求，要深入走访调研，坚持走进基层、走进一线、走进群众，察实情、听实话，精准对接发展所需、基层所盼、民心所向。要聚焦重点任务，围绕贯彻新发展理念、巩固拓展脱贫攻坚成果、保障基层民生需求、深化政务服务改革、推进基层治理体系和治理能力现代化等方面，强化政策举措、推出实招硬招、实施民生项目、解决矛盾纠纷。要加强组织领导，研究确定重点民生项目清单，结合实际分类分层次实施，加强督导指导，以良好作风把好事办实、把实事办好，办到群众心坎上。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>103</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>政务资讯颍泉区召开区委理论学习中心组学习会议</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2021-05-17</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/60a1e6dc88668817378b456c.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['5月14日，颍泉区委书记虞建斌主持召开区委理论学习中心组学习会议，传达学习习近平总书记重要讲话精神，研究部署当前重点工作。区委理论学习中心组成员、区直相关单位党委（党组）主要负责人和各镇街道园区党（工）委书记参加会议。', '会上，颍泉区委常委、常务副区长纪兰芳传达了习近平总书记在4月30日中共中央政治局会议上的重要讲话精神、省党政代表团赴沪苏浙学习考察总结交流会会议精神；区委常委、区委组织部部长、区委统战部部长、区政协党组副书记李金刚领学了《中国共产党组织处理规定（试行）》《论中国共产党历史》等党史学习教育书籍部分章节。', '虞建斌指出，要深刻领会、深入贯彻习近平总书记4月30日在中央政治局会议上的重要讲话精神，进一步做好经济工作、国土保护和组织工作。要准确把握党中央对当前经济形势的分析判断，按照党中央决策部署及省委、市委工作安排，加强经济运行分析调度，确保全年目标任务高质量完成。要始终坚持最严格耕地保护制度，坚决遏制耕地“非农化”、严格管控“非粮化”，扎实做好“四类地”问题整改，持续提升国土资源保护、开发利用的质量和效益。要全面抓好《中国共产党组织工作条例》的学习培训和贯彻落实，认真践行新时代党的组织路线，着力强组织、抓班子、带队伍、育人才。', '虞建斌强调，要深入学习、全面贯彻李锦斌书记在省党政代表团赴沪苏浙学习考察总结交流会上的讲话精神，要在建设皖北承接产业转移集聚区上、在实施科技创新“4111”五年行动计划上、在推进城区对口合作区块链接上、在建设长三角绿色农产品生产加工供应基地上、在对标长三角干部观念作风能力上抓好对接，切实做好与长三角中心区对接合作。', '虞建斌指出，组织处理是教育干部、管理干部的必备手段，是全面从严治党的重要措施。要强化主体责任，认真学习领会《中国共产党组织处理规定（试行）》，精准科学做好组织处理工作。要强化监督指导，坚决维护制度刚性，确保各项要求落到实处。要强化从严律己，主动对标对表，严格自我审视，切实发挥好党员先锋模范作用。', '虞建斌强调，当前要做好五项重点工作，一要着力巩固良好政治生态。要切实站稳政治立场，不断提升政治能力，压紧压实政治责任，不断提高政治领悟力、政治判断力、政治执行力，坚决在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，确保上级各项决策部署落到实处。二要着力推进经济社会健康发展。持续保持良好发展势头、做大实体经济、提升发展质量、抓好有效衔接、推进民主法治、增进民生福祉，努力实现上半年经济增长“双过半”。三要着力维护社会大局和谐稳定。要统筹好发展和安全两件大事，坚持总体国家安全观，增强忧患意识、坚持底线思维，稳控好社会局面、落实好安全责任、谋划好度汛准备、应对好突发事件、防控好网络舆情。四要着力抓好当前的重点工作任务。要抓好党史学习教育、中央巡视整改、新一轮“三个以案”警示教育、中央环保督察整改、政法队伍教育整顿、区镇领导班子换届等重点工作。五要着力保持干部昂扬的工作状态。突出严管厚爱，注重班子团结，锤炼过硬的作风，严守纪律规矩，引导广大党员干部正确看待当前工作形势，始终保持良好的精神状态，积极进取、真抓实干，奋力开创全区经济社会发展和党的建设新局面，以优异成绩庆祝建党100周年。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>103</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>政务资讯市委理论学习中心组学习会议暨市委党史学习教育领导小组第二次会议召开</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.fy.gov.cn/content/detail/609cde38886688d3108b4568.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['市委理论学习中心组学习会议暨市委党史学习教育领导小组第二次会议召开-阜阳市人民政府', '5月12日下午，副省长、市委书记杨光荣主持召开市委理论学习中心组学习会议暨市委党史学习教育领导小组第二次会议。省委党史学习教育第六巡回指导组组长黄玉明、副组长陈蓓到会指导。市领导胡明莹、李志伟、刘玉杰、王朝晖、张家忠、章绍伟、王波、陈兆国、白晓云等出席会议。', '会议学习了习近平《论中国共产党历史》、《毛泽东、邓小平、江泽民、胡锦涛关于中国共产党历史论述摘编》、《习近平新时代中国特色社会主义思想学习问答》、《中国共产党简史》，传达学习了省委党史学习教育领导小组会议精神、全省党史学习教育工作座谈会精神、省委第六巡回指导组来阜指导见面会精神，听取了全市党史学习教育开展情况及下步工作建议汇报，审议了市委常委班子和全市党史学习教育重点任务表、市委党史学习教育巡回指导组组成人员名单。', '杨光荣指出，习近平总书记在广西考察时强调，“学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量”。做到学史增信，我们就是要从党的百年奋斗征程中增强对马克思主义、共产主义的信仰，从党的系列历史壮举中增强对中国特色社会主义的信念，从党取得的伟大成就中增强对实现中华民族伟大复兴的信心，把学史增信的成效转化为悟思想、办实事、开新局的实际行动，以实干实绩展现更大作为。', '杨光荣强调，全市党史学习教育开展以来，进展顺利、特色明显、开局良好，取得了阶段性成效。进一步推动党史学习教育走深走实，我们要在提升学习教育质量上下功夫，引导党员干部从党的百年非凡历程中经受思想上和政治上的洗礼，自觉用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作；要在用足用好红色资源上下功夫，生动展现阜阳革命历史，讲好阜阳红色故事，开展好“四史”宣传教育；要在真心实意解决难题上下功夫，认真落实《阜阳市“我为群众办实事”实践活动实施方案》，集中解决一批突出问题，以优良作风确保实事办好、好事办实；要在压紧压实工作责任上下功夫，压紧压实各级党委、党史学习教育领导小组及其办公室、各成员单位责任，统筹抓好党史学习教育与巡视整改、新一轮深化“三个以案”警示教育、政法队伍教育整顿、生态环境问题整改、推动高质量发展等重点工作，奋力开创全市各项事业发展新局面。', '我们要在提升学习教育质量上下功夫，引导党员干部从党的百年非凡历程中经受思想上和政治上的洗礼，自觉用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作；', '认真落实《阜阳市“我为群众办实事”实践活动实施方案》，集中解决一批突出问题，以优良作风确保实事办好、好事办实；', '压紧压实各级党委、党史学习教育领导小组及其办公室、各成员单位责任，统筹抓好党史学习教育与巡视整改、新一轮深化“三个以案”警示教育、政法队伍教育整顿、生态环境问题整改、推动高质量发展等重点工作，奋力开创全市各项事业发展新局面。', '黄玉明对我市党史学习教育工作提出指导意见，要求进一步认真学习领会习近平总书记关于党史学习教育的重要讲话指示精神，进一步全面贯彻落实中央及省委部署要求，进一步把开展党史学习教育与推进改革发展稳定有机结合起来，推动党史学习教育和经济社会发展两促进、两不误。']</t>
         </is>
